--- a/2022/Fantasy F1 2022.xlsx
+++ b/2022/Fantasy F1 2022.xlsx
@@ -1326,6 +1326,66 @@
       <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="B6" s="13">
+        <v>97</v>
+      </c>
+      <c r="C6" s="13">
+        <v>156</v>
+      </c>
+      <c r="D6" s="13">
+        <v>172</v>
+      </c>
+      <c r="E6" s="13">
+        <v>133</v>
+      </c>
+      <c r="F6" s="13">
+        <v>219</v>
+      </c>
+      <c r="G6" s="13">
+        <v>92</v>
+      </c>
+      <c r="H6" s="13">
+        <v>36</v>
+      </c>
+      <c r="I6" s="13">
+        <v>88</v>
+      </c>
+      <c r="J6" s="13">
+        <v>8</v>
+      </c>
+      <c r="K6" s="13">
+        <v>92</v>
+      </c>
+      <c r="L6" s="13">
+        <v>39</v>
+      </c>
+      <c r="M6" s="13">
+        <v>36</v>
+      </c>
+      <c r="N6" s="13">
+        <v>31</v>
+      </c>
+      <c r="O6" s="13">
+        <v>59</v>
+      </c>
+      <c r="P6" s="13">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>31</v>
+      </c>
+      <c r="R6" s="13">
+        <v>91</v>
+      </c>
+      <c r="S6" s="13">
+        <v>32</v>
+      </c>
+      <c r="T6" s="13">
+        <v>24</v>
+      </c>
+      <c r="U6" s="13">
+        <v>67</v>
+      </c>
       <c r="W6" s="12" t="s">
         <v>4</v>
       </c>
@@ -1397,6 +1457,66 @@
       <c r="W7" s="12" t="s">
         <v>5</v>
       </c>
+      <c r="X7" s="13">
+        <v>30.2</v>
+      </c>
+      <c r="Y7" s="13">
+        <v>24.2</v>
+      </c>
+      <c r="Z7" s="13">
+        <v>30.3</v>
+      </c>
+      <c r="AA7" s="13">
+        <v>18.3</v>
+      </c>
+      <c r="AB7" s="13">
+        <v>19</v>
+      </c>
+      <c r="AC7" s="13">
+        <v>17.2</v>
+      </c>
+      <c r="AD7" s="13">
+        <v>14</v>
+      </c>
+      <c r="AE7" s="13">
+        <v>16.1</v>
+      </c>
+      <c r="AF7" s="13">
+        <v>12.5</v>
+      </c>
+      <c r="AG7" s="13">
+        <v>12.4</v>
+      </c>
+      <c r="AH7" s="13">
+        <v>13</v>
+      </c>
+      <c r="AI7" s="13">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AJ7" s="13">
+        <v>11.4</v>
+      </c>
+      <c r="AK7" s="13">
+        <v>8.9</v>
+      </c>
+      <c r="AL7" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="AM7" s="13">
+        <v>6.6</v>
+      </c>
+      <c r="AN7" s="13">
+        <v>9.4</v>
+      </c>
+      <c r="AO7" s="13">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AP7" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="AQ7" s="13">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="8" spans="1:43">
       <c r="A8" s="12" t="s">
@@ -1528,612 +1648,612 @@
     </row>
     <row r="25" spans="1:43">
       <c r="B25" s="13">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C25" s="13">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="D25" s="13">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="E25" s="13">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="F25" s="13">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="G25" s="13">
+        <v>92</v>
+      </c>
+      <c r="H25" s="13">
+        <v>36</v>
+      </c>
+      <c r="I25" s="13">
+        <v>88</v>
+      </c>
+      <c r="J25" s="13">
+        <v>8</v>
+      </c>
+      <c r="K25" s="13">
+        <v>92</v>
+      </c>
+      <c r="L25" s="13">
+        <v>39</v>
+      </c>
+      <c r="M25" s="13">
+        <v>36</v>
+      </c>
+      <c r="N25" s="13">
+        <v>31</v>
+      </c>
+      <c r="O25" s="13">
+        <v>59</v>
+      </c>
+      <c r="P25" s="13">
         <v>61</v>
       </c>
-      <c r="H25" s="13">
-        <v>28</v>
-      </c>
-      <c r="I25" s="13">
-        <v>90</v>
-      </c>
-      <c r="J25" s="13">
-        <v>3</v>
-      </c>
-      <c r="K25" s="13">
-        <v>74</v>
-      </c>
-      <c r="L25" s="13">
-        <v>40</v>
-      </c>
-      <c r="M25" s="13">
-        <v>33</v>
-      </c>
-      <c r="N25" s="13">
-        <v>36</v>
-      </c>
-      <c r="O25" s="13">
-        <v>48</v>
-      </c>
-      <c r="P25" s="13">
-        <v>42</v>
-      </c>
       <c r="Q25" s="13">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="R25" s="13">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="S25" s="13">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="T25" s="13">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="U25" s="13">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="X25" s="13">
-        <v>153.2</v>
+        <v>183.4</v>
       </c>
       <c r="Y25" s="13">
-        <v>119.5</v>
+        <v>143.7</v>
       </c>
       <c r="Z25" s="13">
-        <v>152</v>
+        <v>182.3</v>
       </c>
       <c r="AA25" s="13">
-        <v>88.80000000000001</v>
+        <v>107.1</v>
       </c>
       <c r="AB25" s="13">
-        <v>92.40000000000001</v>
+        <v>111.4</v>
       </c>
       <c r="AC25" s="13">
-        <v>85.89999999999999</v>
+        <v>103.1</v>
       </c>
       <c r="AD25" s="13">
-        <v>70.89999999999999</v>
+        <v>84.89999999999999</v>
       </c>
       <c r="AE25" s="13">
-        <v>79.2</v>
+        <v>95.30000000000001</v>
       </c>
       <c r="AF25" s="13">
-        <v>62.3</v>
+        <v>74.8</v>
       </c>
       <c r="AG25" s="13">
-        <v>61.5</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="AH25" s="13">
-        <v>66.40000000000001</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="AI25" s="13">
-        <v>42.2</v>
+        <v>50.5</v>
       </c>
       <c r="AJ25" s="13">
-        <v>57.3</v>
+        <v>68.7</v>
       </c>
       <c r="AK25" s="13">
-        <v>46</v>
+        <v>54.9</v>
       </c>
       <c r="AL25" s="13">
-        <v>36.5</v>
+        <v>44</v>
       </c>
       <c r="AM25" s="13">
-        <v>34.1</v>
+        <v>40.7</v>
       </c>
       <c r="AN25" s="13">
-        <v>46.3</v>
+        <v>55.7</v>
       </c>
       <c r="AO25" s="13">
-        <v>41.1</v>
+        <v>49.40000000000001</v>
       </c>
       <c r="AP25" s="13">
-        <v>31.9</v>
+        <v>38.1</v>
       </c>
       <c r="AQ25" s="13">
-        <v>29.1</v>
+        <v>35.2</v>
       </c>
     </row>
     <row r="26" spans="1:43">
       <c r="B26" s="13">
-        <v>0.5091383812010444</v>
+        <v>0.5288985823336969</v>
       </c>
       <c r="C26" s="13">
-        <v>1.00418410041841</v>
+        <v>1.085594989561587</v>
       </c>
       <c r="D26" s="13">
-        <v>0.7631578947368421</v>
+        <v>0.9434997257268238</v>
       </c>
       <c r="E26" s="13">
-        <v>1.182432432432432</v>
+        <v>1.241830065359477</v>
       </c>
       <c r="F26" s="13">
-        <v>1.829004329004329</v>
+        <v>1.96588868940754</v>
       </c>
       <c r="G26" s="13">
-        <v>0.710128055878929</v>
+        <v>0.8923375363724539</v>
       </c>
       <c r="H26" s="13">
-        <v>0.3949224259520452</v>
+        <v>0.4240282685512368</v>
       </c>
       <c r="I26" s="13">
-        <v>1.136363636363636</v>
+        <v>0.9233997901364113</v>
       </c>
       <c r="J26" s="13">
-        <v>0.04815409309791333</v>
+        <v>0.106951871657754</v>
       </c>
       <c r="K26" s="13">
-        <v>1.203252032520325</v>
+        <v>1.244925575101488</v>
       </c>
       <c r="L26" s="13">
-        <v>0.6024096385542168</v>
+        <v>0.4911838790931989</v>
       </c>
       <c r="M26" s="13">
-        <v>0.7819905213270142</v>
+        <v>0.7128712871287128</v>
       </c>
       <c r="N26" s="13">
-        <v>0.6282722513089005</v>
+        <v>0.4512372634643377</v>
       </c>
       <c r="O26" s="13">
-        <v>1.043478260869565</v>
+        <v>1.074681238615665</v>
       </c>
       <c r="P26" s="13">
-        <v>1.150684931506849</v>
+        <v>1.386363636363636</v>
       </c>
       <c r="Q26" s="13">
-        <v>0.5571847507331378</v>
+        <v>0.7616707616707616</v>
       </c>
       <c r="R26" s="13">
-        <v>1.598272138228942</v>
+        <v>1.633752244165171</v>
       </c>
       <c r="S26" s="13">
-        <v>0.9975669099756691</v>
+        <v>0.6477732793522266</v>
       </c>
       <c r="T26" s="13">
-        <v>0.5015673981191223</v>
+        <v>0.6299212598425197</v>
       </c>
       <c r="U26" s="13">
-        <v>2.233676975945017</v>
+        <v>1.903409090909091</v>
       </c>
       <c r="X26" s="13">
-        <v>0.5091383812010444</v>
+        <v>0.5288985823336969</v>
       </c>
       <c r="Y26" s="13">
-        <v>1.00418410041841</v>
+        <v>1.085594989561587</v>
       </c>
       <c r="Z26" s="13">
-        <v>0.7631578947368421</v>
+        <v>0.9434997257268238</v>
       </c>
       <c r="AA26" s="13">
-        <v>1.182432432432432</v>
+        <v>1.241830065359477</v>
       </c>
       <c r="AB26" s="13">
-        <v>1.829004329004329</v>
+        <v>1.96588868940754</v>
       </c>
       <c r="AC26" s="13">
-        <v>0.710128055878929</v>
+        <v>0.8923375363724539</v>
       </c>
       <c r="AD26" s="13">
-        <v>0.3949224259520452</v>
+        <v>0.4240282685512368</v>
       </c>
       <c r="AE26" s="13">
-        <v>1.136363636363636</v>
+        <v>0.9233997901364113</v>
       </c>
       <c r="AF26" s="13">
-        <v>0.04815409309791333</v>
+        <v>0.106951871657754</v>
       </c>
       <c r="AG26" s="13">
-        <v>1.203252032520325</v>
+        <v>1.244925575101488</v>
       </c>
       <c r="AH26" s="13">
-        <v>0.6024096385542168</v>
+        <v>0.4911838790931989</v>
       </c>
       <c r="AI26" s="13">
-        <v>0.7819905213270142</v>
+        <v>0.7128712871287128</v>
       </c>
       <c r="AJ26" s="13">
-        <v>0.6282722513089005</v>
+        <v>0.4512372634643377</v>
       </c>
       <c r="AK26" s="13">
-        <v>1.043478260869565</v>
+        <v>1.074681238615665</v>
       </c>
       <c r="AL26" s="13">
-        <v>1.150684931506849</v>
+        <v>1.386363636363636</v>
       </c>
       <c r="AM26" s="13">
-        <v>0.5571847507331378</v>
+        <v>0.7616707616707616</v>
       </c>
       <c r="AN26" s="13">
-        <v>1.598272138228942</v>
+        <v>1.633752244165171</v>
       </c>
       <c r="AO26" s="13">
-        <v>0.9975669099756691</v>
+        <v>0.6477732793522266</v>
       </c>
       <c r="AP26" s="13">
-        <v>0.5015673981191223</v>
+        <v>0.6299212598425197</v>
       </c>
       <c r="AQ26" s="13">
-        <v>2.233676975945017</v>
+        <v>1.903409090909091</v>
       </c>
     </row>
     <row r="27" spans="1:43">
       <c r="B27" s="13">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="C27" s="13">
-        <v>30</v>
+        <v>31.2</v>
       </c>
       <c r="D27" s="13">
-        <v>29</v>
+        <v>34.4</v>
       </c>
       <c r="E27" s="13">
-        <v>26.25</v>
+        <v>26.6</v>
       </c>
       <c r="F27" s="13">
-        <v>42.25</v>
+        <v>43.8</v>
       </c>
       <c r="G27" s="13">
-        <v>15.25</v>
+        <v>18.4</v>
       </c>
       <c r="H27" s="13">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I27" s="13">
-        <v>22.5</v>
+        <v>17.6</v>
       </c>
       <c r="J27" s="13">
-        <v>0.75</v>
+        <v>1.6</v>
       </c>
       <c r="K27" s="13">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="L27" s="13">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="M27" s="13">
-        <v>8.25</v>
+        <v>7.2</v>
       </c>
       <c r="N27" s="13">
-        <v>9</v>
+        <v>6.2</v>
       </c>
       <c r="O27" s="13">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="P27" s="13">
-        <v>10.5</v>
+        <v>12.2</v>
       </c>
       <c r="Q27" s="13">
-        <v>4.75</v>
+        <v>6.2</v>
       </c>
       <c r="R27" s="13">
-        <v>18.5</v>
+        <v>18.2</v>
       </c>
       <c r="S27" s="13">
-        <v>10.25</v>
+        <v>6.4</v>
       </c>
       <c r="T27" s="13">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="U27" s="13">
-        <v>16.25</v>
+        <v>13.4</v>
       </c>
       <c r="X27" s="13">
-        <v>30.64</v>
+        <v>30.56666666666666</v>
       </c>
       <c r="Y27" s="13">
-        <v>23.9</v>
+        <v>23.95</v>
       </c>
       <c r="Z27" s="13">
-        <v>30.4</v>
+        <v>30.38333333333334</v>
       </c>
       <c r="AA27" s="13">
-        <v>17.76</v>
+        <v>17.85</v>
       </c>
       <c r="AB27" s="13">
-        <v>18.48</v>
+        <v>18.56666666666667</v>
       </c>
       <c r="AC27" s="13">
-        <v>17.18</v>
+        <v>17.18333333333333</v>
       </c>
       <c r="AD27" s="13">
-        <v>14.18</v>
+        <v>14.15</v>
       </c>
       <c r="AE27" s="13">
-        <v>15.84</v>
+        <v>15.88333333333333</v>
       </c>
       <c r="AF27" s="13">
-        <v>12.46</v>
+        <v>12.46666666666667</v>
       </c>
       <c r="AG27" s="13">
-        <v>12.3</v>
+        <v>12.31666666666667</v>
       </c>
       <c r="AH27" s="13">
-        <v>13.28</v>
+        <v>13.23333333333333</v>
       </c>
       <c r="AI27" s="13">
-        <v>8.440000000000001</v>
+        <v>8.416666666666666</v>
       </c>
       <c r="AJ27" s="13">
-        <v>11.46</v>
+        <v>11.45</v>
       </c>
       <c r="AK27" s="13">
-        <v>9.199999999999999</v>
+        <v>9.15</v>
       </c>
       <c r="AL27" s="13">
-        <v>7.3</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="AM27" s="13">
-        <v>6.82</v>
+        <v>6.783333333333334</v>
       </c>
       <c r="AN27" s="13">
-        <v>9.26</v>
+        <v>9.283333333333333</v>
       </c>
       <c r="AO27" s="13">
-        <v>8.220000000000001</v>
+        <v>8.233333333333334</v>
       </c>
       <c r="AP27" s="13">
-        <v>6.38</v>
+        <v>6.350000000000001</v>
       </c>
       <c r="AQ27" s="13">
-        <v>5.82</v>
+        <v>5.866666666666667</v>
       </c>
     </row>
     <row r="28" spans="1:43">
       <c r="B28" s="13">
-        <v>0.6364229765013055</v>
+        <v>0.6346782988004362</v>
       </c>
       <c r="C28" s="13">
-        <v>1.255230125523013</v>
+        <v>1.302713987473904</v>
       </c>
       <c r="D28" s="13">
-        <v>0.9539473684210527</v>
+        <v>1.132199670872189</v>
       </c>
       <c r="E28" s="13">
-        <v>1.47804054054054</v>
+        <v>1.490196078431373</v>
       </c>
       <c r="F28" s="13">
-        <v>2.286255411255411</v>
+        <v>2.359066427289048</v>
       </c>
       <c r="G28" s="13">
-        <v>0.8876600698486613</v>
+        <v>1.070805043646945</v>
       </c>
       <c r="H28" s="13">
-        <v>0.4936530324400565</v>
+        <v>0.5088339222614842</v>
       </c>
       <c r="I28" s="13">
-        <v>1.420454545454545</v>
+        <v>1.108079748163694</v>
       </c>
       <c r="J28" s="13">
-        <v>0.06019261637239166</v>
+        <v>0.1283422459893048</v>
       </c>
       <c r="K28" s="13">
-        <v>1.504065040650406</v>
+        <v>1.493910690121786</v>
       </c>
       <c r="L28" s="13">
-        <v>0.753012048192771</v>
+        <v>0.5894206549118387</v>
       </c>
       <c r="M28" s="13">
-        <v>0.9774881516587677</v>
+        <v>0.8554455445544555</v>
       </c>
       <c r="N28" s="13">
-        <v>0.7853403141361257</v>
+        <v>0.5414847161572052</v>
       </c>
       <c r="O28" s="13">
-        <v>1.304347826086957</v>
+        <v>1.289617486338798</v>
       </c>
       <c r="P28" s="13">
-        <v>1.438356164383562</v>
+        <v>1.663636363636364</v>
       </c>
       <c r="Q28" s="13">
-        <v>0.6964809384164222</v>
+        <v>0.9140049140049139</v>
       </c>
       <c r="R28" s="13">
-        <v>1.997840172786177</v>
+        <v>1.960502692998205</v>
       </c>
       <c r="S28" s="13">
-        <v>1.246958637469586</v>
+        <v>0.7773279352226721</v>
       </c>
       <c r="T28" s="13">
-        <v>0.6269592476489029</v>
+        <v>0.7559055118110235</v>
       </c>
       <c r="U28" s="13">
-        <v>2.792096219931271</v>
+        <v>2.284090909090909</v>
       </c>
       <c r="X28" s="13">
-        <v>0.6364229765013055</v>
+        <v>0.6346782988004362</v>
       </c>
       <c r="Y28" s="13">
-        <v>1.255230125523013</v>
+        <v>1.302713987473904</v>
       </c>
       <c r="Z28" s="13">
-        <v>0.9539473684210527</v>
+        <v>1.132199670872189</v>
       </c>
       <c r="AA28" s="13">
-        <v>1.47804054054054</v>
+        <v>1.490196078431373</v>
       </c>
       <c r="AB28" s="13">
-        <v>2.286255411255411</v>
+        <v>2.359066427289048</v>
       </c>
       <c r="AC28" s="13">
-        <v>0.8876600698486613</v>
+        <v>1.070805043646945</v>
       </c>
       <c r="AD28" s="13">
-        <v>0.4936530324400565</v>
+        <v>0.5088339222614842</v>
       </c>
       <c r="AE28" s="13">
-        <v>1.420454545454545</v>
+        <v>1.108079748163694</v>
       </c>
       <c r="AF28" s="13">
-        <v>0.06019261637239166</v>
+        <v>0.1283422459893048</v>
       </c>
       <c r="AG28" s="13">
-        <v>1.504065040650406</v>
+        <v>1.493910690121786</v>
       </c>
       <c r="AH28" s="13">
-        <v>0.753012048192771</v>
+        <v>0.5894206549118387</v>
       </c>
       <c r="AI28" s="13">
-        <v>0.9774881516587677</v>
+        <v>0.8554455445544555</v>
       </c>
       <c r="AJ28" s="13">
-        <v>0.7853403141361257</v>
+        <v>0.5414847161572052</v>
       </c>
       <c r="AK28" s="13">
-        <v>1.304347826086957</v>
+        <v>1.289617486338798</v>
       </c>
       <c r="AL28" s="13">
-        <v>1.438356164383562</v>
+        <v>1.663636363636364</v>
       </c>
       <c r="AM28" s="13">
-        <v>0.6964809384164222</v>
+        <v>0.9140049140049139</v>
       </c>
       <c r="AN28" s="13">
-        <v>1.997840172786177</v>
+        <v>1.960502692998205</v>
       </c>
       <c r="AO28" s="13">
-        <v>1.246958637469586</v>
+        <v>0.7773279352226721</v>
       </c>
       <c r="AP28" s="13">
-        <v>0.6269592476489029</v>
+        <v>0.7559055118110235</v>
       </c>
       <c r="AQ28" s="13">
-        <v>2.792096219931271</v>
+        <v>2.284090909090909</v>
       </c>
     </row>
     <row r="29" spans="1:43">
       <c r="B29" s="13">
-        <v>63.125</v>
+        <v>45.18646168931576</v>
       </c>
       <c r="C29" s="13">
-        <v>4.75</v>
+        <v>5.974773635879444</v>
       </c>
       <c r="D29" s="13">
-        <v>318.25</v>
+        <v>279.8841566076937</v>
       </c>
       <c r="E29" s="13">
-        <v>113.09375</v>
+        <v>81.14243476751234</v>
       </c>
       <c r="F29" s="13">
-        <v>30.34375</v>
+        <v>26.00994271427759</v>
       </c>
       <c r="G29" s="13">
-        <v>112.09375</v>
+        <v>97.95766595831081</v>
       </c>
       <c r="H29" s="13">
-        <v>48.25</v>
+        <v>34.59644374787674</v>
       </c>
       <c r="I29" s="13">
-        <v>110.625</v>
+        <v>122.1072001153085</v>
       </c>
       <c r="J29" s="13">
-        <v>14.59375</v>
+        <v>11.7348847459189</v>
       </c>
       <c r="K29" s="13">
-        <v>5.125</v>
+        <v>3.685040026919683</v>
       </c>
       <c r="L29" s="13">
-        <v>33.75</v>
+        <v>32.80758936587691</v>
       </c>
       <c r="M29" s="13">
-        <v>151.84375</v>
+        <v>110.6227549828696</v>
       </c>
       <c r="N29" s="13">
-        <v>67.75</v>
+        <v>62.50257210707412</v>
       </c>
       <c r="O29" s="13">
-        <v>4.5</v>
+        <v>3.291492062879684</v>
       </c>
       <c r="P29" s="13">
-        <v>6.125</v>
+        <v>9.552482399879107</v>
       </c>
       <c r="Q29" s="13">
-        <v>31.84375</v>
+        <v>26.5465990288775</v>
       </c>
       <c r="R29" s="13">
-        <v>84.375</v>
+        <v>60.53483228687433</v>
       </c>
       <c r="S29" s="13">
-        <v>2.59375</v>
+        <v>28.37123049851733</v>
       </c>
       <c r="T29" s="13">
-        <v>14.75</v>
+        <v>11.6991076582789</v>
       </c>
       <c r="U29" s="13">
-        <v>28.59375</v>
+        <v>34.98999171191671</v>
       </c>
       <c r="X29" s="13">
-        <v>0.04579467217924149</v>
+        <v>0.04581453037434459</v>
       </c>
       <c r="Y29" s="13">
-        <v>0.007155417528033493</v>
+        <v>0.01054641417033008</v>
       </c>
       <c r="Z29" s="13">
-        <v>0.003577708764016746</v>
+        <v>0.003288666784235091</v>
       </c>
       <c r="AA29" s="13">
-        <v>0.02790612835918318</v>
+        <v>0.03776296686789619</v>
       </c>
       <c r="AB29" s="13">
-        <v>0.07048086265079434</v>
+        <v>0.06894860016725259</v>
       </c>
       <c r="AC29" s="13">
-        <v>0.009659813662789288</v>
+        <v>0.007371149688916421</v>
       </c>
       <c r="AD29" s="13">
-        <v>0.03470377501083025</v>
+        <v>0.02823717342375966</v>
       </c>
       <c r="AE29" s="13">
-        <v>0.02432841959521728</v>
+        <v>0.02234025367260099</v>
       </c>
       <c r="AF29" s="13">
-        <v>0.002862167011205771</v>
+        <v>0.002268046058122775</v>
       </c>
       <c r="AG29" s="13">
-        <v>0.02862167011198144</v>
+        <v>0.02234025367258939</v>
       </c>
       <c r="AH29" s="13">
-        <v>0.01860408557279302</v>
+        <v>0.01859797767667405</v>
       </c>
       <c r="AI29" s="13">
-        <v>0.00286216701119306</v>
+        <v>0.003288666784298908</v>
       </c>
       <c r="AJ29" s="13">
-        <v>0.001073312629210108</v>
+        <v>0.001020620726158729</v>
       </c>
       <c r="AK29" s="13">
-        <v>0.02862167011200051</v>
+        <v>0.02687634578886975</v>
       </c>
       <c r="AL29" s="13">
-        <v>0.01431083505600026</v>
+        <v>0.01315466713717243</v>
       </c>
       <c r="AM29" s="13">
-        <v>0.01144866804479448</v>
+        <v>0.01145363259356294</v>
       </c>
       <c r="AN29" s="13">
-        <v>0.02075071083120688</v>
+        <v>0.01689694313309357</v>
       </c>
       <c r="AO29" s="13">
-        <v>0.01860408557279302</v>
+        <v>0.01451549477204493</v>
       </c>
       <c r="AP29" s="13">
-        <v>0.006082104898801141</v>
+        <v>0.006463931265674854</v>
       </c>
       <c r="AQ29" s="13">
-        <v>0.03112606624679126</v>
+        <v>0.02812377112083669</v>
       </c>
     </row>
     <row r="30" spans="1:43">
@@ -2141,7 +2261,7 @@
         <v>34</v>
       </c>
       <c r="C30" s="13">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D30" s="13">
         <v>62</v>
@@ -2150,7 +2270,7 @@
         <v>44</v>
       </c>
       <c r="F30" s="13">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G30" s="13">
         <v>32</v>
@@ -2180,10 +2300,10 @@
         <v>15</v>
       </c>
       <c r="P30" s="13">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Q30" s="13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R30" s="13">
         <v>34</v>
@@ -2201,16 +2321,16 @@
         <v>31</v>
       </c>
       <c r="Y30" s="13">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="Z30" s="13">
         <v>30.5</v>
       </c>
       <c r="AA30" s="13">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="AB30" s="13">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AC30" s="13">
         <v>17.3</v>
@@ -2219,7 +2339,7 @@
         <v>14.5</v>
       </c>
       <c r="AE30" s="13">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="AF30" s="13">
         <v>12.5</v>
@@ -2281,7 +2401,7 @@
         <v>-8</v>
       </c>
       <c r="I31" s="13">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="J31" s="13">
         <v>-5</v>
@@ -2311,13 +2431,13 @@
         <v>-2</v>
       </c>
       <c r="S31" s="13">
-        <v>8</v>
+        <v>-9</v>
       </c>
       <c r="T31" s="13">
         <v>-3</v>
       </c>
       <c r="U31" s="13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X31" s="13">
         <v>30.2</v>
@@ -2385,7 +2505,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D32" s="13">
         <v>58</v>
@@ -2394,7 +2514,7 @@
         <v>40</v>
       </c>
       <c r="F32" s="13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G32" s="13">
         <v>37</v>
@@ -2403,7 +2523,7 @@
         <v>26</v>
       </c>
       <c r="I32" s="13">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J32" s="13">
         <v>14</v>
@@ -2424,37 +2544,37 @@
         <v>6</v>
       </c>
       <c r="P32" s="13">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q32" s="13">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="R32" s="13">
         <v>36</v>
       </c>
       <c r="S32" s="13">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T32" s="13">
         <v>15</v>
       </c>
       <c r="U32" s="13">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="X32" s="13">
         <v>0.8000000000000007</v>
       </c>
       <c r="Y32" s="13">
-        <v>0.3000000000000007</v>
+        <v>0.5</v>
       </c>
       <c r="Z32" s="13">
         <v>0.1999999999999993</v>
       </c>
       <c r="AA32" s="13">
-        <v>0.6000000000000014</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="AB32" s="13">
-        <v>0.8999999999999986</v>
+        <v>1</v>
       </c>
       <c r="AC32" s="13">
         <v>0.3000000000000007</v>
@@ -2463,7 +2583,7 @@
         <v>0.6999999999999993</v>
       </c>
       <c r="AE32" s="13">
-        <v>0.5999999999999996</v>
+        <v>0.7000000000000011</v>
       </c>
       <c r="AF32" s="13">
         <v>0.1999999999999993</v>
@@ -2859,6 +2979,36 @@
       <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="B6" s="13">
+        <v>226</v>
+      </c>
+      <c r="C6" s="13">
+        <v>273</v>
+      </c>
+      <c r="D6" s="13">
+        <v>269</v>
+      </c>
+      <c r="E6" s="13">
+        <v>97</v>
+      </c>
+      <c r="F6" s="13">
+        <v>73</v>
+      </c>
+      <c r="G6" s="13">
+        <v>48</v>
+      </c>
+      <c r="H6" s="13">
+        <v>63</v>
+      </c>
+      <c r="I6" s="13">
+        <v>65</v>
+      </c>
+      <c r="J6" s="13">
+        <v>96</v>
+      </c>
+      <c r="K6" s="13">
+        <v>64</v>
+      </c>
       <c r="M6" s="12" t="s">
         <v>4</v>
       </c>
@@ -2900,6 +3050,36 @@
       <c r="M7" s="12" t="s">
         <v>5</v>
       </c>
+      <c r="N7" s="13">
+        <v>33.8</v>
+      </c>
+      <c r="O7" s="13">
+        <v>32.3</v>
+      </c>
+      <c r="P7" s="13">
+        <v>25.8</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>17.6</v>
+      </c>
+      <c r="R7" s="13">
+        <v>13.9</v>
+      </c>
+      <c r="S7" s="13">
+        <v>10.1</v>
+      </c>
+      <c r="T7" s="13">
+        <v>11</v>
+      </c>
+      <c r="U7" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="V7" s="13">
+        <v>8.4</v>
+      </c>
+      <c r="W7" s="13">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="12" t="s">
@@ -3031,312 +3211,312 @@
     </row>
     <row r="25" spans="1:23">
       <c r="B25" s="13">
-        <v>186</v>
+        <v>226</v>
       </c>
       <c r="C25" s="13">
-        <v>204</v>
+        <v>273</v>
       </c>
       <c r="D25" s="13">
-        <v>213</v>
+        <v>269</v>
       </c>
       <c r="E25" s="13">
+        <v>97</v>
+      </c>
+      <c r="F25" s="13">
+        <v>73</v>
+      </c>
+      <c r="G25" s="13">
+        <v>48</v>
+      </c>
+      <c r="H25" s="13">
+        <v>63</v>
+      </c>
+      <c r="I25" s="13">
+        <v>65</v>
+      </c>
+      <c r="J25" s="13">
         <v>96</v>
       </c>
-      <c r="F25" s="13">
-        <v>55</v>
-      </c>
-      <c r="G25" s="13">
-        <v>51</v>
-      </c>
-      <c r="H25" s="13">
-        <v>62</v>
-      </c>
-      <c r="I25" s="13">
-        <v>39</v>
-      </c>
-      <c r="J25" s="13">
-        <v>93</v>
-      </c>
       <c r="K25" s="13">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="N25" s="13">
-        <v>170.7</v>
+        <v>204.5</v>
       </c>
       <c r="O25" s="13">
-        <v>161.6</v>
+        <v>193.9</v>
       </c>
       <c r="P25" s="13">
-        <v>127.6</v>
+        <v>153.4</v>
       </c>
       <c r="Q25" s="13">
-        <v>89.3</v>
+        <v>106.9</v>
       </c>
       <c r="R25" s="13">
-        <v>70</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="S25" s="13">
-        <v>51.6</v>
+        <v>61.7</v>
       </c>
       <c r="T25" s="13">
-        <v>56.09999999999999</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="U25" s="13">
-        <v>33.9</v>
+        <v>40.4</v>
       </c>
       <c r="V25" s="13">
-        <v>41.40000000000001</v>
+        <v>49.8</v>
       </c>
       <c r="W25" s="13">
-        <v>31.6</v>
+        <v>38.2</v>
       </c>
     </row>
     <row r="26" spans="1:23">
       <c r="B26" s="13">
-        <v>1.0896309314587</v>
+        <v>1.105134474327628</v>
       </c>
       <c r="C26" s="13">
-        <v>1.262376237623762</v>
+        <v>1.407942238267148</v>
       </c>
       <c r="D26" s="13">
-        <v>1.669278996865204</v>
+        <v>1.753585397653194</v>
       </c>
       <c r="E26" s="13">
-        <v>1.075027995520717</v>
+        <v>0.9073900841908326</v>
       </c>
       <c r="F26" s="13">
-        <v>0.7857142857142857</v>
+        <v>0.8700834326579261</v>
       </c>
       <c r="G26" s="13">
-        <v>0.9883720930232558</v>
+        <v>0.7779578606158832</v>
       </c>
       <c r="H26" s="13">
-        <v>1.105169340463458</v>
+        <v>0.9388971684053652</v>
       </c>
       <c r="I26" s="13">
-        <v>1.150442477876106</v>
+        <v>1.608910891089109</v>
       </c>
       <c r="J26" s="13">
-        <v>2.246376811594203</v>
+        <v>1.927710843373494</v>
       </c>
       <c r="K26" s="13">
-        <v>1.867088607594937</v>
+        <v>1.675392670157068</v>
       </c>
       <c r="N26" s="13">
-        <v>1.0896309314587</v>
+        <v>1.105134474327628</v>
       </c>
       <c r="O26" s="13">
-        <v>1.262376237623762</v>
+        <v>1.407942238267148</v>
       </c>
       <c r="P26" s="13">
-        <v>1.669278996865204</v>
+        <v>1.753585397653194</v>
       </c>
       <c r="Q26" s="13">
-        <v>1.075027995520717</v>
+        <v>0.9073900841908326</v>
       </c>
       <c r="R26" s="13">
-        <v>0.7857142857142857</v>
+        <v>0.8700834326579261</v>
       </c>
       <c r="S26" s="13">
-        <v>0.9883720930232558</v>
+        <v>0.7779578606158832</v>
       </c>
       <c r="T26" s="13">
-        <v>1.105169340463458</v>
+        <v>0.9388971684053652</v>
       </c>
       <c r="U26" s="13">
-        <v>1.150442477876106</v>
+        <v>1.608910891089109</v>
       </c>
       <c r="V26" s="13">
-        <v>2.246376811594203</v>
+        <v>1.927710843373494</v>
       </c>
       <c r="W26" s="13">
-        <v>1.867088607594937</v>
+        <v>1.675392670157068</v>
       </c>
     </row>
     <row r="27" spans="1:23">
       <c r="B27" s="13">
-        <v>46.5</v>
+        <v>45.2</v>
       </c>
       <c r="C27" s="13">
-        <v>51</v>
+        <v>54.6</v>
       </c>
       <c r="D27" s="13">
-        <v>53.25</v>
+        <v>53.8</v>
       </c>
       <c r="E27" s="13">
-        <v>24</v>
+        <v>19.4</v>
       </c>
       <c r="F27" s="13">
-        <v>13.75</v>
+        <v>14.6</v>
       </c>
       <c r="G27" s="13">
-        <v>12.75</v>
+        <v>9.6</v>
       </c>
       <c r="H27" s="13">
-        <v>15.5</v>
+        <v>12.6</v>
       </c>
       <c r="I27" s="13">
-        <v>9.75</v>
+        <v>13</v>
       </c>
       <c r="J27" s="13">
-        <v>23.25</v>
+        <v>19.2</v>
       </c>
       <c r="K27" s="13">
-        <v>14.75</v>
+        <v>12.8</v>
       </c>
       <c r="N27" s="13">
-        <v>34.14</v>
+        <v>34.08333333333334</v>
       </c>
       <c r="O27" s="13">
-        <v>32.32</v>
+        <v>32.31666666666666</v>
       </c>
       <c r="P27" s="13">
-        <v>25.52</v>
+        <v>25.56666666666667</v>
       </c>
       <c r="Q27" s="13">
-        <v>17.86</v>
+        <v>17.81666666666667</v>
       </c>
       <c r="R27" s="13">
-        <v>14</v>
+        <v>13.98333333333333</v>
       </c>
       <c r="S27" s="13">
-        <v>10.32</v>
+        <v>10.28333333333333</v>
       </c>
       <c r="T27" s="13">
-        <v>11.22</v>
+        <v>11.18333333333333</v>
       </c>
       <c r="U27" s="13">
-        <v>6.779999999999999</v>
+        <v>6.733333333333333</v>
       </c>
       <c r="V27" s="13">
-        <v>8.280000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="W27" s="13">
-        <v>6.319999999999999</v>
+        <v>6.366666666666666</v>
       </c>
     </row>
     <row r="28" spans="1:23">
       <c r="B28" s="13">
-        <v>1.362038664323374</v>
+        <v>1.326161369193154</v>
       </c>
       <c r="C28" s="13">
-        <v>1.577970297029703</v>
+        <v>1.689530685920578</v>
       </c>
       <c r="D28" s="13">
-        <v>2.086598746081505</v>
+        <v>2.104302477183833</v>
       </c>
       <c r="E28" s="13">
-        <v>1.343784994400896</v>
+        <v>1.088868101028999</v>
       </c>
       <c r="F28" s="13">
-        <v>0.9821428571428571</v>
+        <v>1.044100119189511</v>
       </c>
       <c r="G28" s="13">
-        <v>1.23546511627907</v>
+        <v>0.93354943273906</v>
       </c>
       <c r="H28" s="13">
-        <v>1.381461675579323</v>
+        <v>1.126676602086438</v>
       </c>
       <c r="I28" s="13">
-        <v>1.438053097345133</v>
+        <v>1.930693069306931</v>
       </c>
       <c r="J28" s="13">
-        <v>2.807971014492753</v>
+        <v>2.313253012048193</v>
       </c>
       <c r="K28" s="13">
-        <v>2.333860759493671</v>
+        <v>2.010471204188482</v>
       </c>
       <c r="N28" s="13">
-        <v>1.362038664323374</v>
+        <v>1.326161369193154</v>
       </c>
       <c r="O28" s="13">
-        <v>1.577970297029703</v>
+        <v>1.689530685920578</v>
       </c>
       <c r="P28" s="13">
-        <v>2.086598746081505</v>
+        <v>2.104302477183833</v>
       </c>
       <c r="Q28" s="13">
-        <v>1.343784994400896</v>
+        <v>1.088868101028999</v>
       </c>
       <c r="R28" s="13">
-        <v>0.9821428571428571</v>
+        <v>1.044100119189511</v>
       </c>
       <c r="S28" s="13">
-        <v>1.23546511627907</v>
+        <v>0.93354943273906</v>
       </c>
       <c r="T28" s="13">
-        <v>1.381461675579323</v>
+        <v>1.126676602086438</v>
       </c>
       <c r="U28" s="13">
-        <v>1.438053097345133</v>
+        <v>1.930693069306931</v>
       </c>
       <c r="V28" s="13">
-        <v>2.807971014492753</v>
+        <v>2.313253012048193</v>
       </c>
       <c r="W28" s="13">
-        <v>2.333860759493671</v>
+        <v>2.010471204188482</v>
       </c>
     </row>
     <row r="29" spans="1:23">
       <c r="B29" s="13">
-        <v>101.625</v>
+        <v>75.74009453387283</v>
       </c>
       <c r="C29" s="13">
-        <v>597.25</v>
+        <v>450.5408646504774</v>
       </c>
       <c r="D29" s="13">
-        <v>154.84375</v>
+        <v>111.3382967356697</v>
       </c>
       <c r="E29" s="13">
-        <v>113.5</v>
+        <v>119.0661476659088</v>
       </c>
       <c r="F29" s="13">
-        <v>19.09375</v>
+        <v>14.95482263351859</v>
       </c>
       <c r="G29" s="13">
-        <v>102.34375</v>
+        <v>90.98113386851145</v>
       </c>
       <c r="H29" s="13">
-        <v>78.625</v>
+        <v>71.30373566651329</v>
       </c>
       <c r="I29" s="13">
-        <v>24.84375</v>
+        <v>36.67151483099655</v>
       </c>
       <c r="J29" s="13">
-        <v>76.09375</v>
+        <v>83.78993925287212</v>
       </c>
       <c r="K29" s="13">
-        <v>26.59375</v>
+        <v>25.83105727607755</v>
       </c>
       <c r="N29" s="13">
-        <v>0.03327269150518287</v>
+        <v>0.0318660471166331</v>
       </c>
       <c r="O29" s="13">
-        <v>0.01502637680878899</v>
+        <v>0.01145363259364416</v>
       </c>
       <c r="P29" s="13">
-        <v>0.04543690130282965</v>
+        <v>0.03901039219990665</v>
       </c>
       <c r="Q29" s="13">
-        <v>0.06726092476318944</v>
+        <v>0.05500011690972675</v>
       </c>
       <c r="R29" s="13">
-        <v>0.001788854381995663</v>
+        <v>0.001927839149403198</v>
       </c>
       <c r="S29" s="13">
-        <v>0.01144866804479131</v>
+        <v>0.01145363259356874</v>
       </c>
       <c r="T29" s="13">
-        <v>0.01860408557281844</v>
+        <v>0.01689694313310517</v>
       </c>
       <c r="U29" s="13">
-        <v>0.01860408557280573</v>
+        <v>0.01859797767668565</v>
       </c>
       <c r="V29" s="13">
-        <v>0.01323752242679332</v>
+        <v>0.01088662107903225</v>
       </c>
       <c r="W29" s="13">
-        <v>0.03470377501080165</v>
+        <v>0.03084542639060781</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3362,7 +3542,7 @@
         <v>32</v>
       </c>
       <c r="I30" s="13">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J30" s="13">
         <v>35</v>
@@ -3412,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="E31" s="13">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F31" s="13">
         <v>8</v>
@@ -3430,7 +3610,7 @@
         <v>3</v>
       </c>
       <c r="K31" s="13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N31" s="13">
         <v>33.8</v>
@@ -3474,7 +3654,7 @@
         <v>46</v>
       </c>
       <c r="E32" s="13">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F32" s="13">
         <v>16</v>
@@ -3486,13 +3666,13 @@
         <v>35</v>
       </c>
       <c r="I32" s="13">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J32" s="13">
         <v>32</v>
       </c>
       <c r="K32" s="13">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N32" s="13">
         <v>0.7000000000000028</v>

--- a/2022/Fantasy F1 2022.xlsx
+++ b/2022/Fantasy F1 2022.xlsx
@@ -1454,6 +1454,66 @@
       <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
+      <c r="B7" s="13">
+        <v>118</v>
+      </c>
+      <c r="C7" s="13">
+        <v>189</v>
+      </c>
+      <c r="D7" s="13">
+        <v>217</v>
+      </c>
+      <c r="E7" s="13">
+        <v>182</v>
+      </c>
+      <c r="F7" s="13">
+        <v>224</v>
+      </c>
+      <c r="G7" s="13">
+        <v>117</v>
+      </c>
+      <c r="H7" s="13">
+        <v>38</v>
+      </c>
+      <c r="I7" s="13">
+        <v>104</v>
+      </c>
+      <c r="J7" s="13">
+        <v>22</v>
+      </c>
+      <c r="K7" s="13">
+        <v>116</v>
+      </c>
+      <c r="L7" s="13">
+        <v>44</v>
+      </c>
+      <c r="M7" s="13">
+        <v>51</v>
+      </c>
+      <c r="N7" s="13">
+        <v>48</v>
+      </c>
+      <c r="O7" s="13">
+        <v>67</v>
+      </c>
+      <c r="P7" s="13">
+        <v>67</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>44</v>
+      </c>
+      <c r="R7" s="13">
+        <v>114</v>
+      </c>
+      <c r="S7" s="13">
+        <v>24</v>
+      </c>
+      <c r="T7" s="13">
+        <v>24</v>
+      </c>
+      <c r="U7" s="13">
+        <v>66</v>
+      </c>
       <c r="W7" s="12" t="s">
         <v>5</v>
       </c>
@@ -1522,56 +1582,896 @@
       <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
+      <c r="B8" s="13">
+        <v>129</v>
+      </c>
+      <c r="C8" s="13">
+        <v>215</v>
+      </c>
+      <c r="D8" s="13">
+        <v>245</v>
+      </c>
+      <c r="E8" s="13">
+        <v>228</v>
+      </c>
+      <c r="F8" s="13">
+        <v>246</v>
+      </c>
+      <c r="G8" s="13">
+        <v>151</v>
+      </c>
+      <c r="H8" s="13">
+        <v>43</v>
+      </c>
+      <c r="I8" s="13">
+        <v>130</v>
+      </c>
+      <c r="J8" s="13">
+        <v>41</v>
+      </c>
+      <c r="K8" s="13">
+        <v>117</v>
+      </c>
+      <c r="L8" s="13">
+        <v>59</v>
+      </c>
+      <c r="M8" s="13">
+        <v>46</v>
+      </c>
+      <c r="N8" s="13">
+        <v>58</v>
+      </c>
+      <c r="O8" s="13">
+        <v>77</v>
+      </c>
+      <c r="P8" s="13">
+        <v>60</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>57</v>
+      </c>
+      <c r="R8" s="13">
+        <v>140</v>
+      </c>
+      <c r="S8" s="13">
+        <v>34</v>
+      </c>
+      <c r="T8" s="13">
+        <v>16</v>
+      </c>
+      <c r="U8" s="13">
+        <v>60</v>
+      </c>
       <c r="W8" s="12" t="s">
         <v>6</v>
+      </c>
+      <c r="X8" s="13">
+        <v>30.1</v>
+      </c>
+      <c r="Y8" s="13">
+        <v>23.9</v>
+      </c>
+      <c r="Z8" s="13">
+        <v>30.3</v>
+      </c>
+      <c r="AA8" s="13">
+        <v>18.5</v>
+      </c>
+      <c r="AB8" s="13">
+        <v>19</v>
+      </c>
+      <c r="AC8" s="13">
+        <v>17.2</v>
+      </c>
+      <c r="AD8" s="13">
+        <v>13.7</v>
+      </c>
+      <c r="AE8" s="13">
+        <v>15.9</v>
+      </c>
+      <c r="AF8" s="13">
+        <v>12.3</v>
+      </c>
+      <c r="AG8" s="13">
+        <v>12.4</v>
+      </c>
+      <c r="AH8" s="13">
+        <v>12.9</v>
+      </c>
+      <c r="AI8" s="13">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AJ8" s="13">
+        <v>11.4</v>
+      </c>
+      <c r="AK8" s="13">
+        <v>8.9</v>
+      </c>
+      <c r="AL8" s="13">
+        <v>8</v>
+      </c>
+      <c r="AM8" s="13">
+        <v>6.6</v>
+      </c>
+      <c r="AN8" s="13">
+        <v>9.4</v>
+      </c>
+      <c r="AO8" s="13">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AP8" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="AQ8" s="13">
+        <v>6.1</v>
       </c>
     </row>
     <row r="9" spans="1:43">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
+      <c r="B9" s="13">
+        <v>155</v>
+      </c>
+      <c r="C9" s="13">
+        <v>249</v>
+      </c>
+      <c r="D9" s="13">
+        <v>299</v>
+      </c>
+      <c r="E9" s="13">
+        <v>266</v>
+      </c>
+      <c r="F9" s="13">
+        <v>251</v>
+      </c>
+      <c r="G9" s="13">
+        <v>151</v>
+      </c>
+      <c r="H9" s="13">
+        <v>61</v>
+      </c>
+      <c r="I9" s="13">
+        <v>141</v>
+      </c>
+      <c r="J9" s="13">
+        <v>63</v>
+      </c>
+      <c r="K9" s="13">
+        <v>127</v>
+      </c>
+      <c r="L9" s="13">
+        <v>85</v>
+      </c>
+      <c r="M9" s="13">
+        <v>43</v>
+      </c>
+      <c r="N9" s="13">
+        <v>83</v>
+      </c>
+      <c r="O9" s="13">
+        <v>85</v>
+      </c>
+      <c r="P9" s="13">
+        <v>77</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>65</v>
+      </c>
+      <c r="R9" s="13">
+        <v>154</v>
+      </c>
+      <c r="S9" s="13">
+        <v>28</v>
+      </c>
+      <c r="T9" s="13">
+        <v>31</v>
+      </c>
+      <c r="U9" s="13">
+        <v>53</v>
+      </c>
       <c r="W9" s="12" t="s">
         <v>7</v>
+      </c>
+      <c r="X9" s="13">
+        <v>30.1</v>
+      </c>
+      <c r="Y9" s="13">
+        <v>23.7</v>
+      </c>
+      <c r="Z9" s="13">
+        <v>30.5</v>
+      </c>
+      <c r="AA9" s="13">
+        <v>18.1</v>
+      </c>
+      <c r="AB9" s="13">
+        <v>19</v>
+      </c>
+      <c r="AC9" s="13">
+        <v>17.2</v>
+      </c>
+      <c r="AD9" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="AE9" s="13">
+        <v>15.8</v>
+      </c>
+      <c r="AF9" s="13">
+        <v>12.2</v>
+      </c>
+      <c r="AG9" s="13">
+        <v>12.4</v>
+      </c>
+      <c r="AH9" s="13">
+        <v>12.9</v>
+      </c>
+      <c r="AI9" s="13">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AJ9" s="13">
+        <v>11.4</v>
+      </c>
+      <c r="AK9" s="13">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AL9" s="13">
+        <v>7.8</v>
+      </c>
+      <c r="AM9" s="13">
+        <v>6.6</v>
+      </c>
+      <c r="AN9" s="13">
+        <v>9.6</v>
+      </c>
+      <c r="AO9" s="13">
+        <v>8.4</v>
+      </c>
+      <c r="AP9" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="AQ9" s="13">
+        <v>6.1</v>
       </c>
     </row>
     <row r="10" spans="1:43">
       <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
+      <c r="B10" s="13">
+        <v>203</v>
+      </c>
+      <c r="C10" s="13">
+        <v>276</v>
+      </c>
+      <c r="D10" s="13">
+        <v>343</v>
+      </c>
+      <c r="E10" s="13">
+        <v>258</v>
+      </c>
+      <c r="F10" s="13">
+        <v>274</v>
+      </c>
+      <c r="G10" s="13">
+        <v>193</v>
+      </c>
+      <c r="H10" s="13">
+        <v>68</v>
+      </c>
+      <c r="I10" s="13">
+        <v>142</v>
+      </c>
+      <c r="J10" s="13">
+        <v>70</v>
+      </c>
+      <c r="K10" s="13">
+        <v>148</v>
+      </c>
+      <c r="L10" s="13">
+        <v>96</v>
+      </c>
+      <c r="M10" s="13">
+        <v>34</v>
+      </c>
+      <c r="N10" s="13">
+        <v>97</v>
+      </c>
+      <c r="O10" s="13">
+        <v>101</v>
+      </c>
+      <c r="P10" s="13">
+        <v>83</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>73</v>
+      </c>
+      <c r="R10" s="13">
+        <v>174</v>
+      </c>
+      <c r="S10" s="13">
+        <v>43</v>
+      </c>
+      <c r="T10" s="13">
+        <v>29</v>
+      </c>
+      <c r="U10" s="13">
+        <v>58</v>
+      </c>
       <c r="W10" s="12" t="s">
         <v>8</v>
+      </c>
+      <c r="X10" s="13">
+        <v>30</v>
+      </c>
+      <c r="Y10" s="13">
+        <v>23.7</v>
+      </c>
+      <c r="Z10" s="13">
+        <v>30.5</v>
+      </c>
+      <c r="AA10" s="13">
+        <v>18.3</v>
+      </c>
+      <c r="AB10" s="13">
+        <v>19</v>
+      </c>
+      <c r="AC10" s="13">
+        <v>17.2</v>
+      </c>
+      <c r="AD10" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="AE10" s="13">
+        <v>15.8</v>
+      </c>
+      <c r="AF10" s="13">
+        <v>12.2</v>
+      </c>
+      <c r="AG10" s="13">
+        <v>12.4</v>
+      </c>
+      <c r="AH10" s="13">
+        <v>12.9</v>
+      </c>
+      <c r="AI10" s="13">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AJ10" s="13">
+        <v>11.4</v>
+      </c>
+      <c r="AK10" s="13">
+        <v>9</v>
+      </c>
+      <c r="AL10" s="13">
+        <v>7.8</v>
+      </c>
+      <c r="AM10" s="13">
+        <v>6.6</v>
+      </c>
+      <c r="AN10" s="13">
+        <v>9.6</v>
+      </c>
+      <c r="AO10" s="13">
+        <v>8.4</v>
+      </c>
+      <c r="AP10" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="AQ10" s="13">
+        <v>6.1</v>
       </c>
     </row>
     <row r="11" spans="1:43">
       <c r="A11" s="12" t="s">
         <v>9</v>
       </c>
+      <c r="B11" s="13">
+        <v>242</v>
+      </c>
+      <c r="C11" s="13">
+        <v>277</v>
+      </c>
+      <c r="D11" s="13">
+        <v>359</v>
+      </c>
+      <c r="E11" s="13">
+        <v>294</v>
+      </c>
+      <c r="F11" s="13">
+        <v>296</v>
+      </c>
+      <c r="G11" s="13">
+        <v>242</v>
+      </c>
+      <c r="H11" s="13">
+        <v>73</v>
+      </c>
+      <c r="I11" s="13">
+        <v>164</v>
+      </c>
+      <c r="J11" s="13">
+        <v>107</v>
+      </c>
+      <c r="K11" s="13">
+        <v>140</v>
+      </c>
+      <c r="L11" s="13">
+        <v>90</v>
+      </c>
+      <c r="M11" s="13">
+        <v>38</v>
+      </c>
+      <c r="N11" s="13">
+        <v>116</v>
+      </c>
+      <c r="O11" s="13">
+        <v>113</v>
+      </c>
+      <c r="P11" s="13">
+        <v>74</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>79</v>
+      </c>
+      <c r="R11" s="13">
+        <v>166</v>
+      </c>
+      <c r="S11" s="13">
+        <v>40</v>
+      </c>
+      <c r="T11" s="13">
+        <v>48</v>
+      </c>
+      <c r="U11" s="13">
+        <v>73</v>
+      </c>
       <c r="W11" s="12" t="s">
         <v>9</v>
+      </c>
+      <c r="X11" s="13">
+        <v>30</v>
+      </c>
+      <c r="Y11" s="13">
+        <v>23.8</v>
+      </c>
+      <c r="Z11" s="13">
+        <v>30.5</v>
+      </c>
+      <c r="AA11" s="13">
+        <v>18.4</v>
+      </c>
+      <c r="AB11" s="13">
+        <v>18.8</v>
+      </c>
+      <c r="AC11" s="13">
+        <v>17.2</v>
+      </c>
+      <c r="AD11" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="AE11" s="13">
+        <v>15.7</v>
+      </c>
+      <c r="AF11" s="13">
+        <v>12.4</v>
+      </c>
+      <c r="AG11" s="13">
+        <v>12.4</v>
+      </c>
+      <c r="AH11" s="13">
+        <v>13</v>
+      </c>
+      <c r="AI11" s="13">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AJ11" s="13">
+        <v>11.6</v>
+      </c>
+      <c r="AK11" s="13">
+        <v>9</v>
+      </c>
+      <c r="AL11" s="13">
+        <v>7.7</v>
+      </c>
+      <c r="AM11" s="13">
+        <v>6.7</v>
+      </c>
+      <c r="AN11" s="13">
+        <v>9.6</v>
+      </c>
+      <c r="AO11" s="13">
+        <v>8.4</v>
+      </c>
+      <c r="AP11" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="AQ11" s="13">
+        <v>6.1</v>
       </c>
     </row>
     <row r="12" spans="1:43">
       <c r="A12" s="12" t="s">
         <v>10</v>
       </c>
+      <c r="B12" s="13">
+        <v>281</v>
+      </c>
+      <c r="C12" s="13">
+        <v>312</v>
+      </c>
+      <c r="D12" s="13">
+        <v>412</v>
+      </c>
+      <c r="E12" s="13">
+        <v>298</v>
+      </c>
+      <c r="F12" s="13">
+        <v>356</v>
+      </c>
+      <c r="G12" s="13">
+        <v>252</v>
+      </c>
+      <c r="H12" s="13">
+        <v>88</v>
+      </c>
+      <c r="I12" s="13">
+        <v>193</v>
+      </c>
+      <c r="J12" s="13">
+        <v>125</v>
+      </c>
+      <c r="K12" s="13">
+        <v>174</v>
+      </c>
+      <c r="L12" s="13">
+        <v>98</v>
+      </c>
+      <c r="M12" s="13">
+        <v>41</v>
+      </c>
+      <c r="N12" s="13">
+        <v>124</v>
+      </c>
+      <c r="O12" s="13">
+        <v>127</v>
+      </c>
+      <c r="P12" s="13">
+        <v>88</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>72</v>
+      </c>
+      <c r="R12" s="13">
+        <v>178</v>
+      </c>
+      <c r="S12" s="13">
+        <v>47</v>
+      </c>
+      <c r="T12" s="13">
+        <v>74</v>
+      </c>
+      <c r="U12" s="13">
+        <v>92</v>
+      </c>
       <c r="W12" s="12" t="s">
         <v>10</v>
+      </c>
+      <c r="X12" s="13">
+        <v>30.1</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>24</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>30.4</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>18.4</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>18.8</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>17.2</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>15.7</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>12.5</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>12.3</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>12.9</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>11.5</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>9.1</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>7.6</v>
+      </c>
+      <c r="AM12" s="13">
+        <v>6.7</v>
+      </c>
+      <c r="AN12" s="13">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AO12" s="13">
+        <v>8.4</v>
+      </c>
+      <c r="AP12" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="AQ12" s="13">
+        <v>6.1</v>
       </c>
     </row>
     <row r="13" spans="1:43">
       <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
+      <c r="B13" s="13">
+        <v>319</v>
+      </c>
+      <c r="C13" s="13">
+        <v>342</v>
+      </c>
+      <c r="D13" s="13">
+        <v>457</v>
+      </c>
+      <c r="E13" s="13">
+        <v>320</v>
+      </c>
+      <c r="F13" s="13">
+        <v>361</v>
+      </c>
+      <c r="G13" s="13">
+        <v>284</v>
+      </c>
+      <c r="H13" s="13">
+        <v>97</v>
+      </c>
+      <c r="I13" s="13">
+        <v>210</v>
+      </c>
+      <c r="J13" s="13">
+        <v>148</v>
+      </c>
+      <c r="K13" s="13">
+        <v>189</v>
+      </c>
+      <c r="L13" s="13">
+        <v>111</v>
+      </c>
+      <c r="M13" s="13">
+        <v>39</v>
+      </c>
+      <c r="N13" s="13">
+        <v>135</v>
+      </c>
+      <c r="O13" s="13">
+        <v>143</v>
+      </c>
+      <c r="P13" s="13">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>63</v>
+      </c>
+      <c r="R13" s="13">
+        <v>184</v>
+      </c>
+      <c r="S13" s="13">
+        <v>53</v>
+      </c>
+      <c r="T13" s="13">
+        <v>87</v>
+      </c>
+      <c r="U13" s="13">
+        <v>88</v>
+      </c>
       <c r="W13" s="12" t="s">
         <v>11</v>
+      </c>
+      <c r="X13" s="13">
+        <v>30.1</v>
+      </c>
+      <c r="Y13" s="13">
+        <v>24</v>
+      </c>
+      <c r="Z13" s="13">
+        <v>30.4</v>
+      </c>
+      <c r="AA13" s="13">
+        <v>18.4</v>
+      </c>
+      <c r="AB13" s="13">
+        <v>18.8</v>
+      </c>
+      <c r="AC13" s="13">
+        <v>17.3</v>
+      </c>
+      <c r="AD13" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="AE13" s="13">
+        <v>15.8</v>
+      </c>
+      <c r="AF13" s="13">
+        <v>12.5</v>
+      </c>
+      <c r="AG13" s="13">
+        <v>12.3</v>
+      </c>
+      <c r="AH13" s="13">
+        <v>12.9</v>
+      </c>
+      <c r="AI13" s="13">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AJ13" s="13">
+        <v>11.4</v>
+      </c>
+      <c r="AK13" s="13">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AL13" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="AM13" s="13">
+        <v>6.7</v>
+      </c>
+      <c r="AN13" s="13">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AO13" s="13">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AP13" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="AQ13" s="13">
+        <v>6.1</v>
       </c>
     </row>
     <row r="14" spans="1:43">
       <c r="A14" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="B14" s="13">
+        <v>363</v>
+      </c>
+      <c r="C14" s="13">
+        <v>369</v>
+      </c>
+      <c r="D14" s="13">
+        <v>512</v>
+      </c>
+      <c r="E14" s="13">
+        <v>343</v>
+      </c>
+      <c r="F14" s="13">
+        <v>375</v>
+      </c>
+      <c r="G14" s="13">
+        <v>310</v>
+      </c>
+      <c r="H14" s="13">
+        <v>93</v>
+      </c>
+      <c r="I14" s="13">
+        <v>226</v>
+      </c>
+      <c r="J14" s="13">
+        <v>160</v>
+      </c>
+      <c r="K14" s="13">
+        <v>195</v>
+      </c>
+      <c r="L14" s="13">
+        <v>126</v>
+      </c>
+      <c r="M14" s="13">
+        <v>37</v>
+      </c>
+      <c r="N14" s="13">
+        <v>151</v>
+      </c>
+      <c r="O14" s="13">
+        <v>154</v>
+      </c>
+      <c r="P14" s="13">
+        <v>107</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>69</v>
+      </c>
+      <c r="R14" s="13">
+        <v>183</v>
+      </c>
+      <c r="S14" s="13">
+        <v>57</v>
+      </c>
+      <c r="T14" s="13">
+        <v>95</v>
+      </c>
+      <c r="U14" s="13">
+        <v>87</v>
+      </c>
       <c r="W14" s="12" t="s">
         <v>12</v>
+      </c>
+      <c r="X14" s="13">
+        <v>30.1</v>
+      </c>
+      <c r="Y14" s="13">
+        <v>24.4</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>30.5</v>
+      </c>
+      <c r="AA14" s="13">
+        <v>18.3</v>
+      </c>
+      <c r="AB14" s="13">
+        <v>18.8</v>
+      </c>
+      <c r="AC14" s="13">
+        <v>17.3</v>
+      </c>
+      <c r="AD14" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="AE14" s="13">
+        <v>15.9</v>
+      </c>
+      <c r="AF14" s="13">
+        <v>12.6</v>
+      </c>
+      <c r="AG14" s="13">
+        <v>12.3</v>
+      </c>
+      <c r="AH14" s="13">
+        <v>12.9</v>
+      </c>
+      <c r="AI14" s="13">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AJ14" s="13">
+        <v>11.4</v>
+      </c>
+      <c r="AK14" s="13">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AL14" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="AM14" s="13">
+        <v>6.7</v>
+      </c>
+      <c r="AN14" s="13">
+        <v>9.6</v>
+      </c>
+      <c r="AO14" s="13">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AP14" s="13">
+        <v>6.3</v>
+      </c>
+      <c r="AQ14" s="13">
+        <v>6.1</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -1581,6 +2481,66 @@
       <c r="W15" s="12" t="s">
         <v>13</v>
       </c>
+      <c r="X15" s="13">
+        <v>30.1</v>
+      </c>
+      <c r="Y15" s="13">
+        <v>24</v>
+      </c>
+      <c r="Z15" s="13">
+        <v>30.4</v>
+      </c>
+      <c r="AA15" s="13">
+        <v>18.2</v>
+      </c>
+      <c r="AB15" s="13">
+        <v>18.8</v>
+      </c>
+      <c r="AC15" s="13">
+        <v>17.2</v>
+      </c>
+      <c r="AD15" s="13">
+        <v>14.1</v>
+      </c>
+      <c r="AE15" s="13">
+        <v>15.9</v>
+      </c>
+      <c r="AF15" s="13">
+        <v>12.6</v>
+      </c>
+      <c r="AG15" s="13">
+        <v>12.3</v>
+      </c>
+      <c r="AH15" s="13">
+        <v>12.9</v>
+      </c>
+      <c r="AI15" s="13">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AJ15" s="13">
+        <v>11.4</v>
+      </c>
+      <c r="AK15" s="13">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AL15" s="13">
+        <v>7.6</v>
+      </c>
+      <c r="AM15" s="13">
+        <v>6.7</v>
+      </c>
+      <c r="AN15" s="13">
+        <v>9.6</v>
+      </c>
+      <c r="AO15" s="13">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AP15" s="13">
+        <v>6.3</v>
+      </c>
+      <c r="AQ15" s="13">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="16" spans="1:43">
       <c r="A16" s="12" t="s">
@@ -1648,617 +2608,617 @@
     </row>
     <row r="25" spans="1:43">
       <c r="B25" s="13">
-        <v>97</v>
+        <v>363</v>
       </c>
       <c r="C25" s="13">
-        <v>156</v>
+        <v>369</v>
       </c>
       <c r="D25" s="13">
-        <v>172</v>
+        <v>512</v>
       </c>
       <c r="E25" s="13">
-        <v>133</v>
+        <v>343</v>
       </c>
       <c r="F25" s="13">
-        <v>219</v>
+        <v>375</v>
       </c>
       <c r="G25" s="13">
-        <v>92</v>
+        <v>310</v>
       </c>
       <c r="H25" s="13">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="I25" s="13">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="J25" s="13">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="K25" s="13">
-        <v>92</v>
+        <v>195</v>
       </c>
       <c r="L25" s="13">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="M25" s="13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N25" s="13">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="O25" s="13">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="P25" s="13">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="Q25" s="13">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="R25" s="13">
-        <v>91</v>
+        <v>183</v>
       </c>
       <c r="S25" s="13">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="T25" s="13">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="U25" s="13">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="X25" s="13">
-        <v>183.4</v>
+        <v>424.0000000000001</v>
       </c>
       <c r="Y25" s="13">
-        <v>143.7</v>
+        <v>335.1999999999999</v>
       </c>
       <c r="Z25" s="13">
-        <v>182.3</v>
+        <v>425.8</v>
       </c>
       <c r="AA25" s="13">
-        <v>107.1</v>
+        <v>253.7</v>
       </c>
       <c r="AB25" s="13">
-        <v>111.4</v>
+        <v>262.4</v>
       </c>
       <c r="AC25" s="13">
-        <v>103.1</v>
+        <v>240.9</v>
       </c>
       <c r="AD25" s="13">
-        <v>84.89999999999999</v>
+        <v>193.7</v>
       </c>
       <c r="AE25" s="13">
-        <v>95.30000000000001</v>
+        <v>221.8</v>
       </c>
       <c r="AF25" s="13">
-        <v>74.8</v>
+        <v>174.1</v>
       </c>
       <c r="AG25" s="13">
-        <v>73.90000000000001</v>
+        <v>172.7000000000001</v>
       </c>
       <c r="AH25" s="13">
-        <v>79.40000000000001</v>
+        <v>182.7</v>
       </c>
       <c r="AI25" s="13">
-        <v>50.5</v>
+        <v>116.9</v>
       </c>
       <c r="AJ25" s="13">
-        <v>68.7</v>
+        <v>160.2</v>
       </c>
       <c r="AK25" s="13">
-        <v>54.9</v>
+        <v>127.8</v>
       </c>
       <c r="AL25" s="13">
-        <v>44</v>
+        <v>105.5</v>
       </c>
       <c r="AM25" s="13">
-        <v>40.7</v>
+        <v>94.00000000000001</v>
       </c>
       <c r="AN25" s="13">
-        <v>55.7</v>
+        <v>132.5</v>
       </c>
       <c r="AO25" s="13">
-        <v>49.40000000000001</v>
+        <v>115.9</v>
       </c>
       <c r="AP25" s="13">
-        <v>38.1</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="AQ25" s="13">
-        <v>35.2</v>
+        <v>83.99999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:43">
       <c r="B26" s="13">
-        <v>0.5288985823336969</v>
+        <v>0.856132075471698</v>
       </c>
       <c r="C26" s="13">
-        <v>1.085594989561587</v>
+        <v>1.100835322195704</v>
       </c>
       <c r="D26" s="13">
-        <v>0.9434997257268238</v>
+        <v>1.202442461249413</v>
       </c>
       <c r="E26" s="13">
-        <v>1.241830065359477</v>
+        <v>1.351990540007883</v>
       </c>
       <c r="F26" s="13">
-        <v>1.96588868940754</v>
+        <v>1.429115853658536</v>
       </c>
       <c r="G26" s="13">
-        <v>0.8923375363724539</v>
+        <v>1.28684101286841</v>
       </c>
       <c r="H26" s="13">
-        <v>0.4240282685512368</v>
+        <v>0.4801239029426949</v>
       </c>
       <c r="I26" s="13">
-        <v>0.9233997901364113</v>
+        <v>1.018935978358882</v>
       </c>
       <c r="J26" s="13">
-        <v>0.106951871657754</v>
+        <v>0.9190120620333142</v>
       </c>
       <c r="K26" s="13">
-        <v>1.244925575101488</v>
+        <v>1.129125651418645</v>
       </c>
       <c r="L26" s="13">
-        <v>0.4911838790931989</v>
+        <v>0.6896551724137929</v>
       </c>
       <c r="M26" s="13">
-        <v>0.7128712871287128</v>
+        <v>0.3165098374679214</v>
       </c>
       <c r="N26" s="13">
-        <v>0.4512372634643377</v>
+        <v>0.9425717852684143</v>
       </c>
       <c r="O26" s="13">
-        <v>1.074681238615665</v>
+        <v>1.205007824726135</v>
       </c>
       <c r="P26" s="13">
-        <v>1.386363636363636</v>
+        <v>1.014218009478673</v>
       </c>
       <c r="Q26" s="13">
-        <v>0.7616707616707616</v>
+        <v>0.7340425531914893</v>
       </c>
       <c r="R26" s="13">
-        <v>1.633752244165171</v>
+        <v>1.381132075471698</v>
       </c>
       <c r="S26" s="13">
-        <v>0.6477732793522266</v>
+        <v>0.4918032786885245</v>
       </c>
       <c r="T26" s="13">
-        <v>0.6299212598425197</v>
+        <v>1.080773606370876</v>
       </c>
       <c r="U26" s="13">
-        <v>1.903409090909091</v>
+        <v>1.035714285714286</v>
       </c>
       <c r="X26" s="13">
-        <v>0.5288985823336969</v>
+        <v>0.856132075471698</v>
       </c>
       <c r="Y26" s="13">
-        <v>1.085594989561587</v>
+        <v>1.100835322195704</v>
       </c>
       <c r="Z26" s="13">
-        <v>0.9434997257268238</v>
+        <v>1.202442461249413</v>
       </c>
       <c r="AA26" s="13">
-        <v>1.241830065359477</v>
+        <v>1.351990540007883</v>
       </c>
       <c r="AB26" s="13">
-        <v>1.96588868940754</v>
+        <v>1.429115853658536</v>
       </c>
       <c r="AC26" s="13">
-        <v>0.8923375363724539</v>
+        <v>1.28684101286841</v>
       </c>
       <c r="AD26" s="13">
-        <v>0.4240282685512368</v>
+        <v>0.4801239029426949</v>
       </c>
       <c r="AE26" s="13">
-        <v>0.9233997901364113</v>
+        <v>1.018935978358882</v>
       </c>
       <c r="AF26" s="13">
-        <v>0.106951871657754</v>
+        <v>0.9190120620333142</v>
       </c>
       <c r="AG26" s="13">
-        <v>1.244925575101488</v>
+        <v>1.129125651418645</v>
       </c>
       <c r="AH26" s="13">
-        <v>0.4911838790931989</v>
+        <v>0.6896551724137929</v>
       </c>
       <c r="AI26" s="13">
-        <v>0.7128712871287128</v>
+        <v>0.3165098374679214</v>
       </c>
       <c r="AJ26" s="13">
-        <v>0.4512372634643377</v>
+        <v>0.9425717852684143</v>
       </c>
       <c r="AK26" s="13">
-        <v>1.074681238615665</v>
+        <v>1.205007824726135</v>
       </c>
       <c r="AL26" s="13">
-        <v>1.386363636363636</v>
+        <v>1.014218009478673</v>
       </c>
       <c r="AM26" s="13">
-        <v>0.7616707616707616</v>
+        <v>0.7340425531914893</v>
       </c>
       <c r="AN26" s="13">
-        <v>1.633752244165171</v>
+        <v>1.381132075471698</v>
       </c>
       <c r="AO26" s="13">
-        <v>0.6477732793522266</v>
+        <v>0.4918032786885245</v>
       </c>
       <c r="AP26" s="13">
-        <v>0.6299212598425197</v>
+        <v>1.080773606370876</v>
       </c>
       <c r="AQ26" s="13">
-        <v>1.903409090909091</v>
+        <v>1.035714285714286</v>
       </c>
     </row>
     <row r="27" spans="1:43">
       <c r="B27" s="13">
-        <v>19.4</v>
+        <v>27.92307692307692</v>
       </c>
       <c r="C27" s="13">
-        <v>31.2</v>
+        <v>28.38461538461538</v>
       </c>
       <c r="D27" s="13">
-        <v>34.4</v>
+        <v>39.38461538461539</v>
       </c>
       <c r="E27" s="13">
-        <v>26.6</v>
+        <v>26.38461538461538</v>
       </c>
       <c r="F27" s="13">
-        <v>43.8</v>
+        <v>28.84615384615385</v>
       </c>
       <c r="G27" s="13">
-        <v>18.4</v>
+        <v>23.84615384615385</v>
       </c>
       <c r="H27" s="13">
-        <v>7.2</v>
+        <v>7.153846153846154</v>
       </c>
       <c r="I27" s="13">
-        <v>17.6</v>
+        <v>17.38461538461538</v>
       </c>
       <c r="J27" s="13">
-        <v>1.6</v>
+        <v>12.30769230769231</v>
       </c>
       <c r="K27" s="13">
-        <v>18.4</v>
+        <v>15</v>
       </c>
       <c r="L27" s="13">
-        <v>7.8</v>
+        <v>9.692307692307692</v>
       </c>
       <c r="M27" s="13">
-        <v>7.2</v>
+        <v>2.846153846153846</v>
       </c>
       <c r="N27" s="13">
-        <v>6.2</v>
+        <v>11.61538461538461</v>
       </c>
       <c r="O27" s="13">
-        <v>11.8</v>
+        <v>11.84615384615385</v>
       </c>
       <c r="P27" s="13">
-        <v>12.2</v>
+        <v>8.23076923076923</v>
       </c>
       <c r="Q27" s="13">
-        <v>6.2</v>
+        <v>5.307692307692307</v>
       </c>
       <c r="R27" s="13">
-        <v>18.2</v>
+        <v>14.07692307692308</v>
       </c>
       <c r="S27" s="13">
-        <v>6.4</v>
+        <v>4.384615384615385</v>
       </c>
       <c r="T27" s="13">
-        <v>4.8</v>
+        <v>7.307692307692307</v>
       </c>
       <c r="U27" s="13">
-        <v>13.4</v>
+        <v>6.692307692307693</v>
       </c>
       <c r="X27" s="13">
-        <v>30.56666666666666</v>
+        <v>30.28571428571429</v>
       </c>
       <c r="Y27" s="13">
-        <v>23.95</v>
+        <v>23.94285714285714</v>
       </c>
       <c r="Z27" s="13">
-        <v>30.38333333333334</v>
+        <v>30.41428571428571</v>
       </c>
       <c r="AA27" s="13">
-        <v>17.85</v>
+        <v>18.12142857142857</v>
       </c>
       <c r="AB27" s="13">
-        <v>18.56666666666667</v>
+        <v>18.74285714285714</v>
       </c>
       <c r="AC27" s="13">
-        <v>17.18333333333333</v>
+        <v>17.20714285714286</v>
       </c>
       <c r="AD27" s="13">
-        <v>14.15</v>
+        <v>13.83571428571429</v>
       </c>
       <c r="AE27" s="13">
-        <v>15.88333333333333</v>
+        <v>15.84285714285714</v>
       </c>
       <c r="AF27" s="13">
-        <v>12.46666666666667</v>
+        <v>12.43571428571429</v>
       </c>
       <c r="AG27" s="13">
-        <v>12.31666666666667</v>
+        <v>12.33571428571429</v>
       </c>
       <c r="AH27" s="13">
-        <v>13.23333333333333</v>
+        <v>13.05</v>
       </c>
       <c r="AI27" s="13">
-        <v>8.416666666666666</v>
+        <v>8.349999999999998</v>
       </c>
       <c r="AJ27" s="13">
-        <v>11.45</v>
+        <v>11.44285714285714</v>
       </c>
       <c r="AK27" s="13">
-        <v>9.15</v>
+        <v>9.128571428571428</v>
       </c>
       <c r="AL27" s="13">
-        <v>7.333333333333333</v>
+        <v>7.535714285714285</v>
       </c>
       <c r="AM27" s="13">
-        <v>6.783333333333334</v>
+        <v>6.714285714285715</v>
       </c>
       <c r="AN27" s="13">
-        <v>9.283333333333333</v>
+        <v>9.464285714285712</v>
       </c>
       <c r="AO27" s="13">
-        <v>8.233333333333334</v>
+        <v>8.27857142857143</v>
       </c>
       <c r="AP27" s="13">
-        <v>6.350000000000001</v>
+        <v>6.278571428571429</v>
       </c>
       <c r="AQ27" s="13">
-        <v>5.866666666666667</v>
+        <v>5.999999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:43">
       <c r="B28" s="13">
-        <v>0.6346782988004362</v>
+        <v>0.921988388969521</v>
       </c>
       <c r="C28" s="13">
-        <v>1.302713987473904</v>
+        <v>1.185514962364604</v>
       </c>
       <c r="D28" s="13">
-        <v>1.132199670872189</v>
+        <v>1.294938035191676</v>
       </c>
       <c r="E28" s="13">
-        <v>1.490196078431373</v>
+        <v>1.455989812316182</v>
       </c>
       <c r="F28" s="13">
-        <v>2.359066427289048</v>
+        <v>1.539047842401501</v>
       </c>
       <c r="G28" s="13">
-        <v>1.070805043646945</v>
+        <v>1.385828783089057</v>
       </c>
       <c r="H28" s="13">
-        <v>0.5088339222614842</v>
+        <v>0.5170565108613637</v>
       </c>
       <c r="I28" s="13">
-        <v>1.108079748163694</v>
+        <v>1.097315669001873</v>
       </c>
       <c r="J28" s="13">
-        <v>0.1283422459893048</v>
+        <v>0.9897052975743384</v>
       </c>
       <c r="K28" s="13">
-        <v>1.493910690121786</v>
+        <v>1.21598147075854</v>
       </c>
       <c r="L28" s="13">
-        <v>0.5894206549118387</v>
+        <v>0.742705570291777</v>
       </c>
       <c r="M28" s="13">
-        <v>0.8554455445544555</v>
+        <v>0.3408567480423769</v>
       </c>
       <c r="N28" s="13">
-        <v>0.5414847161572052</v>
+        <v>1.015077307212138</v>
       </c>
       <c r="O28" s="13">
-        <v>1.289617486338798</v>
+        <v>1.297700734320453</v>
       </c>
       <c r="P28" s="13">
-        <v>1.663636363636364</v>
+        <v>1.092234779438571</v>
       </c>
       <c r="Q28" s="13">
-        <v>0.9140049140049139</v>
+        <v>0.7905073649754499</v>
       </c>
       <c r="R28" s="13">
-        <v>1.960502692998205</v>
+        <v>1.487373004354137</v>
       </c>
       <c r="S28" s="13">
-        <v>0.7773279352226721</v>
+        <v>0.5296343001261034</v>
       </c>
       <c r="T28" s="13">
-        <v>0.7559055118110235</v>
+        <v>1.163910037630174</v>
       </c>
       <c r="U28" s="13">
-        <v>2.284090909090909</v>
+        <v>1.115384615384616</v>
       </c>
       <c r="X28" s="13">
-        <v>0.6346782988004362</v>
+        <v>0.921988388969521</v>
       </c>
       <c r="Y28" s="13">
-        <v>1.302713987473904</v>
+        <v>1.185514962364604</v>
       </c>
       <c r="Z28" s="13">
-        <v>1.132199670872189</v>
+        <v>1.294938035191676</v>
       </c>
       <c r="AA28" s="13">
-        <v>1.490196078431373</v>
+        <v>1.455989812316182</v>
       </c>
       <c r="AB28" s="13">
-        <v>2.359066427289048</v>
+        <v>1.539047842401501</v>
       </c>
       <c r="AC28" s="13">
-        <v>1.070805043646945</v>
+        <v>1.385828783089057</v>
       </c>
       <c r="AD28" s="13">
-        <v>0.5088339222614842</v>
+        <v>0.5170565108613637</v>
       </c>
       <c r="AE28" s="13">
-        <v>1.108079748163694</v>
+        <v>1.097315669001873</v>
       </c>
       <c r="AF28" s="13">
-        <v>0.1283422459893048</v>
+        <v>0.9897052975743384</v>
       </c>
       <c r="AG28" s="13">
-        <v>1.493910690121786</v>
+        <v>1.21598147075854</v>
       </c>
       <c r="AH28" s="13">
-        <v>0.5894206549118387</v>
+        <v>0.742705570291777</v>
       </c>
       <c r="AI28" s="13">
-        <v>0.8554455445544555</v>
+        <v>0.3408567480423769</v>
       </c>
       <c r="AJ28" s="13">
-        <v>0.5414847161572052</v>
+        <v>1.015077307212138</v>
       </c>
       <c r="AK28" s="13">
-        <v>1.289617486338798</v>
+        <v>1.297700734320453</v>
       </c>
       <c r="AL28" s="13">
-        <v>1.663636363636364</v>
+        <v>1.092234779438571</v>
       </c>
       <c r="AM28" s="13">
-        <v>0.9140049140049139</v>
+        <v>0.7905073649754499</v>
       </c>
       <c r="AN28" s="13">
-        <v>1.960502692998205</v>
+        <v>1.487373004354137</v>
       </c>
       <c r="AO28" s="13">
-        <v>0.7773279352226721</v>
+        <v>0.5296343001261034</v>
       </c>
       <c r="AP28" s="13">
-        <v>0.7559055118110235</v>
+        <v>1.163910037630174</v>
       </c>
       <c r="AQ28" s="13">
-        <v>2.284090909090909</v>
+        <v>1.115384615384616</v>
       </c>
     </row>
     <row r="29" spans="1:43">
       <c r="B29" s="13">
-        <v>45.18646168931576</v>
+        <v>47.25454866896228</v>
       </c>
       <c r="C29" s="13">
-        <v>5.974773635879444</v>
+        <v>20.5895522539696</v>
       </c>
       <c r="D29" s="13">
-        <v>279.8841566076937</v>
+        <v>99.35698011795211</v>
       </c>
       <c r="E29" s="13">
-        <v>81.14243476751234</v>
+        <v>79.89980400420566</v>
       </c>
       <c r="F29" s="13">
-        <v>26.00994271427759</v>
+        <v>94.59115357996968</v>
       </c>
       <c r="G29" s="13">
-        <v>97.95766595831081</v>
+        <v>67.02682075216215</v>
       </c>
       <c r="H29" s="13">
-        <v>34.59644374787674</v>
+        <v>15.56771024080628</v>
       </c>
       <c r="I29" s="13">
-        <v>122.1072001153085</v>
+        <v>40.72943630153179</v>
       </c>
       <c r="J29" s="13">
-        <v>11.7348847459189</v>
+        <v>34.79184662714454</v>
       </c>
       <c r="K29" s="13">
-        <v>3.685040026919683</v>
+        <v>30.03914908788934</v>
       </c>
       <c r="L29" s="13">
-        <v>32.80758936587691</v>
+        <v>21.13768795083122</v>
       </c>
       <c r="M29" s="13">
-        <v>110.6227549828696</v>
+        <v>37.62771035222502</v>
       </c>
       <c r="N29" s="13">
-        <v>62.50257210707412</v>
+        <v>24.51512287340969</v>
       </c>
       <c r="O29" s="13">
-        <v>3.291492062879684</v>
+        <v>2.340244023127739</v>
       </c>
       <c r="P29" s="13">
-        <v>9.552482399879107</v>
+        <v>18.14099399134226</v>
       </c>
       <c r="Q29" s="13">
-        <v>26.5465990288775</v>
+        <v>16.8707633644833</v>
       </c>
       <c r="R29" s="13">
-        <v>60.53483228687433</v>
+        <v>38.46468402108557</v>
       </c>
       <c r="S29" s="13">
-        <v>28.37123049851733</v>
+        <v>17.21868183075475</v>
       </c>
       <c r="T29" s="13">
-        <v>11.6991076582789</v>
+        <v>23.78318119436693</v>
       </c>
       <c r="U29" s="13">
-        <v>34.98999171191671</v>
+        <v>30.31157581147923</v>
       </c>
       <c r="X29" s="13">
-        <v>0.04581453037434459</v>
+        <v>0.02896239172557048</v>
       </c>
       <c r="Y29" s="13">
-        <v>0.01054641417033008</v>
+        <v>0.009817759907009093</v>
       </c>
       <c r="Z29" s="13">
-        <v>0.003288666784235091</v>
+        <v>0.001854465760270221</v>
       </c>
       <c r="AA29" s="13">
-        <v>0.03776296686789619</v>
+        <v>0.02755790662778713</v>
       </c>
       <c r="AB29" s="13">
-        <v>0.06894860016725259</v>
+        <v>0.02699883974421424</v>
       </c>
       <c r="AC29" s="13">
-        <v>0.007371149688916421</v>
+        <v>0.002468075754408915</v>
       </c>
       <c r="AD29" s="13">
-        <v>0.02823717342375966</v>
+        <v>0.03383036434615828</v>
       </c>
       <c r="AE29" s="13">
-        <v>0.02234025367260099</v>
+        <v>0.007526949262014985</v>
       </c>
       <c r="AF29" s="13">
-        <v>0.002268046058122775</v>
+        <v>0.004431627735795541</v>
       </c>
       <c r="AG29" s="13">
-        <v>0.02234025367258939</v>
+        <v>0.006722438380721286</v>
       </c>
       <c r="AH29" s="13">
-        <v>0.01859797767667405</v>
+        <v>0.01212220632957629</v>
       </c>
       <c r="AI29" s="13">
-        <v>0.003288666784298908</v>
+        <v>0.001813558427269912</v>
       </c>
       <c r="AJ29" s="13">
-        <v>0.001020620726158729</v>
+        <v>0.0010363191012819</v>
       </c>
       <c r="AK29" s="13">
-        <v>0.02687634578886975</v>
+        <v>0.01009047545995583</v>
       </c>
       <c r="AL29" s="13">
-        <v>0.01315466713717243</v>
+        <v>0.01588568096061416</v>
       </c>
       <c r="AM29" s="13">
-        <v>0.01145363259356294</v>
+        <v>0.004527078179327468</v>
       </c>
       <c r="AN29" s="13">
-        <v>0.01689694313309357</v>
+        <v>0.01244946499317997</v>
       </c>
       <c r="AO29" s="13">
-        <v>0.01451549477204493</v>
+        <v>0.005795205500639348</v>
       </c>
       <c r="AP29" s="13">
-        <v>0.006463931265674854</v>
+        <v>0.003122593081525131</v>
       </c>
       <c r="AQ29" s="13">
-        <v>0.02812377112083669</v>
+        <v>0.01145405322481672</v>
       </c>
     </row>
     <row r="30" spans="1:43">
       <c r="B30" s="13">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C30" s="13">
         <v>36</v>
@@ -2267,13 +3227,13 @@
         <v>62</v>
       </c>
       <c r="E30" s="13">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F30" s="13">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G30" s="13">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H30" s="13">
         <v>18</v>
@@ -2282,37 +3242,37 @@
         <v>43</v>
       </c>
       <c r="J30" s="13">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="K30" s="13">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L30" s="13">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M30" s="13">
         <v>30</v>
       </c>
       <c r="N30" s="13">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O30" s="13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P30" s="13">
         <v>19</v>
       </c>
       <c r="Q30" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R30" s="13">
         <v>34</v>
       </c>
       <c r="S30" s="13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T30" s="13">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="U30" s="13">
         <v>27</v>
@@ -2321,13 +3281,13 @@
         <v>31</v>
       </c>
       <c r="Y30" s="13">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="Z30" s="13">
         <v>30.5</v>
       </c>
       <c r="AA30" s="13">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="AB30" s="13">
         <v>19</v>
@@ -2342,7 +3302,7 @@
         <v>16.1</v>
       </c>
       <c r="AF30" s="13">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="AG30" s="13">
         <v>12.6</v>
@@ -2354,19 +3314,19 @@
         <v>8.5</v>
       </c>
       <c r="AJ30" s="13">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="AK30" s="13">
         <v>9.5</v>
       </c>
       <c r="AL30" s="13">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM30" s="13">
         <v>7</v>
       </c>
       <c r="AN30" s="13">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AO30" s="13">
         <v>8.5</v>
@@ -2383,16 +3343,16 @@
         <v>5</v>
       </c>
       <c r="C31" s="13">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D31" s="13">
         <v>4</v>
       </c>
       <c r="E31" s="13">
-        <v>4</v>
+        <v>-8</v>
       </c>
       <c r="F31" s="13">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G31" s="13">
         <v>-5</v>
@@ -2407,10 +3367,10 @@
         <v>-5</v>
       </c>
       <c r="K31" s="13">
-        <v>13</v>
+        <v>-8</v>
       </c>
       <c r="L31" s="13">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="M31" s="13">
         <v>-15</v>
@@ -2419,28 +3379,28 @@
         <v>-7</v>
       </c>
       <c r="O31" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P31" s="13">
-        <v>5</v>
+        <v>-9</v>
       </c>
       <c r="Q31" s="13">
         <v>-9</v>
       </c>
       <c r="R31" s="13">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="S31" s="13">
         <v>-9</v>
       </c>
       <c r="T31" s="13">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="U31" s="13">
-        <v>2</v>
+        <v>-7</v>
       </c>
       <c r="X31" s="13">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="Y31" s="13">
         <v>23.7</v>
@@ -2458,19 +3418,19 @@
         <v>17</v>
       </c>
       <c r="AD31" s="13">
-        <v>13.8</v>
+        <v>13.5</v>
       </c>
       <c r="AE31" s="13">
         <v>15.4</v>
       </c>
       <c r="AF31" s="13">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="AG31" s="13">
         <v>12</v>
       </c>
       <c r="AH31" s="13">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="AI31" s="13">
         <v>8.300000000000001</v>
@@ -2502,22 +3462,22 @@
     </row>
     <row r="32" spans="1:43">
       <c r="B32" s="13">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C32" s="13">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D32" s="13">
         <v>58</v>
       </c>
       <c r="E32" s="13">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F32" s="13">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="G32" s="13">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H32" s="13">
         <v>26</v>
@@ -2526,52 +3486,52 @@
         <v>45</v>
       </c>
       <c r="J32" s="13">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="K32" s="13">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="L32" s="13">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="M32" s="13">
         <v>45</v>
       </c>
       <c r="N32" s="13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O32" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P32" s="13">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="Q32" s="13">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R32" s="13">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="S32" s="13">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T32" s="13">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="U32" s="13">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="X32" s="13">
-        <v>0.8000000000000007</v>
+        <v>1</v>
       </c>
       <c r="Y32" s="13">
-        <v>0.5</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="Z32" s="13">
         <v>0.1999999999999993</v>
       </c>
       <c r="AA32" s="13">
-        <v>0.8000000000000007</v>
+        <v>1</v>
       </c>
       <c r="AB32" s="13">
         <v>1</v>
@@ -2580,37 +3540,37 @@
         <v>0.3000000000000007</v>
       </c>
       <c r="AD32" s="13">
-        <v>0.6999999999999993</v>
+        <v>1</v>
       </c>
       <c r="AE32" s="13">
         <v>0.7000000000000011</v>
       </c>
       <c r="AF32" s="13">
-        <v>0.1999999999999993</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="AG32" s="13">
         <v>0.5999999999999996</v>
       </c>
       <c r="AH32" s="13">
-        <v>0.5</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="AI32" s="13">
         <v>0.1999999999999993</v>
       </c>
       <c r="AJ32" s="13">
-        <v>0.09999999999999964</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="AK32" s="13">
         <v>0.5999999999999996</v>
       </c>
       <c r="AL32" s="13">
-        <v>0.4000000000000004</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="AM32" s="13">
         <v>0.4000000000000004</v>
       </c>
       <c r="AN32" s="13">
-        <v>0.5</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="AO32" s="13">
         <v>0.5</v>
@@ -3047,6 +4007,36 @@
       <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
+      <c r="B7" s="13">
+        <v>275</v>
+      </c>
+      <c r="C7" s="13">
+        <v>367</v>
+      </c>
+      <c r="D7" s="13">
+        <v>299</v>
+      </c>
+      <c r="E7" s="13">
+        <v>110</v>
+      </c>
+      <c r="F7" s="13">
+        <v>106</v>
+      </c>
+      <c r="G7" s="13">
+        <v>63</v>
+      </c>
+      <c r="H7" s="13">
+        <v>83</v>
+      </c>
+      <c r="I7" s="13">
+        <v>79</v>
+      </c>
+      <c r="J7" s="13">
+        <v>106</v>
+      </c>
+      <c r="K7" s="13">
+        <v>58</v>
+      </c>
       <c r="M7" s="12" t="s">
         <v>5</v>
       </c>
@@ -3085,56 +4075,476 @@
       <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
+      <c r="B8" s="13">
+        <v>317</v>
+      </c>
+      <c r="C8" s="13">
+        <v>436</v>
+      </c>
+      <c r="D8" s="13">
+        <v>350</v>
+      </c>
+      <c r="E8" s="13">
+        <v>136</v>
+      </c>
+      <c r="F8" s="13">
+        <v>121</v>
+      </c>
+      <c r="G8" s="13">
+        <v>68</v>
+      </c>
+      <c r="H8" s="13">
+        <v>98</v>
+      </c>
+      <c r="I8" s="13">
+        <v>80</v>
+      </c>
+      <c r="J8" s="13">
+        <v>127</v>
+      </c>
+      <c r="K8" s="13">
+        <v>42</v>
+      </c>
       <c r="M8" s="12" t="s">
         <v>6</v>
+      </c>
+      <c r="N8" s="13">
+        <v>33.8</v>
+      </c>
+      <c r="O8" s="13">
+        <v>32.8</v>
+      </c>
+      <c r="P8" s="13">
+        <v>25.7</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>17.6</v>
+      </c>
+      <c r="R8" s="13">
+        <v>13.9</v>
+      </c>
+      <c r="S8" s="13">
+        <v>10</v>
+      </c>
+      <c r="T8" s="13">
+        <v>10.9</v>
+      </c>
+      <c r="U8" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="V8" s="13">
+        <v>8.6</v>
+      </c>
+      <c r="W8" s="13">
+        <v>6.4</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
+      <c r="B9" s="13">
+        <v>377</v>
+      </c>
+      <c r="C9" s="13">
+        <v>513</v>
+      </c>
+      <c r="D9" s="13">
+        <v>353</v>
+      </c>
+      <c r="E9" s="13">
+        <v>160</v>
+      </c>
+      <c r="F9" s="13">
+        <v>148</v>
+      </c>
+      <c r="G9" s="13">
+        <v>86</v>
+      </c>
+      <c r="H9" s="13">
+        <v>126</v>
+      </c>
+      <c r="I9" s="13">
+        <v>100</v>
+      </c>
+      <c r="J9" s="13">
+        <v>130</v>
+      </c>
+      <c r="K9" s="13">
+        <v>45</v>
+      </c>
       <c r="M9" s="12" t="s">
         <v>7</v>
+      </c>
+      <c r="N9" s="13">
+        <v>33.7</v>
+      </c>
+      <c r="O9" s="13">
+        <v>32.6</v>
+      </c>
+      <c r="P9" s="13">
+        <v>25.7</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>17.6</v>
+      </c>
+      <c r="R9" s="13">
+        <v>13.9</v>
+      </c>
+      <c r="S9" s="13">
+        <v>10.1</v>
+      </c>
+      <c r="T9" s="13">
+        <v>10.9</v>
+      </c>
+      <c r="U9" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="V9" s="13">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="W9" s="13">
+        <v>6.4</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
+      <c r="B10" s="13">
+        <v>432</v>
+      </c>
+      <c r="C10" s="13">
+        <v>544</v>
+      </c>
+      <c r="D10" s="13">
+        <v>413</v>
+      </c>
+      <c r="E10" s="13">
+        <v>163</v>
+      </c>
+      <c r="F10" s="13">
+        <v>171</v>
+      </c>
+      <c r="G10" s="13">
+        <v>83</v>
+      </c>
+      <c r="H10" s="13">
+        <v>151</v>
+      </c>
+      <c r="I10" s="13">
+        <v>109</v>
+      </c>
+      <c r="J10" s="13">
+        <v>160</v>
+      </c>
+      <c r="K10" s="13">
+        <v>43</v>
+      </c>
       <c r="M10" s="12" t="s">
         <v>8</v>
+      </c>
+      <c r="N10" s="13">
+        <v>33.7</v>
+      </c>
+      <c r="O10" s="13">
+        <v>32.3</v>
+      </c>
+      <c r="P10" s="13">
+        <v>25.8</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>17.6</v>
+      </c>
+      <c r="R10" s="13">
+        <v>13.9</v>
+      </c>
+      <c r="S10" s="13">
+        <v>10.1</v>
+      </c>
+      <c r="T10" s="13">
+        <v>11</v>
+      </c>
+      <c r="U10" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="V10" s="13">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="W10" s="13">
+        <v>6.4</v>
       </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="12" t="s">
         <v>9</v>
       </c>
+      <c r="B11" s="13">
+        <v>462</v>
+      </c>
+      <c r="C11" s="13">
+        <v>586</v>
+      </c>
+      <c r="D11" s="13">
+        <v>474</v>
+      </c>
+      <c r="E11" s="13">
+        <v>185</v>
+      </c>
+      <c r="F11" s="13">
+        <v>185</v>
+      </c>
+      <c r="G11" s="13">
+        <v>76</v>
+      </c>
+      <c r="H11" s="13">
+        <v>177</v>
+      </c>
+      <c r="I11" s="13">
+        <v>101</v>
+      </c>
+      <c r="J11" s="13">
+        <v>147</v>
+      </c>
+      <c r="K11" s="13">
+        <v>72</v>
+      </c>
       <c r="M11" s="12" t="s">
         <v>9</v>
+      </c>
+      <c r="N11" s="13">
+        <v>33.7</v>
+      </c>
+      <c r="O11" s="13">
+        <v>32.5</v>
+      </c>
+      <c r="P11" s="13">
+        <v>25.8</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>17.6</v>
+      </c>
+      <c r="R11" s="13">
+        <v>14</v>
+      </c>
+      <c r="S11" s="13">
+        <v>10.1</v>
+      </c>
+      <c r="T11" s="13">
+        <v>11.2</v>
+      </c>
+      <c r="U11" s="13">
+        <v>7.2</v>
+      </c>
+      <c r="V11" s="13">
+        <v>8.6</v>
+      </c>
+      <c r="W11" s="13">
+        <v>6.3</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="12" t="s">
         <v>10</v>
       </c>
+      <c r="B12" s="13">
+        <v>534</v>
+      </c>
+      <c r="C12" s="13">
+        <v>636</v>
+      </c>
+      <c r="D12" s="13">
+        <v>537</v>
+      </c>
+      <c r="E12" s="13">
+        <v>222</v>
+      </c>
+      <c r="F12" s="13">
+        <v>225</v>
+      </c>
+      <c r="G12" s="13">
+        <v>80</v>
+      </c>
+      <c r="H12" s="13">
+        <v>192</v>
+      </c>
+      <c r="I12" s="13">
+        <v>101</v>
+      </c>
+      <c r="J12" s="13">
+        <v>159</v>
+      </c>
+      <c r="K12" s="13">
+        <v>110</v>
+      </c>
       <c r="M12" s="12" t="s">
         <v>10</v>
+      </c>
+      <c r="N12" s="13">
+        <v>33.7</v>
+      </c>
+      <c r="O12" s="13">
+        <v>32.5</v>
+      </c>
+      <c r="P12" s="13">
+        <v>25.8</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="R12" s="13">
+        <v>14</v>
+      </c>
+      <c r="S12" s="13">
+        <v>10.1</v>
+      </c>
+      <c r="T12" s="13">
+        <v>11.1</v>
+      </c>
+      <c r="U12" s="13">
+        <v>7.4</v>
+      </c>
+      <c r="V12" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="W12" s="13">
+        <v>6.3</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
+      <c r="B13" s="13">
+        <v>597</v>
+      </c>
+      <c r="C13" s="13">
+        <v>698</v>
+      </c>
+      <c r="D13" s="13">
+        <v>574</v>
+      </c>
+      <c r="E13" s="13">
+        <v>243</v>
+      </c>
+      <c r="F13" s="13">
+        <v>258</v>
+      </c>
+      <c r="G13" s="13">
+        <v>86</v>
+      </c>
+      <c r="H13" s="13">
+        <v>214</v>
+      </c>
+      <c r="I13" s="13">
+        <v>99</v>
+      </c>
+      <c r="J13" s="13">
+        <v>166</v>
+      </c>
+      <c r="K13" s="13">
+        <v>114</v>
+      </c>
       <c r="M13" s="12" t="s">
         <v>11</v>
+      </c>
+      <c r="N13" s="13">
+        <v>33.7</v>
+      </c>
+      <c r="O13" s="13">
+        <v>32.5</v>
+      </c>
+      <c r="P13" s="13">
+        <v>25.8</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="R13" s="13">
+        <v>14</v>
+      </c>
+      <c r="S13" s="13">
+        <v>10.1</v>
+      </c>
+      <c r="T13" s="13">
+        <v>11</v>
+      </c>
+      <c r="U13" s="13">
+        <v>7.1</v>
+      </c>
+      <c r="V13" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="W13" s="13">
+        <v>6.3</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="B14" s="13">
+        <v>673</v>
+      </c>
+      <c r="C14" s="13">
+        <v>761</v>
+      </c>
+      <c r="D14" s="13">
+        <v>609</v>
+      </c>
+      <c r="E14" s="13">
+        <v>250</v>
+      </c>
+      <c r="F14" s="13">
+        <v>281</v>
+      </c>
+      <c r="G14" s="13">
+        <v>94</v>
+      </c>
+      <c r="H14" s="13">
+        <v>236</v>
+      </c>
+      <c r="I14" s="13">
+        <v>107</v>
+      </c>
+      <c r="J14" s="13">
+        <v>164</v>
+      </c>
+      <c r="K14" s="13">
+        <v>116</v>
+      </c>
       <c r="M14" s="12" t="s">
         <v>12</v>
+      </c>
+      <c r="N14" s="13">
+        <v>33.7</v>
+      </c>
+      <c r="O14" s="13">
+        <v>32.6</v>
+      </c>
+      <c r="P14" s="13">
+        <v>25.8</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="R14" s="13">
+        <v>14</v>
+      </c>
+      <c r="S14" s="13">
+        <v>10.1</v>
+      </c>
+      <c r="T14" s="13">
+        <v>11</v>
+      </c>
+      <c r="U14" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="V14" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="W14" s="13">
+        <v>6.4</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -3144,6 +4554,36 @@
       <c r="M15" s="12" t="s">
         <v>13</v>
       </c>
+      <c r="N15" s="13">
+        <v>33.7</v>
+      </c>
+      <c r="O15" s="13">
+        <v>33</v>
+      </c>
+      <c r="P15" s="13">
+        <v>25.8</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="R15" s="13">
+        <v>14</v>
+      </c>
+      <c r="S15" s="13">
+        <v>10.1</v>
+      </c>
+      <c r="T15" s="13">
+        <v>11</v>
+      </c>
+      <c r="U15" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="V15" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="W15" s="13">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="12" t="s">
@@ -3211,317 +4651,317 @@
     </row>
     <row r="25" spans="1:23">
       <c r="B25" s="13">
-        <v>226</v>
+        <v>673</v>
       </c>
       <c r="C25" s="13">
-        <v>273</v>
+        <v>761</v>
       </c>
       <c r="D25" s="13">
-        <v>269</v>
+        <v>609</v>
       </c>
       <c r="E25" s="13">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="F25" s="13">
-        <v>73</v>
+        <v>281</v>
       </c>
       <c r="G25" s="13">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="H25" s="13">
-        <v>63</v>
+        <v>236</v>
       </c>
       <c r="I25" s="13">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="J25" s="13">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="K25" s="13">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="N25" s="13">
-        <v>204.5</v>
+        <v>474.1999999999999</v>
       </c>
       <c r="O25" s="13">
-        <v>193.9</v>
+        <v>454.7</v>
       </c>
       <c r="P25" s="13">
-        <v>153.4</v>
+        <v>359.6</v>
       </c>
       <c r="Q25" s="13">
-        <v>106.9</v>
+        <v>247.3</v>
       </c>
       <c r="R25" s="13">
-        <v>83.90000000000001</v>
+        <v>195.6</v>
       </c>
       <c r="S25" s="13">
-        <v>61.7</v>
+        <v>142.4</v>
       </c>
       <c r="T25" s="13">
-        <v>67.09999999999999</v>
+        <v>155.2</v>
       </c>
       <c r="U25" s="13">
-        <v>40.4</v>
+        <v>94.3</v>
       </c>
       <c r="V25" s="13">
-        <v>49.8</v>
+        <v>118.4</v>
       </c>
       <c r="W25" s="13">
-        <v>38.2</v>
+        <v>89.09999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:23">
       <c r="B26" s="13">
-        <v>1.105134474327628</v>
+        <v>1.419232391396036</v>
       </c>
       <c r="C26" s="13">
-        <v>1.407942238267148</v>
+        <v>1.673630965471739</v>
       </c>
       <c r="D26" s="13">
-        <v>1.753585397653194</v>
+        <v>1.693548387096774</v>
       </c>
       <c r="E26" s="13">
-        <v>0.9073900841908326</v>
+        <v>1.010917913465427</v>
       </c>
       <c r="F26" s="13">
-        <v>0.8700834326579261</v>
+        <v>1.436605316973415</v>
       </c>
       <c r="G26" s="13">
-        <v>0.7779578606158832</v>
+        <v>0.6601123595505619</v>
       </c>
       <c r="H26" s="13">
-        <v>0.9388971684053652</v>
+        <v>1.520618556701031</v>
       </c>
       <c r="I26" s="13">
-        <v>1.608910891089109</v>
+        <v>1.134676564156946</v>
       </c>
       <c r="J26" s="13">
-        <v>1.927710843373494</v>
+        <v>1.385135135135135</v>
       </c>
       <c r="K26" s="13">
-        <v>1.675392670157068</v>
+        <v>1.301907968574635</v>
       </c>
       <c r="N26" s="13">
-        <v>1.105134474327628</v>
+        <v>1.419232391396036</v>
       </c>
       <c r="O26" s="13">
-        <v>1.407942238267148</v>
+        <v>1.673630965471739</v>
       </c>
       <c r="P26" s="13">
-        <v>1.753585397653194</v>
+        <v>1.693548387096774</v>
       </c>
       <c r="Q26" s="13">
-        <v>0.9073900841908326</v>
+        <v>1.010917913465427</v>
       </c>
       <c r="R26" s="13">
-        <v>0.8700834326579261</v>
+        <v>1.436605316973415</v>
       </c>
       <c r="S26" s="13">
-        <v>0.7779578606158832</v>
+        <v>0.6601123595505619</v>
       </c>
       <c r="T26" s="13">
-        <v>0.9388971684053652</v>
+        <v>1.520618556701031</v>
       </c>
       <c r="U26" s="13">
-        <v>1.608910891089109</v>
+        <v>1.134676564156946</v>
       </c>
       <c r="V26" s="13">
-        <v>1.927710843373494</v>
+        <v>1.385135135135135</v>
       </c>
       <c r="W26" s="13">
-        <v>1.675392670157068</v>
+        <v>1.301907968574635</v>
       </c>
     </row>
     <row r="27" spans="1:23">
       <c r="B27" s="13">
-        <v>45.2</v>
+        <v>51.76923076923077</v>
       </c>
       <c r="C27" s="13">
-        <v>54.6</v>
+        <v>58.53846153846154</v>
       </c>
       <c r="D27" s="13">
-        <v>53.8</v>
+        <v>46.84615384615385</v>
       </c>
       <c r="E27" s="13">
-        <v>19.4</v>
+        <v>19.23076923076923</v>
       </c>
       <c r="F27" s="13">
-        <v>14.6</v>
+        <v>21.61538461538462</v>
       </c>
       <c r="G27" s="13">
-        <v>9.6</v>
+        <v>7.230769230769231</v>
       </c>
       <c r="H27" s="13">
-        <v>12.6</v>
+        <v>18.15384615384615</v>
       </c>
       <c r="I27" s="13">
-        <v>13</v>
+        <v>8.23076923076923</v>
       </c>
       <c r="J27" s="13">
-        <v>19.2</v>
+        <v>12.61538461538461</v>
       </c>
       <c r="K27" s="13">
-        <v>12.8</v>
+        <v>8.923076923076923</v>
       </c>
       <c r="N27" s="13">
-        <v>34.08333333333334</v>
+        <v>33.87142857142857</v>
       </c>
       <c r="O27" s="13">
-        <v>32.31666666666666</v>
+        <v>32.47857142857143</v>
       </c>
       <c r="P27" s="13">
-        <v>25.56666666666667</v>
+        <v>25.68571428571429</v>
       </c>
       <c r="Q27" s="13">
-        <v>17.81666666666667</v>
+        <v>17.66428571428571</v>
       </c>
       <c r="R27" s="13">
-        <v>13.98333333333333</v>
+        <v>13.97142857142857</v>
       </c>
       <c r="S27" s="13">
-        <v>10.28333333333333</v>
+        <v>10.17142857142857</v>
       </c>
       <c r="T27" s="13">
-        <v>11.18333333333333</v>
+        <v>11.08571428571429</v>
       </c>
       <c r="U27" s="13">
-        <v>6.733333333333333</v>
+        <v>6.735714285714286</v>
       </c>
       <c r="V27" s="13">
-        <v>8.300000000000001</v>
+        <v>8.457142857142857</v>
       </c>
       <c r="W27" s="13">
-        <v>6.366666666666666</v>
+        <v>6.364285714285714</v>
       </c>
     </row>
     <row r="28" spans="1:23">
       <c r="B28" s="13">
-        <v>1.326161369193154</v>
+        <v>1.528404113811115</v>
       </c>
       <c r="C28" s="13">
-        <v>1.689530685920578</v>
+        <v>1.802371808969566</v>
       </c>
       <c r="D28" s="13">
-        <v>2.104302477183833</v>
+        <v>1.823821339950372</v>
       </c>
       <c r="E28" s="13">
-        <v>1.088868101028999</v>
+        <v>1.088680829885844</v>
       </c>
       <c r="F28" s="13">
-        <v>1.044100119189511</v>
+        <v>1.547113418279062</v>
       </c>
       <c r="G28" s="13">
-        <v>0.93354943273906</v>
+        <v>0.7108902333621436</v>
       </c>
       <c r="H28" s="13">
-        <v>1.126676602086438</v>
+        <v>1.637589214908802</v>
       </c>
       <c r="I28" s="13">
-        <v>1.930693069306931</v>
+        <v>1.221959376784403</v>
       </c>
       <c r="J28" s="13">
-        <v>2.313253012048193</v>
+        <v>1.491683991683992</v>
       </c>
       <c r="K28" s="13">
-        <v>2.010471204188482</v>
+        <v>1.402054735388069</v>
       </c>
       <c r="N28" s="13">
-        <v>1.326161369193154</v>
+        <v>1.528404113811115</v>
       </c>
       <c r="O28" s="13">
-        <v>1.689530685920578</v>
+        <v>1.802371808969566</v>
       </c>
       <c r="P28" s="13">
-        <v>2.104302477183833</v>
+        <v>1.823821339950372</v>
       </c>
       <c r="Q28" s="13">
-        <v>1.088868101028999</v>
+        <v>1.088680829885844</v>
       </c>
       <c r="R28" s="13">
-        <v>1.044100119189511</v>
+        <v>1.547113418279062</v>
       </c>
       <c r="S28" s="13">
-        <v>0.93354943273906</v>
+        <v>0.7108902333621436</v>
       </c>
       <c r="T28" s="13">
-        <v>1.126676602086438</v>
+        <v>1.637589214908802</v>
       </c>
       <c r="U28" s="13">
-        <v>1.930693069306931</v>
+        <v>1.221959376784403</v>
       </c>
       <c r="V28" s="13">
-        <v>2.313253012048193</v>
+        <v>1.491683991683992</v>
       </c>
       <c r="W28" s="13">
-        <v>2.010471204188482</v>
+        <v>1.402054735388069</v>
       </c>
     </row>
     <row r="29" spans="1:23">
       <c r="B29" s="13">
-        <v>75.74009453387283</v>
+        <v>60.59689362550414</v>
       </c>
       <c r="C29" s="13">
-        <v>450.5408646504774</v>
+        <v>169.807187288238</v>
       </c>
       <c r="D29" s="13">
-        <v>111.3382967356697</v>
+        <v>97.7486777738671</v>
       </c>
       <c r="E29" s="13">
-        <v>119.0661476659088</v>
+        <v>46.47337324469243</v>
       </c>
       <c r="F29" s="13">
-        <v>14.95482263351859</v>
+        <v>24.4297843816827</v>
       </c>
       <c r="G29" s="13">
-        <v>90.98113386851145</v>
+        <v>32.989891551833</v>
       </c>
       <c r="H29" s="13">
-        <v>71.30373566651329</v>
+        <v>25.8083292480413</v>
       </c>
       <c r="I29" s="13">
-        <v>36.67151483099655</v>
+        <v>25.26675805054328</v>
       </c>
       <c r="J29" s="13">
-        <v>83.78993925287212</v>
+        <v>53.91423327334683</v>
       </c>
       <c r="K29" s="13">
-        <v>25.83105727607755</v>
+        <v>57.2391522010164</v>
       </c>
       <c r="N29" s="13">
-        <v>0.0318660471166331</v>
+        <v>0.0181083127174466</v>
       </c>
       <c r="O29" s="13">
-        <v>0.01145363259364416</v>
+        <v>0.01457664630618424</v>
       </c>
       <c r="P29" s="13">
-        <v>0.03901039219990665</v>
+        <v>0.01407212253332906</v>
       </c>
       <c r="Q29" s="13">
-        <v>0.05500011690972675</v>
+        <v>0.02046730225054161</v>
       </c>
       <c r="R29" s="13">
-        <v>0.001927839149403198</v>
+        <v>0.0009272328800971303</v>
       </c>
       <c r="S29" s="13">
-        <v>0.01145363259356874</v>
+        <v>0.005890655944201658</v>
       </c>
       <c r="T29" s="13">
-        <v>0.01689694313310517</v>
+        <v>0.007963294146784448</v>
       </c>
       <c r="U29" s="13">
-        <v>0.01859797767668565</v>
+        <v>0.0300123466045527</v>
       </c>
       <c r="V29" s="13">
-        <v>0.01088662107903225</v>
+        <v>0.009054156358662531</v>
       </c>
       <c r="W29" s="13">
-        <v>0.03084542639060781</v>
+        <v>0.009013249025722991</v>
       </c>
     </row>
     <row r="30" spans="1:23">
       <c r="B30" s="13">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C30" s="13">
         <v>99</v>
@@ -3533,7 +4973,7 @@
         <v>41</v>
       </c>
       <c r="F30" s="13">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G30" s="13">
         <v>36</v>
@@ -3548,13 +4988,13 @@
         <v>35</v>
       </c>
       <c r="K30" s="13">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="N30" s="13">
         <v>34.5</v>
       </c>
       <c r="O30" s="13">
-        <v>32.5</v>
+        <v>33</v>
       </c>
       <c r="P30" s="13">
         <v>25.8</v>
@@ -3572,10 +5012,10 @@
         <v>11.5</v>
       </c>
       <c r="U30" s="13">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="V30" s="13">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="W30" s="13">
         <v>6.7</v>
@@ -3583,13 +5023,13 @@
     </row>
     <row r="31" spans="1:23">
       <c r="B31" s="13">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="13">
         <v>4</v>
       </c>
       <c r="D31" s="13">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E31" s="13">
         <v>1</v>
@@ -3598,22 +5038,22 @@
         <v>8</v>
       </c>
       <c r="G31" s="13">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="H31" s="13">
         <v>-3</v>
       </c>
       <c r="I31" s="13">
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="J31" s="13">
-        <v>3</v>
+        <v>-13</v>
       </c>
       <c r="K31" s="13">
-        <v>5</v>
+        <v>-16</v>
       </c>
       <c r="N31" s="13">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="O31" s="13">
         <v>32.1</v>
@@ -3628,13 +5068,13 @@
         <v>13.9</v>
       </c>
       <c r="S31" s="13">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="T31" s="13">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="U31" s="13">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="V31" s="13">
         <v>8</v>
@@ -3645,40 +5085,40 @@
     </row>
     <row r="32" spans="1:23">
       <c r="B32" s="13">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C32" s="13">
         <v>95</v>
       </c>
       <c r="D32" s="13">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="E32" s="13">
         <v>40</v>
       </c>
       <c r="F32" s="13">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G32" s="13">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H32" s="13">
         <v>35</v>
       </c>
       <c r="I32" s="13">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J32" s="13">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K32" s="13">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="N32" s="13">
-        <v>0.7000000000000028</v>
+        <v>0.7999999999999972</v>
       </c>
       <c r="O32" s="13">
-        <v>0.3999999999999986</v>
+        <v>0.8999999999999986</v>
       </c>
       <c r="P32" s="13">
         <v>0.8000000000000007</v>
@@ -3690,16 +5130,16 @@
         <v>0.1999999999999993</v>
       </c>
       <c r="S32" s="13">
-        <v>0.4000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="T32" s="13">
-        <v>0.5</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="U32" s="13">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="V32" s="13">
-        <v>0.5</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="W32" s="13">
         <v>0.7000000000000002</v>

--- a/2022/Fantasy F1 2022.xlsx
+++ b/2022/Fantasy F1 2022.xlsx
@@ -2478,6 +2478,66 @@
       <c r="A15" s="12" t="s">
         <v>13</v>
       </c>
+      <c r="B15" s="13">
+        <v>367</v>
+      </c>
+      <c r="C15" s="13">
+        <v>399</v>
+      </c>
+      <c r="D15" s="13">
+        <v>561</v>
+      </c>
+      <c r="E15" s="13">
+        <v>375</v>
+      </c>
+      <c r="F15" s="13">
+        <v>395</v>
+      </c>
+      <c r="G15" s="13">
+        <v>341</v>
+      </c>
+      <c r="H15" s="13">
+        <v>88</v>
+      </c>
+      <c r="I15" s="13">
+        <v>232</v>
+      </c>
+      <c r="J15" s="13">
+        <v>184</v>
+      </c>
+      <c r="K15" s="13">
+        <v>209</v>
+      </c>
+      <c r="L15" s="13">
+        <v>142</v>
+      </c>
+      <c r="M15" s="13">
+        <v>49</v>
+      </c>
+      <c r="N15" s="13">
+        <v>170</v>
+      </c>
+      <c r="O15" s="13">
+        <v>165</v>
+      </c>
+      <c r="P15" s="13">
+        <v>117</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>69</v>
+      </c>
+      <c r="R15" s="13">
+        <v>174</v>
+      </c>
+      <c r="S15" s="13">
+        <v>63</v>
+      </c>
+      <c r="T15" s="13">
+        <v>96</v>
+      </c>
+      <c r="U15" s="13">
+        <v>96</v>
+      </c>
       <c r="W15" s="12" t="s">
         <v>13</v>
       </c>
@@ -2549,6 +2609,66 @@
       <c r="W16" s="12" t="s">
         <v>14</v>
       </c>
+      <c r="X16" s="13">
+        <v>30.6</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>23.8</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>30.4</v>
+      </c>
+      <c r="AA16" s="13">
+        <v>17.9</v>
+      </c>
+      <c r="AB16" s="13">
+        <v>18.7</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>17.2</v>
+      </c>
+      <c r="AD16" s="13">
+        <v>14.2</v>
+      </c>
+      <c r="AE16" s="13">
+        <v>15.9</v>
+      </c>
+      <c r="AF16" s="13">
+        <v>12.7</v>
+      </c>
+      <c r="AG16" s="13">
+        <v>12.3</v>
+      </c>
+      <c r="AH16" s="13">
+        <v>13</v>
+      </c>
+      <c r="AI16" s="13">
+        <v>8.4</v>
+      </c>
+      <c r="AJ16" s="13">
+        <v>11.8</v>
+      </c>
+      <c r="AK16" s="13">
+        <v>9.1</v>
+      </c>
+      <c r="AL16" s="13">
+        <v>7.6</v>
+      </c>
+      <c r="AM16" s="13">
+        <v>6.9</v>
+      </c>
+      <c r="AN16" s="13">
+        <v>9.5</v>
+      </c>
+      <c r="AO16" s="13">
+        <v>8.1</v>
+      </c>
+      <c r="AP16" s="13">
+        <v>6.3</v>
+      </c>
+      <c r="AQ16" s="13">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="17" spans="1:43">
       <c r="A17" s="12" t="s">
@@ -2608,612 +2728,612 @@
     </row>
     <row r="25" spans="1:43">
       <c r="B25" s="13">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C25" s="13">
-        <v>369</v>
+        <v>399</v>
       </c>
       <c r="D25" s="13">
-        <v>512</v>
+        <v>561</v>
       </c>
       <c r="E25" s="13">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="F25" s="13">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="G25" s="13">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="H25" s="13">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I25" s="13">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="J25" s="13">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="K25" s="13">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="L25" s="13">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="M25" s="13">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="N25" s="13">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="O25" s="13">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="P25" s="13">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="Q25" s="13">
         <v>69</v>
       </c>
       <c r="R25" s="13">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="S25" s="13">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="T25" s="13">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="U25" s="13">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="X25" s="13">
-        <v>424.0000000000001</v>
+        <v>454.6000000000001</v>
       </c>
       <c r="Y25" s="13">
-        <v>335.1999999999999</v>
+        <v>358.9999999999999</v>
       </c>
       <c r="Z25" s="13">
-        <v>425.8</v>
+        <v>456.1999999999999</v>
       </c>
       <c r="AA25" s="13">
-        <v>253.7</v>
+        <v>271.6</v>
       </c>
       <c r="AB25" s="13">
-        <v>262.4</v>
+        <v>281.1</v>
       </c>
       <c r="AC25" s="13">
-        <v>240.9</v>
+        <v>258.1</v>
       </c>
       <c r="AD25" s="13">
-        <v>193.7</v>
+        <v>207.9</v>
       </c>
       <c r="AE25" s="13">
-        <v>221.8</v>
+        <v>237.7</v>
       </c>
       <c r="AF25" s="13">
-        <v>174.1</v>
+        <v>186.8</v>
       </c>
       <c r="AG25" s="13">
-        <v>172.7000000000001</v>
+        <v>185.0000000000001</v>
       </c>
       <c r="AH25" s="13">
-        <v>182.7</v>
+        <v>195.7</v>
       </c>
       <c r="AI25" s="13">
-        <v>116.9</v>
+        <v>125.3</v>
       </c>
       <c r="AJ25" s="13">
-        <v>160.2</v>
+        <v>172</v>
       </c>
       <c r="AK25" s="13">
-        <v>127.8</v>
+        <v>136.9</v>
       </c>
       <c r="AL25" s="13">
-        <v>105.5</v>
+        <v>113.1</v>
       </c>
       <c r="AM25" s="13">
-        <v>94.00000000000001</v>
+        <v>100.9</v>
       </c>
       <c r="AN25" s="13">
-        <v>132.5</v>
+        <v>142</v>
       </c>
       <c r="AO25" s="13">
-        <v>115.9</v>
+        <v>124</v>
       </c>
       <c r="AP25" s="13">
-        <v>87.90000000000001</v>
+        <v>94.2</v>
       </c>
       <c r="AQ25" s="13">
-        <v>83.99999999999999</v>
+        <v>90.09999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:43">
       <c r="B26" s="13">
-        <v>0.856132075471698</v>
+        <v>0.8073031236251649</v>
       </c>
       <c r="C26" s="13">
-        <v>1.100835322195704</v>
+        <v>1.111420612813371</v>
       </c>
       <c r="D26" s="13">
-        <v>1.202442461249413</v>
+        <v>1.229723805348532</v>
       </c>
       <c r="E26" s="13">
-        <v>1.351990540007883</v>
+        <v>1.380706921944035</v>
       </c>
       <c r="F26" s="13">
-        <v>1.429115853658536</v>
+        <v>1.405193881181074</v>
       </c>
       <c r="G26" s="13">
-        <v>1.28684101286841</v>
+        <v>1.321193335916312</v>
       </c>
       <c r="H26" s="13">
-        <v>0.4801239029426949</v>
+        <v>0.4232804232804233</v>
       </c>
       <c r="I26" s="13">
-        <v>1.018935978358882</v>
+        <v>0.9760201935212452</v>
       </c>
       <c r="J26" s="13">
-        <v>0.9190120620333142</v>
+        <v>0.9850107066381157</v>
       </c>
       <c r="K26" s="13">
-        <v>1.129125651418645</v>
+        <v>1.129729729729729</v>
       </c>
       <c r="L26" s="13">
-        <v>0.6896551724137929</v>
+        <v>0.7256004087889625</v>
       </c>
       <c r="M26" s="13">
-        <v>0.3165098374679214</v>
+        <v>0.3910614525139665</v>
       </c>
       <c r="N26" s="13">
-        <v>0.9425717852684143</v>
+        <v>0.9883720930232557</v>
       </c>
       <c r="O26" s="13">
-        <v>1.205007824726135</v>
+        <v>1.205259313367421</v>
       </c>
       <c r="P26" s="13">
-        <v>1.014218009478673</v>
+        <v>1.03448275862069</v>
       </c>
       <c r="Q26" s="13">
-        <v>0.7340425531914893</v>
+        <v>0.6838453914767095</v>
       </c>
       <c r="R26" s="13">
-        <v>1.381132075471698</v>
+        <v>1.225352112676056</v>
       </c>
       <c r="S26" s="13">
-        <v>0.4918032786885245</v>
+        <v>0.5080645161290321</v>
       </c>
       <c r="T26" s="13">
-        <v>1.080773606370876</v>
+        <v>1.019108280254777</v>
       </c>
       <c r="U26" s="13">
-        <v>1.035714285714286</v>
+        <v>1.065482796892342</v>
       </c>
       <c r="X26" s="13">
-        <v>0.856132075471698</v>
+        <v>0.8073031236251649</v>
       </c>
       <c r="Y26" s="13">
-        <v>1.100835322195704</v>
+        <v>1.111420612813371</v>
       </c>
       <c r="Z26" s="13">
-        <v>1.202442461249413</v>
+        <v>1.229723805348532</v>
       </c>
       <c r="AA26" s="13">
-        <v>1.351990540007883</v>
+        <v>1.380706921944035</v>
       </c>
       <c r="AB26" s="13">
-        <v>1.429115853658536</v>
+        <v>1.405193881181074</v>
       </c>
       <c r="AC26" s="13">
-        <v>1.28684101286841</v>
+        <v>1.321193335916312</v>
       </c>
       <c r="AD26" s="13">
-        <v>0.4801239029426949</v>
+        <v>0.4232804232804233</v>
       </c>
       <c r="AE26" s="13">
-        <v>1.018935978358882</v>
+        <v>0.9760201935212452</v>
       </c>
       <c r="AF26" s="13">
-        <v>0.9190120620333142</v>
+        <v>0.9850107066381157</v>
       </c>
       <c r="AG26" s="13">
-        <v>1.129125651418645</v>
+        <v>1.129729729729729</v>
       </c>
       <c r="AH26" s="13">
-        <v>0.6896551724137929</v>
+        <v>0.7256004087889625</v>
       </c>
       <c r="AI26" s="13">
-        <v>0.3165098374679214</v>
+        <v>0.3910614525139665</v>
       </c>
       <c r="AJ26" s="13">
-        <v>0.9425717852684143</v>
+        <v>0.9883720930232557</v>
       </c>
       <c r="AK26" s="13">
-        <v>1.205007824726135</v>
+        <v>1.205259313367421</v>
       </c>
       <c r="AL26" s="13">
-        <v>1.014218009478673</v>
+        <v>1.03448275862069</v>
       </c>
       <c r="AM26" s="13">
-        <v>0.7340425531914893</v>
+        <v>0.6838453914767095</v>
       </c>
       <c r="AN26" s="13">
-        <v>1.381132075471698</v>
+        <v>1.225352112676056</v>
       </c>
       <c r="AO26" s="13">
-        <v>0.4918032786885245</v>
+        <v>0.5080645161290321</v>
       </c>
       <c r="AP26" s="13">
-        <v>1.080773606370876</v>
+        <v>1.019108280254777</v>
       </c>
       <c r="AQ26" s="13">
-        <v>1.035714285714286</v>
+        <v>1.065482796892342</v>
       </c>
     </row>
     <row r="27" spans="1:43">
       <c r="B27" s="13">
-        <v>27.92307692307692</v>
+        <v>26.21428571428572</v>
       </c>
       <c r="C27" s="13">
-        <v>28.38461538461538</v>
+        <v>28.5</v>
       </c>
       <c r="D27" s="13">
-        <v>39.38461538461539</v>
+        <v>40.07142857142857</v>
       </c>
       <c r="E27" s="13">
-        <v>26.38461538461538</v>
+        <v>26.78571428571428</v>
       </c>
       <c r="F27" s="13">
-        <v>28.84615384615385</v>
+        <v>28.21428571428572</v>
       </c>
       <c r="G27" s="13">
-        <v>23.84615384615385</v>
+        <v>24.35714285714286</v>
       </c>
       <c r="H27" s="13">
-        <v>7.153846153846154</v>
+        <v>6.285714285714286</v>
       </c>
       <c r="I27" s="13">
-        <v>17.38461538461538</v>
+        <v>16.57142857142857</v>
       </c>
       <c r="J27" s="13">
-        <v>12.30769230769231</v>
+        <v>13.14285714285714</v>
       </c>
       <c r="K27" s="13">
-        <v>15</v>
+        <v>14.92857142857143</v>
       </c>
       <c r="L27" s="13">
-        <v>9.692307692307692</v>
+        <v>10.14285714285714</v>
       </c>
       <c r="M27" s="13">
-        <v>2.846153846153846</v>
+        <v>3.5</v>
       </c>
       <c r="N27" s="13">
-        <v>11.61538461538461</v>
+        <v>12.14285714285714</v>
       </c>
       <c r="O27" s="13">
-        <v>11.84615384615385</v>
+        <v>11.78571428571429</v>
       </c>
       <c r="P27" s="13">
-        <v>8.23076923076923</v>
+        <v>8.357142857142858</v>
       </c>
       <c r="Q27" s="13">
-        <v>5.307692307692307</v>
+        <v>4.928571428571429</v>
       </c>
       <c r="R27" s="13">
-        <v>14.07692307692308</v>
+        <v>12.42857142857143</v>
       </c>
       <c r="S27" s="13">
-        <v>4.384615384615385</v>
+        <v>4.5</v>
       </c>
       <c r="T27" s="13">
-        <v>7.307692307692307</v>
+        <v>6.857142857142857</v>
       </c>
       <c r="U27" s="13">
-        <v>6.692307692307693</v>
+        <v>6.857142857142857</v>
       </c>
       <c r="X27" s="13">
-        <v>30.28571428571429</v>
+        <v>30.30666666666667</v>
       </c>
       <c r="Y27" s="13">
-        <v>23.94285714285714</v>
+        <v>23.93333333333333</v>
       </c>
       <c r="Z27" s="13">
-        <v>30.41428571428571</v>
+        <v>30.41333333333333</v>
       </c>
       <c r="AA27" s="13">
-        <v>18.12142857142857</v>
+        <v>18.10666666666667</v>
       </c>
       <c r="AB27" s="13">
-        <v>18.74285714285714</v>
+        <v>18.74</v>
       </c>
       <c r="AC27" s="13">
-        <v>17.20714285714286</v>
+        <v>17.20666666666666</v>
       </c>
       <c r="AD27" s="13">
-        <v>13.83571428571429</v>
+        <v>13.86</v>
       </c>
       <c r="AE27" s="13">
-        <v>15.84285714285714</v>
+        <v>15.84666666666667</v>
       </c>
       <c r="AF27" s="13">
-        <v>12.43571428571429</v>
+        <v>12.45333333333333</v>
       </c>
       <c r="AG27" s="13">
-        <v>12.33571428571429</v>
+        <v>12.33333333333334</v>
       </c>
       <c r="AH27" s="13">
-        <v>13.05</v>
+        <v>13.04666666666667</v>
       </c>
       <c r="AI27" s="13">
-        <v>8.349999999999998</v>
+        <v>8.353333333333332</v>
       </c>
       <c r="AJ27" s="13">
-        <v>11.44285714285714</v>
+        <v>11.46666666666667</v>
       </c>
       <c r="AK27" s="13">
-        <v>9.128571428571428</v>
+        <v>9.126666666666667</v>
       </c>
       <c r="AL27" s="13">
-        <v>7.535714285714285</v>
+        <v>7.539999999999998</v>
       </c>
       <c r="AM27" s="13">
-        <v>6.714285714285715</v>
+        <v>6.726666666666668</v>
       </c>
       <c r="AN27" s="13">
-        <v>9.464285714285712</v>
+        <v>9.466666666666665</v>
       </c>
       <c r="AO27" s="13">
-        <v>8.27857142857143</v>
+        <v>8.266666666666669</v>
       </c>
       <c r="AP27" s="13">
-        <v>6.278571428571429</v>
+        <v>6.28</v>
       </c>
       <c r="AQ27" s="13">
-        <v>5.999999999999999</v>
+        <v>6.006666666666665</v>
       </c>
     </row>
     <row r="28" spans="1:43">
       <c r="B28" s="13">
-        <v>0.921988388969521</v>
+        <v>0.8649676324555338</v>
       </c>
       <c r="C28" s="13">
-        <v>1.185514962364604</v>
+        <v>1.190807799442897</v>
       </c>
       <c r="D28" s="13">
-        <v>1.294938035191676</v>
+        <v>1.317561220016284</v>
       </c>
       <c r="E28" s="13">
-        <v>1.455989812316182</v>
+        <v>1.479328844940038</v>
       </c>
       <c r="F28" s="13">
-        <v>1.539047842401501</v>
+        <v>1.505564872694008</v>
       </c>
       <c r="G28" s="13">
-        <v>1.385828783089057</v>
+        <v>1.415564288481763</v>
       </c>
       <c r="H28" s="13">
-        <v>0.5170565108613637</v>
+        <v>0.453514739229025</v>
       </c>
       <c r="I28" s="13">
-        <v>1.097315669001873</v>
+        <v>1.045735921629906</v>
       </c>
       <c r="J28" s="13">
-        <v>0.9897052975743384</v>
+        <v>1.055368614255124</v>
       </c>
       <c r="K28" s="13">
-        <v>1.21598147075854</v>
+        <v>1.21042471042471</v>
       </c>
       <c r="L28" s="13">
-        <v>0.742705570291777</v>
+        <v>0.7774290094167455</v>
       </c>
       <c r="M28" s="13">
-        <v>0.3408567480423769</v>
+        <v>0.4189944134078213</v>
       </c>
       <c r="N28" s="13">
-        <v>1.015077307212138</v>
+        <v>1.058970099667774</v>
       </c>
       <c r="O28" s="13">
-        <v>1.297700734320453</v>
+        <v>1.291349264322237</v>
       </c>
       <c r="P28" s="13">
-        <v>1.092234779438571</v>
+        <v>1.108374384236454</v>
       </c>
       <c r="Q28" s="13">
-        <v>0.7905073649754499</v>
+        <v>0.732691490867903</v>
       </c>
       <c r="R28" s="13">
-        <v>1.487373004354137</v>
+        <v>1.312877263581489</v>
       </c>
       <c r="S28" s="13">
-        <v>0.5296343001261034</v>
+        <v>0.5443548387096773</v>
       </c>
       <c r="T28" s="13">
-        <v>1.163910037630174</v>
+        <v>1.091901728844404</v>
       </c>
       <c r="U28" s="13">
-        <v>1.115384615384616</v>
+        <v>1.141588710956081</v>
       </c>
       <c r="X28" s="13">
-        <v>0.921988388969521</v>
+        <v>0.8649676324555338</v>
       </c>
       <c r="Y28" s="13">
-        <v>1.185514962364604</v>
+        <v>1.190807799442897</v>
       </c>
       <c r="Z28" s="13">
-        <v>1.294938035191676</v>
+        <v>1.317561220016284</v>
       </c>
       <c r="AA28" s="13">
-        <v>1.455989812316182</v>
+        <v>1.479328844940038</v>
       </c>
       <c r="AB28" s="13">
-        <v>1.539047842401501</v>
+        <v>1.505564872694008</v>
       </c>
       <c r="AC28" s="13">
-        <v>1.385828783089057</v>
+        <v>1.415564288481763</v>
       </c>
       <c r="AD28" s="13">
-        <v>0.5170565108613637</v>
+        <v>0.453514739229025</v>
       </c>
       <c r="AE28" s="13">
-        <v>1.097315669001873</v>
+        <v>1.045735921629906</v>
       </c>
       <c r="AF28" s="13">
-        <v>0.9897052975743384</v>
+        <v>1.055368614255124</v>
       </c>
       <c r="AG28" s="13">
-        <v>1.21598147075854</v>
+        <v>1.21042471042471</v>
       </c>
       <c r="AH28" s="13">
-        <v>0.742705570291777</v>
+        <v>0.7774290094167455</v>
       </c>
       <c r="AI28" s="13">
-        <v>0.3408567480423769</v>
+        <v>0.4189944134078213</v>
       </c>
       <c r="AJ28" s="13">
-        <v>1.015077307212138</v>
+        <v>1.058970099667774</v>
       </c>
       <c r="AK28" s="13">
-        <v>1.297700734320453</v>
+        <v>1.291349264322237</v>
       </c>
       <c r="AL28" s="13">
-        <v>1.092234779438571</v>
+        <v>1.108374384236454</v>
       </c>
       <c r="AM28" s="13">
-        <v>0.7905073649754499</v>
+        <v>0.732691490867903</v>
       </c>
       <c r="AN28" s="13">
-        <v>1.487373004354137</v>
+        <v>1.312877263581489</v>
       </c>
       <c r="AO28" s="13">
-        <v>0.5296343001261034</v>
+        <v>0.5443548387096773</v>
       </c>
       <c r="AP28" s="13">
-        <v>1.163910037630174</v>
+        <v>1.091901728844404</v>
       </c>
       <c r="AQ28" s="13">
-        <v>1.115384615384616</v>
+        <v>1.141588710956081</v>
       </c>
     </row>
     <row r="29" spans="1:43">
       <c r="B29" s="13">
-        <v>47.25454866896228</v>
+        <v>52.42820148107554</v>
       </c>
       <c r="C29" s="13">
-        <v>20.5895522539696</v>
+        <v>18.46966082501934</v>
       </c>
       <c r="D29" s="13">
-        <v>99.35698011795211</v>
+        <v>90.54292716442295</v>
       </c>
       <c r="E29" s="13">
-        <v>79.89980400420566</v>
+        <v>72.05281267293071</v>
       </c>
       <c r="F29" s="13">
-        <v>94.59115357996968</v>
+        <v>86.02675760720885</v>
       </c>
       <c r="G29" s="13">
-        <v>67.02682075216215</v>
+        <v>60.88238362320325</v>
       </c>
       <c r="H29" s="13">
-        <v>15.56771024080628</v>
+        <v>16.54837975433257</v>
       </c>
       <c r="I29" s="13">
-        <v>40.72943630153179</v>
+        <v>38.74197145518265</v>
       </c>
       <c r="J29" s="13">
-        <v>34.79184662714454</v>
+        <v>33.55492163765786</v>
       </c>
       <c r="K29" s="13">
-        <v>30.03914908788934</v>
+        <v>26.89657141184985</v>
       </c>
       <c r="L29" s="13">
-        <v>21.13768795083122</v>
+        <v>19.61915688079573</v>
       </c>
       <c r="M29" s="13">
-        <v>37.62771035222502</v>
+        <v>35.15439835583782</v>
       </c>
       <c r="N29" s="13">
-        <v>24.51512287340969</v>
+        <v>22.90265213857694</v>
       </c>
       <c r="O29" s="13">
-        <v>2.340244023127739</v>
+        <v>2.106727646707623</v>
       </c>
       <c r="P29" s="13">
-        <v>18.14099399134226</v>
+        <v>16.28793640124443</v>
       </c>
       <c r="Q29" s="13">
-        <v>16.8707633644833</v>
+        <v>15.59523889669591</v>
       </c>
       <c r="R29" s="13">
-        <v>38.46468402108557</v>
+        <v>43.85811522893478</v>
       </c>
       <c r="S29" s="13">
-        <v>17.21868183075475</v>
+        <v>15.45342680915054</v>
       </c>
       <c r="T29" s="13">
-        <v>23.78318119436693</v>
+        <v>21.98632788059148</v>
       </c>
       <c r="U29" s="13">
-        <v>30.31157581147923</v>
+        <v>27.21701218659179</v>
       </c>
       <c r="X29" s="13">
-        <v>0.02896239172557048</v>
+        <v>0.02770187199325879</v>
       </c>
       <c r="Y29" s="13">
-        <v>0.009817759907009093</v>
+        <v>0.00918040496881874</v>
       </c>
       <c r="Z29" s="13">
-        <v>0.001854465760270221</v>
+        <v>0.001675423906849635</v>
       </c>
       <c r="AA29" s="13">
-        <v>0.02755790662778713</v>
+        <v>0.02563628087530099</v>
       </c>
       <c r="AB29" s="13">
-        <v>0.02699883974421424</v>
+        <v>0.02437397519211924</v>
       </c>
       <c r="AC29" s="13">
-        <v>0.002468075754408915</v>
+        <v>0.002226248204965843</v>
       </c>
       <c r="AD29" s="13">
-        <v>0.03383036434615828</v>
+        <v>0.0326363396640605</v>
       </c>
       <c r="AE29" s="13">
-        <v>0.007526949262014985</v>
+        <v>0.006839401701736791</v>
       </c>
       <c r="AF29" s="13">
-        <v>0.004431627735795541</v>
+        <v>0.005118075770112631</v>
       </c>
       <c r="AG29" s="13">
-        <v>0.006722438380721286</v>
+        <v>0.006082018291786642</v>
       </c>
       <c r="AH29" s="13">
-        <v>0.01212220632957629</v>
+        <v>0.0109705839376744</v>
       </c>
       <c r="AI29" s="13">
-        <v>0.001813558427269912</v>
+        <v>0.001675423906809273</v>
       </c>
       <c r="AJ29" s="13">
-        <v>0.0010363191012819</v>
+        <v>0.002983631614849946</v>
       </c>
       <c r="AK29" s="13">
-        <v>0.01009047545995583</v>
+        <v>0.009111551931517522</v>
       </c>
       <c r="AL29" s="13">
-        <v>0.01588568096061416</v>
+        <v>0.01439028478857949</v>
       </c>
       <c r="AM29" s="13">
-        <v>0.004527078179327468</v>
+        <v>0.004636104509231595</v>
       </c>
       <c r="AN29" s="13">
-        <v>0.01244946499317997</v>
+        <v>0.01124599608677287</v>
       </c>
       <c r="AO29" s="13">
-        <v>0.005795205500639348</v>
+        <v>0.005737753105478689</v>
       </c>
       <c r="AP29" s="13">
-        <v>0.003122593081525131</v>
+        <v>0.002822974527902442</v>
       </c>
       <c r="AQ29" s="13">
-        <v>0.01145405322481672</v>
+        <v>0.0104886126768429</v>
       </c>
     </row>
     <row r="30" spans="1:43">
@@ -3302,7 +3422,7 @@
         <v>16.1</v>
       </c>
       <c r="AF30" s="13">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="AG30" s="13">
         <v>12.6</v>
@@ -3314,7 +3434,7 @@
         <v>8.5</v>
       </c>
       <c r="AJ30" s="13">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="AK30" s="13">
         <v>9.5</v>
@@ -3340,7 +3460,7 @@
     </row>
     <row r="31" spans="1:43">
       <c r="B31" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="13">
         <v>1</v>
@@ -3388,7 +3508,7 @@
         <v>-9</v>
       </c>
       <c r="R31" s="13">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="S31" s="13">
         <v>-9</v>
@@ -3462,7 +3582,7 @@
     </row>
     <row r="32" spans="1:43">
       <c r="B32" s="13">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32" s="13">
         <v>35</v>
@@ -3510,7 +3630,7 @@
         <v>22</v>
       </c>
       <c r="R32" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S32" s="13">
         <v>24</v>
@@ -3546,7 +3666,7 @@
         <v>0.7000000000000011</v>
       </c>
       <c r="AF32" s="13">
-        <v>0.4000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="AG32" s="13">
         <v>0.5999999999999996</v>
@@ -3558,7 +3678,7 @@
         <v>0.1999999999999993</v>
       </c>
       <c r="AJ32" s="13">
-        <v>0.1999999999999993</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="AK32" s="13">
         <v>0.5999999999999996</v>
@@ -4551,6 +4671,36 @@
       <c r="A15" s="12" t="s">
         <v>13</v>
       </c>
+      <c r="B15" s="13">
+        <v>702</v>
+      </c>
+      <c r="C15" s="13">
+        <v>847</v>
+      </c>
+      <c r="D15" s="13">
+        <v>650</v>
+      </c>
+      <c r="E15" s="13">
+        <v>246</v>
+      </c>
+      <c r="F15" s="13">
+        <v>314</v>
+      </c>
+      <c r="G15" s="13">
+        <v>117</v>
+      </c>
+      <c r="H15" s="13">
+        <v>261</v>
+      </c>
+      <c r="I15" s="13">
+        <v>112</v>
+      </c>
+      <c r="J15" s="13">
+        <v>156</v>
+      </c>
+      <c r="K15" s="13">
+        <v>121</v>
+      </c>
       <c r="M15" s="12" t="s">
         <v>13</v>
       </c>
@@ -4592,6 +4742,36 @@
       <c r="M16" s="12" t="s">
         <v>14</v>
       </c>
+      <c r="N16" s="13">
+        <v>34.2</v>
+      </c>
+      <c r="O16" s="13">
+        <v>32.6</v>
+      </c>
+      <c r="P16" s="13">
+        <v>25.8</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>17.7</v>
+      </c>
+      <c r="R16" s="13">
+        <v>14.1</v>
+      </c>
+      <c r="S16" s="13">
+        <v>10.2</v>
+      </c>
+      <c r="T16" s="13">
+        <v>11.8</v>
+      </c>
+      <c r="U16" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="V16" s="13">
+        <v>8.6</v>
+      </c>
+      <c r="W16" s="13">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="12" t="s">
@@ -4651,312 +4831,312 @@
     </row>
     <row r="25" spans="1:23">
       <c r="B25" s="13">
-        <v>673</v>
+        <v>702</v>
       </c>
       <c r="C25" s="13">
-        <v>761</v>
+        <v>847</v>
       </c>
       <c r="D25" s="13">
-        <v>609</v>
+        <v>650</v>
       </c>
       <c r="E25" s="13">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F25" s="13">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="G25" s="13">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="H25" s="13">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="I25" s="13">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="J25" s="13">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="K25" s="13">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="N25" s="13">
-        <v>474.1999999999999</v>
+        <v>508.3999999999999</v>
       </c>
       <c r="O25" s="13">
-        <v>454.7</v>
+        <v>487.3000000000001</v>
       </c>
       <c r="P25" s="13">
-        <v>359.6</v>
+        <v>385.4</v>
       </c>
       <c r="Q25" s="13">
-        <v>247.3</v>
+        <v>265</v>
       </c>
       <c r="R25" s="13">
-        <v>195.6</v>
+        <v>209.7</v>
       </c>
       <c r="S25" s="13">
-        <v>142.4</v>
+        <v>152.6</v>
       </c>
       <c r="T25" s="13">
-        <v>155.2</v>
+        <v>167</v>
       </c>
       <c r="U25" s="13">
-        <v>94.3</v>
+        <v>100.5</v>
       </c>
       <c r="V25" s="13">
-        <v>118.4</v>
+        <v>127</v>
       </c>
       <c r="W25" s="13">
-        <v>89.09999999999999</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="26" spans="1:23">
       <c r="B26" s="13">
-        <v>1.419232391396036</v>
+        <v>1.380802517702597</v>
       </c>
       <c r="C26" s="13">
-        <v>1.673630965471739</v>
+        <v>1.738148984198645</v>
       </c>
       <c r="D26" s="13">
-        <v>1.693548387096774</v>
+        <v>1.686559418785677</v>
       </c>
       <c r="E26" s="13">
-        <v>1.010917913465427</v>
+        <v>0.9283018867924528</v>
       </c>
       <c r="F26" s="13">
-        <v>1.436605316973415</v>
+        <v>1.497377205531712</v>
       </c>
       <c r="G26" s="13">
-        <v>0.6601123595505619</v>
+        <v>0.7667103538663174</v>
       </c>
       <c r="H26" s="13">
-        <v>1.520618556701031</v>
+        <v>1.562874251497006</v>
       </c>
       <c r="I26" s="13">
-        <v>1.134676564156946</v>
+        <v>1.114427860696517</v>
       </c>
       <c r="J26" s="13">
-        <v>1.385135135135135</v>
+        <v>1.228346456692913</v>
       </c>
       <c r="K26" s="13">
-        <v>1.301907968574635</v>
+        <v>1.267015706806283</v>
       </c>
       <c r="N26" s="13">
-        <v>1.419232391396036</v>
+        <v>1.380802517702597</v>
       </c>
       <c r="O26" s="13">
-        <v>1.673630965471739</v>
+        <v>1.738148984198645</v>
       </c>
       <c r="P26" s="13">
-        <v>1.693548387096774</v>
+        <v>1.686559418785677</v>
       </c>
       <c r="Q26" s="13">
-        <v>1.010917913465427</v>
+        <v>0.9283018867924528</v>
       </c>
       <c r="R26" s="13">
-        <v>1.436605316973415</v>
+        <v>1.497377205531712</v>
       </c>
       <c r="S26" s="13">
-        <v>0.6601123595505619</v>
+        <v>0.7667103538663174</v>
       </c>
       <c r="T26" s="13">
-        <v>1.520618556701031</v>
+        <v>1.562874251497006</v>
       </c>
       <c r="U26" s="13">
-        <v>1.134676564156946</v>
+        <v>1.114427860696517</v>
       </c>
       <c r="V26" s="13">
-        <v>1.385135135135135</v>
+        <v>1.228346456692913</v>
       </c>
       <c r="W26" s="13">
-        <v>1.301907968574635</v>
+        <v>1.267015706806283</v>
       </c>
     </row>
     <row r="27" spans="1:23">
       <c r="B27" s="13">
-        <v>51.76923076923077</v>
+        <v>50.14285714285715</v>
       </c>
       <c r="C27" s="13">
-        <v>58.53846153846154</v>
+        <v>60.5</v>
       </c>
       <c r="D27" s="13">
-        <v>46.84615384615385</v>
+        <v>46.42857142857143</v>
       </c>
       <c r="E27" s="13">
-        <v>19.23076923076923</v>
+        <v>17.57142857142857</v>
       </c>
       <c r="F27" s="13">
-        <v>21.61538461538462</v>
+        <v>22.42857142857143</v>
       </c>
       <c r="G27" s="13">
-        <v>7.230769230769231</v>
+        <v>8.357142857142858</v>
       </c>
       <c r="H27" s="13">
-        <v>18.15384615384615</v>
+        <v>18.64285714285714</v>
       </c>
       <c r="I27" s="13">
-        <v>8.23076923076923</v>
+        <v>8</v>
       </c>
       <c r="J27" s="13">
-        <v>12.61538461538461</v>
+        <v>11.14285714285714</v>
       </c>
       <c r="K27" s="13">
-        <v>8.923076923076923</v>
+        <v>8.642857142857142</v>
       </c>
       <c r="N27" s="13">
-        <v>33.87142857142857</v>
+        <v>33.89333333333333</v>
       </c>
       <c r="O27" s="13">
-        <v>32.47857142857143</v>
+        <v>32.48666666666667</v>
       </c>
       <c r="P27" s="13">
-        <v>25.68571428571429</v>
+        <v>25.69333333333334</v>
       </c>
       <c r="Q27" s="13">
-        <v>17.66428571428571</v>
+        <v>17.66666666666667</v>
       </c>
       <c r="R27" s="13">
-        <v>13.97142857142857</v>
+        <v>13.98</v>
       </c>
       <c r="S27" s="13">
-        <v>10.17142857142857</v>
+        <v>10.17333333333333</v>
       </c>
       <c r="T27" s="13">
-        <v>11.08571428571429</v>
+        <v>11.13333333333333</v>
       </c>
       <c r="U27" s="13">
-        <v>6.735714285714286</v>
+        <v>6.7</v>
       </c>
       <c r="V27" s="13">
-        <v>8.457142857142857</v>
+        <v>8.466666666666667</v>
       </c>
       <c r="W27" s="13">
-        <v>6.364285714285714</v>
+        <v>6.366666666666666</v>
       </c>
     </row>
     <row r="28" spans="1:23">
       <c r="B28" s="13">
-        <v>1.528404113811115</v>
+        <v>1.479431268967068</v>
       </c>
       <c r="C28" s="13">
-        <v>1.802371808969566</v>
+        <v>1.862302483069977</v>
       </c>
       <c r="D28" s="13">
-        <v>1.823821339950372</v>
+        <v>1.80702794869894</v>
       </c>
       <c r="E28" s="13">
-        <v>1.088680829885844</v>
+        <v>0.9946091644204852</v>
       </c>
       <c r="F28" s="13">
-        <v>1.547113418279062</v>
+        <v>1.604332720212548</v>
       </c>
       <c r="G28" s="13">
-        <v>0.7108902333621436</v>
+        <v>0.821475379142483</v>
       </c>
       <c r="H28" s="13">
-        <v>1.637589214908802</v>
+        <v>1.674508126603935</v>
       </c>
       <c r="I28" s="13">
-        <v>1.221959376784403</v>
+        <v>1.194029850746269</v>
       </c>
       <c r="J28" s="13">
-        <v>1.491683991683992</v>
+        <v>1.316085489313836</v>
       </c>
       <c r="K28" s="13">
-        <v>1.402054735388069</v>
+        <v>1.357516828721017</v>
       </c>
       <c r="N28" s="13">
-        <v>1.528404113811115</v>
+        <v>1.479431268967068</v>
       </c>
       <c r="O28" s="13">
-        <v>1.802371808969566</v>
+        <v>1.862302483069977</v>
       </c>
       <c r="P28" s="13">
-        <v>1.823821339950372</v>
+        <v>1.80702794869894</v>
       </c>
       <c r="Q28" s="13">
-        <v>1.088680829885844</v>
+        <v>0.9946091644204852</v>
       </c>
       <c r="R28" s="13">
-        <v>1.547113418279062</v>
+        <v>1.604332720212548</v>
       </c>
       <c r="S28" s="13">
-        <v>0.7108902333621436</v>
+        <v>0.821475379142483</v>
       </c>
       <c r="T28" s="13">
-        <v>1.637589214908802</v>
+        <v>1.674508126603935</v>
       </c>
       <c r="U28" s="13">
-        <v>1.221959376784403</v>
+        <v>1.194029850746269</v>
       </c>
       <c r="V28" s="13">
-        <v>1.491683991683992</v>
+        <v>1.316085489313836</v>
       </c>
       <c r="W28" s="13">
-        <v>1.402054735388069</v>
+        <v>1.357516828721017</v>
       </c>
     </row>
     <row r="29" spans="1:23">
       <c r="B29" s="13">
-        <v>60.59689362550414</v>
+        <v>63.41182037701719</v>
       </c>
       <c r="C29" s="13">
-        <v>169.807187288238</v>
+        <v>165.3106231671886</v>
       </c>
       <c r="D29" s="13">
-        <v>97.7486777738671</v>
+        <v>88.07076067673296</v>
       </c>
       <c r="E29" s="13">
-        <v>46.47337324469243</v>
+        <v>51.15052911540236</v>
       </c>
       <c r="F29" s="13">
-        <v>24.4297843816827</v>
+        <v>24.15714368224753</v>
       </c>
       <c r="G29" s="13">
-        <v>32.989891551833</v>
+        <v>33.92717836746444</v>
       </c>
       <c r="H29" s="13">
-        <v>25.8083292480413</v>
+        <v>23.92397188445656</v>
       </c>
       <c r="I29" s="13">
-        <v>25.26675805054328</v>
+        <v>22.79356591738819</v>
       </c>
       <c r="J29" s="13">
-        <v>53.91423327334683</v>
+        <v>55.77578489380513</v>
       </c>
       <c r="K29" s="13">
-        <v>57.2391522010164</v>
+        <v>51.49005997885232</v>
       </c>
       <c r="N29" s="13">
-        <v>0.0181083127174466</v>
+        <v>0.0180624467761811</v>
       </c>
       <c r="O29" s="13">
-        <v>0.01457664630618424</v>
+        <v>0.01338044024194382</v>
       </c>
       <c r="P29" s="13">
-        <v>0.01407212253332906</v>
+        <v>0.01289846898112516</v>
       </c>
       <c r="Q29" s="13">
-        <v>0.02046730225054161</v>
+        <v>0.01847556499968754</v>
       </c>
       <c r="R29" s="13">
-        <v>0.0009272328800971303</v>
+        <v>0.001101648596254433</v>
       </c>
       <c r="S29" s="13">
-        <v>0.005890655944201658</v>
+        <v>0.005324634881906209</v>
       </c>
       <c r="T29" s="13">
-        <v>0.007963294146784448</v>
+        <v>0.01537717832272149</v>
       </c>
       <c r="U29" s="13">
-        <v>0.0300123466045527</v>
+        <v>0.03167239714231861</v>
       </c>
       <c r="V29" s="13">
-        <v>0.009054156358662531</v>
+        <v>0.008491874596125779</v>
       </c>
       <c r="W29" s="13">
-        <v>0.009013249025722991</v>
+        <v>0.008147609409803148</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -5009,7 +5189,7 @@
         <v>10.5</v>
       </c>
       <c r="T30" s="13">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="U30" s="13">
         <v>7.4</v>
@@ -5023,7 +5203,7 @@
     </row>
     <row r="31" spans="1:23">
       <c r="B31" s="13">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="13">
         <v>4</v>
@@ -5032,7 +5212,7 @@
         <v>3</v>
       </c>
       <c r="E31" s="13">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="F31" s="13">
         <v>8</v>
@@ -5085,7 +5265,7 @@
     </row>
     <row r="32" spans="1:23">
       <c r="B32" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" s="13">
         <v>95</v>
@@ -5094,7 +5274,7 @@
         <v>73</v>
       </c>
       <c r="E32" s="13">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F32" s="13">
         <v>32</v>
@@ -5133,7 +5313,7 @@
         <v>0.5</v>
       </c>
       <c r="T32" s="13">
-        <v>0.5999999999999996</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="U32" s="13">
         <v>1.2</v>

--- a/2022/Fantasy F1 2022.xlsx
+++ b/2022/Fantasy F1 2022.xlsx
@@ -2606,6 +2606,66 @@
       <c r="A16" s="12" t="s">
         <v>14</v>
       </c>
+      <c r="B16" s="13">
+        <v>392</v>
+      </c>
+      <c r="C16" s="13">
+        <v>452</v>
+      </c>
+      <c r="D16" s="13">
+        <v>615</v>
+      </c>
+      <c r="E16" s="13">
+        <v>395</v>
+      </c>
+      <c r="F16" s="13">
+        <v>426</v>
+      </c>
+      <c r="G16" s="13">
+        <v>352</v>
+      </c>
+      <c r="H16" s="13">
+        <v>90</v>
+      </c>
+      <c r="I16" s="13">
+        <v>251</v>
+      </c>
+      <c r="J16" s="13">
+        <v>218</v>
+      </c>
+      <c r="K16" s="13">
+        <v>232</v>
+      </c>
+      <c r="L16" s="13">
+        <v>148</v>
+      </c>
+      <c r="M16" s="13">
+        <v>46</v>
+      </c>
+      <c r="N16" s="13">
+        <v>182</v>
+      </c>
+      <c r="O16" s="13">
+        <v>176</v>
+      </c>
+      <c r="P16" s="13">
+        <v>131</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>75</v>
+      </c>
+      <c r="R16" s="13">
+        <v>165</v>
+      </c>
+      <c r="S16" s="13">
+        <v>67</v>
+      </c>
+      <c r="T16" s="13">
+        <v>98</v>
+      </c>
+      <c r="U16" s="13">
+        <v>104</v>
+      </c>
       <c r="W16" s="12" t="s">
         <v>14</v>
       </c>
@@ -2677,6 +2737,66 @@
       <c r="W17" s="12" t="s">
         <v>15</v>
       </c>
+      <c r="X17" s="13">
+        <v>30.6</v>
+      </c>
+      <c r="Y17" s="13">
+        <v>23.8</v>
+      </c>
+      <c r="Z17" s="13">
+        <v>30.4</v>
+      </c>
+      <c r="AA17" s="13">
+        <v>17.9</v>
+      </c>
+      <c r="AB17" s="13">
+        <v>18.7</v>
+      </c>
+      <c r="AC17" s="13">
+        <v>17.2</v>
+      </c>
+      <c r="AD17" s="13">
+        <v>14.2</v>
+      </c>
+      <c r="AE17" s="13">
+        <v>15.9</v>
+      </c>
+      <c r="AF17" s="13">
+        <v>12.7</v>
+      </c>
+      <c r="AG17" s="13">
+        <v>12.3</v>
+      </c>
+      <c r="AH17" s="13">
+        <v>13</v>
+      </c>
+      <c r="AI17" s="13">
+        <v>8.4</v>
+      </c>
+      <c r="AJ17" s="13">
+        <v>11.8</v>
+      </c>
+      <c r="AK17" s="13">
+        <v>9.1</v>
+      </c>
+      <c r="AL17" s="13">
+        <v>7.7</v>
+      </c>
+      <c r="AM17" s="13">
+        <v>6.9</v>
+      </c>
+      <c r="AN17" s="13">
+        <v>9.5</v>
+      </c>
+      <c r="AO17" s="13">
+        <v>8.1</v>
+      </c>
+      <c r="AP17" s="13">
+        <v>6.3</v>
+      </c>
+      <c r="AQ17" s="13">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="18" spans="1:43">
       <c r="A18" s="12" t="s">
@@ -2728,612 +2848,612 @@
     </row>
     <row r="25" spans="1:43">
       <c r="B25" s="13">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="C25" s="13">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="D25" s="13">
-        <v>561</v>
+        <v>615</v>
       </c>
       <c r="E25" s="13">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="F25" s="13">
-        <v>395</v>
+        <v>426</v>
       </c>
       <c r="G25" s="13">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="H25" s="13">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I25" s="13">
+        <v>251</v>
+      </c>
+      <c r="J25" s="13">
+        <v>218</v>
+      </c>
+      <c r="K25" s="13">
         <v>232</v>
       </c>
-      <c r="J25" s="13">
-        <v>184</v>
-      </c>
-      <c r="K25" s="13">
-        <v>209</v>
-      </c>
       <c r="L25" s="13">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="M25" s="13">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N25" s="13">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="O25" s="13">
+        <v>176</v>
+      </c>
+      <c r="P25" s="13">
+        <v>131</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>75</v>
+      </c>
+      <c r="R25" s="13">
         <v>165</v>
       </c>
-      <c r="P25" s="13">
-        <v>117</v>
-      </c>
-      <c r="Q25" s="13">
-        <v>69</v>
-      </c>
-      <c r="R25" s="13">
-        <v>174</v>
-      </c>
       <c r="S25" s="13">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="T25" s="13">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="U25" s="13">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="X25" s="13">
-        <v>454.6000000000001</v>
+        <v>485.2000000000001</v>
       </c>
       <c r="Y25" s="13">
-        <v>358.9999999999999</v>
+        <v>382.8</v>
       </c>
       <c r="Z25" s="13">
-        <v>456.1999999999999</v>
+        <v>486.5999999999999</v>
       </c>
       <c r="AA25" s="13">
-        <v>271.6</v>
+        <v>289.5</v>
       </c>
       <c r="AB25" s="13">
-        <v>281.1</v>
+        <v>299.8</v>
       </c>
       <c r="AC25" s="13">
-        <v>258.1</v>
+        <v>275.3</v>
       </c>
       <c r="AD25" s="13">
-        <v>207.9</v>
+        <v>222.1</v>
       </c>
       <c r="AE25" s="13">
-        <v>237.7</v>
+        <v>253.6</v>
       </c>
       <c r="AF25" s="13">
-        <v>186.8</v>
+        <v>199.5</v>
       </c>
       <c r="AG25" s="13">
-        <v>185.0000000000001</v>
+        <v>197.3000000000001</v>
       </c>
       <c r="AH25" s="13">
-        <v>195.7</v>
+        <v>208.7</v>
       </c>
       <c r="AI25" s="13">
-        <v>125.3</v>
+        <v>133.7</v>
       </c>
       <c r="AJ25" s="13">
-        <v>172</v>
+        <v>183.8</v>
       </c>
       <c r="AK25" s="13">
-        <v>136.9</v>
+        <v>146</v>
       </c>
       <c r="AL25" s="13">
-        <v>113.1</v>
+        <v>120.8</v>
       </c>
       <c r="AM25" s="13">
-        <v>100.9</v>
+        <v>107.8</v>
       </c>
       <c r="AN25" s="13">
-        <v>142</v>
+        <v>151.5</v>
       </c>
       <c r="AO25" s="13">
-        <v>124</v>
+        <v>132.1</v>
       </c>
       <c r="AP25" s="13">
-        <v>94.2</v>
+        <v>100.5</v>
       </c>
       <c r="AQ25" s="13">
-        <v>90.09999999999998</v>
+        <v>96.19999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:43">
       <c r="B26" s="13">
-        <v>0.8073031236251649</v>
+        <v>0.8079142621599339</v>
       </c>
       <c r="C26" s="13">
-        <v>1.111420612813371</v>
+        <v>1.180773249738767</v>
       </c>
       <c r="D26" s="13">
-        <v>1.229723805348532</v>
+        <v>1.263871763255241</v>
       </c>
       <c r="E26" s="13">
-        <v>1.380706921944035</v>
+        <v>1.364421416234888</v>
       </c>
       <c r="F26" s="13">
-        <v>1.405193881181074</v>
+        <v>1.420947298198799</v>
       </c>
       <c r="G26" s="13">
-        <v>1.321193335916312</v>
+        <v>1.278605158009444</v>
       </c>
       <c r="H26" s="13">
-        <v>0.4232804232804233</v>
+        <v>0.405222872579919</v>
       </c>
       <c r="I26" s="13">
-        <v>0.9760201935212452</v>
+        <v>0.9897476340694006</v>
       </c>
       <c r="J26" s="13">
-        <v>0.9850107066381157</v>
+        <v>1.092731829573935</v>
       </c>
       <c r="K26" s="13">
-        <v>1.129729729729729</v>
+        <v>1.175874303091738</v>
       </c>
       <c r="L26" s="13">
-        <v>0.7256004087889625</v>
+        <v>0.7091518926689026</v>
       </c>
       <c r="M26" s="13">
-        <v>0.3910614525139665</v>
+        <v>0.3440538519072551</v>
       </c>
       <c r="N26" s="13">
-        <v>0.9883720930232557</v>
+        <v>0.9902067464635471</v>
       </c>
       <c r="O26" s="13">
-        <v>1.205259313367421</v>
+        <v>1.205479452054794</v>
       </c>
       <c r="P26" s="13">
-        <v>1.03448275862069</v>
+        <v>1.084437086092715</v>
       </c>
       <c r="Q26" s="13">
-        <v>0.6838453914767095</v>
+        <v>0.6957328385899813</v>
       </c>
       <c r="R26" s="13">
-        <v>1.225352112676056</v>
+        <v>1.089108910891089</v>
       </c>
       <c r="S26" s="13">
-        <v>0.5080645161290321</v>
+        <v>0.5071915215745646</v>
       </c>
       <c r="T26" s="13">
-        <v>1.019108280254777</v>
+        <v>0.9751243781094527</v>
       </c>
       <c r="U26" s="13">
-        <v>1.065482796892342</v>
+        <v>1.081081081081081</v>
       </c>
       <c r="X26" s="13">
-        <v>0.8073031236251649</v>
+        <v>0.8079142621599339</v>
       </c>
       <c r="Y26" s="13">
-        <v>1.111420612813371</v>
+        <v>1.180773249738767</v>
       </c>
       <c r="Z26" s="13">
-        <v>1.229723805348532</v>
+        <v>1.263871763255241</v>
       </c>
       <c r="AA26" s="13">
-        <v>1.380706921944035</v>
+        <v>1.364421416234888</v>
       </c>
       <c r="AB26" s="13">
-        <v>1.405193881181074</v>
+        <v>1.420947298198799</v>
       </c>
       <c r="AC26" s="13">
-        <v>1.321193335916312</v>
+        <v>1.278605158009444</v>
       </c>
       <c r="AD26" s="13">
-        <v>0.4232804232804233</v>
+        <v>0.405222872579919</v>
       </c>
       <c r="AE26" s="13">
-        <v>0.9760201935212452</v>
+        <v>0.9897476340694006</v>
       </c>
       <c r="AF26" s="13">
-        <v>0.9850107066381157</v>
+        <v>1.092731829573935</v>
       </c>
       <c r="AG26" s="13">
-        <v>1.129729729729729</v>
+        <v>1.175874303091738</v>
       </c>
       <c r="AH26" s="13">
-        <v>0.7256004087889625</v>
+        <v>0.7091518926689026</v>
       </c>
       <c r="AI26" s="13">
-        <v>0.3910614525139665</v>
+        <v>0.3440538519072551</v>
       </c>
       <c r="AJ26" s="13">
-        <v>0.9883720930232557</v>
+        <v>0.9902067464635471</v>
       </c>
       <c r="AK26" s="13">
-        <v>1.205259313367421</v>
+        <v>1.205479452054794</v>
       </c>
       <c r="AL26" s="13">
-        <v>1.03448275862069</v>
+        <v>1.084437086092715</v>
       </c>
       <c r="AM26" s="13">
-        <v>0.6838453914767095</v>
+        <v>0.6957328385899813</v>
       </c>
       <c r="AN26" s="13">
-        <v>1.225352112676056</v>
+        <v>1.089108910891089</v>
       </c>
       <c r="AO26" s="13">
-        <v>0.5080645161290321</v>
+        <v>0.5071915215745646</v>
       </c>
       <c r="AP26" s="13">
-        <v>1.019108280254777</v>
+        <v>0.9751243781094527</v>
       </c>
       <c r="AQ26" s="13">
-        <v>1.065482796892342</v>
+        <v>1.081081081081081</v>
       </c>
     </row>
     <row r="27" spans="1:43">
       <c r="B27" s="13">
-        <v>26.21428571428572</v>
+        <v>26.13333333333333</v>
       </c>
       <c r="C27" s="13">
-        <v>28.5</v>
+        <v>30.13333333333333</v>
       </c>
       <c r="D27" s="13">
-        <v>40.07142857142857</v>
+        <v>41</v>
       </c>
       <c r="E27" s="13">
-        <v>26.78571428571428</v>
+        <v>26.33333333333333</v>
       </c>
       <c r="F27" s="13">
-        <v>28.21428571428572</v>
+        <v>28.4</v>
       </c>
       <c r="G27" s="13">
-        <v>24.35714285714286</v>
+        <v>23.46666666666667</v>
       </c>
       <c r="H27" s="13">
-        <v>6.285714285714286</v>
+        <v>6</v>
       </c>
       <c r="I27" s="13">
-        <v>16.57142857142857</v>
+        <v>16.73333333333333</v>
       </c>
       <c r="J27" s="13">
-        <v>13.14285714285714</v>
+        <v>14.53333333333333</v>
       </c>
       <c r="K27" s="13">
-        <v>14.92857142857143</v>
+        <v>15.46666666666667</v>
       </c>
       <c r="L27" s="13">
-        <v>10.14285714285714</v>
+        <v>9.866666666666667</v>
       </c>
       <c r="M27" s="13">
-        <v>3.5</v>
+        <v>3.066666666666667</v>
       </c>
       <c r="N27" s="13">
-        <v>12.14285714285714</v>
+        <v>12.13333333333333</v>
       </c>
       <c r="O27" s="13">
-        <v>11.78571428571429</v>
+        <v>11.73333333333333</v>
       </c>
       <c r="P27" s="13">
-        <v>8.357142857142858</v>
+        <v>8.733333333333333</v>
       </c>
       <c r="Q27" s="13">
-        <v>4.928571428571429</v>
+        <v>5</v>
       </c>
       <c r="R27" s="13">
-        <v>12.42857142857143</v>
+        <v>11</v>
       </c>
       <c r="S27" s="13">
-        <v>4.5</v>
+        <v>4.466666666666667</v>
       </c>
       <c r="T27" s="13">
-        <v>6.857142857142857</v>
+        <v>6.533333333333333</v>
       </c>
       <c r="U27" s="13">
-        <v>6.857142857142857</v>
+        <v>6.933333333333334</v>
       </c>
       <c r="X27" s="13">
-        <v>30.30666666666667</v>
+        <v>30.32500000000001</v>
       </c>
       <c r="Y27" s="13">
-        <v>23.93333333333333</v>
+        <v>23.925</v>
       </c>
       <c r="Z27" s="13">
-        <v>30.41333333333333</v>
+        <v>30.41249999999999</v>
       </c>
       <c r="AA27" s="13">
-        <v>18.10666666666667</v>
+        <v>18.09375</v>
       </c>
       <c r="AB27" s="13">
-        <v>18.74</v>
+        <v>18.7375</v>
       </c>
       <c r="AC27" s="13">
-        <v>17.20666666666666</v>
+        <v>17.20625</v>
       </c>
       <c r="AD27" s="13">
-        <v>13.86</v>
+        <v>13.88125</v>
       </c>
       <c r="AE27" s="13">
-        <v>15.84666666666667</v>
+        <v>15.85</v>
       </c>
       <c r="AF27" s="13">
-        <v>12.45333333333333</v>
+        <v>12.46875</v>
       </c>
       <c r="AG27" s="13">
-        <v>12.33333333333334</v>
+        <v>12.33125000000001</v>
       </c>
       <c r="AH27" s="13">
-        <v>13.04666666666667</v>
+        <v>13.04375</v>
       </c>
       <c r="AI27" s="13">
-        <v>8.353333333333332</v>
+        <v>8.356249999999999</v>
       </c>
       <c r="AJ27" s="13">
-        <v>11.46666666666667</v>
+        <v>11.4875</v>
       </c>
       <c r="AK27" s="13">
-        <v>9.126666666666667</v>
+        <v>9.125</v>
       </c>
       <c r="AL27" s="13">
-        <v>7.539999999999998</v>
+        <v>7.549999999999999</v>
       </c>
       <c r="AM27" s="13">
-        <v>6.726666666666668</v>
+        <v>6.737500000000002</v>
       </c>
       <c r="AN27" s="13">
-        <v>9.466666666666665</v>
+        <v>9.468749999999998</v>
       </c>
       <c r="AO27" s="13">
-        <v>8.266666666666669</v>
+        <v>8.256250000000001</v>
       </c>
       <c r="AP27" s="13">
-        <v>6.28</v>
+        <v>6.28125</v>
       </c>
       <c r="AQ27" s="13">
-        <v>6.006666666666665</v>
+        <v>6.012499999999998</v>
       </c>
     </row>
     <row r="28" spans="1:43">
       <c r="B28" s="13">
-        <v>0.8649676324555338</v>
+        <v>0.8617752129705961</v>
       </c>
       <c r="C28" s="13">
-        <v>1.190807799442897</v>
+        <v>1.259491466388018</v>
       </c>
       <c r="D28" s="13">
-        <v>1.317561220016284</v>
+        <v>1.34812988080559</v>
       </c>
       <c r="E28" s="13">
-        <v>1.479328844940038</v>
+        <v>1.45538284398388</v>
       </c>
       <c r="F28" s="13">
-        <v>1.505564872694008</v>
+        <v>1.515677118078719</v>
       </c>
       <c r="G28" s="13">
-        <v>1.415564288481763</v>
+        <v>1.363845501876741</v>
       </c>
       <c r="H28" s="13">
-        <v>0.453514739229025</v>
+        <v>0.4322377307519136</v>
       </c>
       <c r="I28" s="13">
-        <v>1.045735921629906</v>
+        <v>1.055730809674027</v>
       </c>
       <c r="J28" s="13">
-        <v>1.055368614255124</v>
+        <v>1.165580618212197</v>
       </c>
       <c r="K28" s="13">
-        <v>1.21042471042471</v>
+        <v>1.254265923297854</v>
       </c>
       <c r="L28" s="13">
-        <v>0.7774290094167455</v>
+        <v>0.7564286855134961</v>
       </c>
       <c r="M28" s="13">
-        <v>0.4189944134078213</v>
+        <v>0.3669907753677388</v>
       </c>
       <c r="N28" s="13">
-        <v>1.058970099667774</v>
+        <v>1.056220529561117</v>
       </c>
       <c r="O28" s="13">
-        <v>1.291349264322237</v>
+        <v>1.285844748858447</v>
       </c>
       <c r="P28" s="13">
-        <v>1.108374384236454</v>
+        <v>1.15673289183223</v>
       </c>
       <c r="Q28" s="13">
-        <v>0.732691490867903</v>
+        <v>0.7421150278293134</v>
       </c>
       <c r="R28" s="13">
-        <v>1.312877263581489</v>
+        <v>1.161716171617162</v>
       </c>
       <c r="S28" s="13">
-        <v>0.5443548387096773</v>
+        <v>0.5410042896795356</v>
       </c>
       <c r="T28" s="13">
-        <v>1.091901728844404</v>
+        <v>1.040132669983416</v>
       </c>
       <c r="U28" s="13">
-        <v>1.141588710956081</v>
+        <v>1.153153153153154</v>
       </c>
       <c r="X28" s="13">
-        <v>0.8649676324555338</v>
+        <v>0.8617752129705961</v>
       </c>
       <c r="Y28" s="13">
-        <v>1.190807799442897</v>
+        <v>1.259491466388018</v>
       </c>
       <c r="Z28" s="13">
-        <v>1.317561220016284</v>
+        <v>1.34812988080559</v>
       </c>
       <c r="AA28" s="13">
-        <v>1.479328844940038</v>
+        <v>1.45538284398388</v>
       </c>
       <c r="AB28" s="13">
-        <v>1.505564872694008</v>
+        <v>1.515677118078719</v>
       </c>
       <c r="AC28" s="13">
-        <v>1.415564288481763</v>
+        <v>1.363845501876741</v>
       </c>
       <c r="AD28" s="13">
-        <v>0.453514739229025</v>
+        <v>0.4322377307519136</v>
       </c>
       <c r="AE28" s="13">
-        <v>1.045735921629906</v>
+        <v>1.055730809674027</v>
       </c>
       <c r="AF28" s="13">
-        <v>1.055368614255124</v>
+        <v>1.165580618212197</v>
       </c>
       <c r="AG28" s="13">
-        <v>1.21042471042471</v>
+        <v>1.254265923297854</v>
       </c>
       <c r="AH28" s="13">
-        <v>0.7774290094167455</v>
+        <v>0.7564286855134961</v>
       </c>
       <c r="AI28" s="13">
-        <v>0.4189944134078213</v>
+        <v>0.3669907753677388</v>
       </c>
       <c r="AJ28" s="13">
-        <v>1.058970099667774</v>
+        <v>1.056220529561117</v>
       </c>
       <c r="AK28" s="13">
-        <v>1.291349264322237</v>
+        <v>1.285844748858447</v>
       </c>
       <c r="AL28" s="13">
-        <v>1.108374384236454</v>
+        <v>1.15673289183223</v>
       </c>
       <c r="AM28" s="13">
-        <v>0.732691490867903</v>
+        <v>0.7421150278293134</v>
       </c>
       <c r="AN28" s="13">
-        <v>1.312877263581489</v>
+        <v>1.161716171617162</v>
       </c>
       <c r="AO28" s="13">
-        <v>0.5443548387096773</v>
+        <v>0.5410042896795356</v>
       </c>
       <c r="AP28" s="13">
-        <v>1.091901728844404</v>
+        <v>1.040132669983416</v>
       </c>
       <c r="AQ28" s="13">
-        <v>1.141588710956081</v>
+        <v>1.153153153153154</v>
       </c>
     </row>
     <row r="29" spans="1:43">
       <c r="B29" s="13">
-        <v>52.42820148107554</v>
+        <v>47.29744639919552</v>
       </c>
       <c r="C29" s="13">
-        <v>18.46966082501934</v>
+        <v>26.2972700330931</v>
       </c>
       <c r="D29" s="13">
-        <v>90.54292716442295</v>
+        <v>84.75808887433475</v>
       </c>
       <c r="E29" s="13">
-        <v>72.05281267293071</v>
+        <v>65.70874856409976</v>
       </c>
       <c r="F29" s="13">
-        <v>86.02675760720885</v>
+        <v>77.69376725085245</v>
       </c>
       <c r="G29" s="13">
-        <v>60.88238362320325</v>
+        <v>57.76310806361381</v>
       </c>
       <c r="H29" s="13">
-        <v>16.54837975433257</v>
+        <v>15.21652123576603</v>
       </c>
       <c r="I29" s="13">
-        <v>38.74197145518265</v>
+        <v>35.02783515841043</v>
       </c>
       <c r="J29" s="13">
-        <v>33.55492163765786</v>
+        <v>37.24490295837271</v>
       </c>
       <c r="K29" s="13">
-        <v>26.89657141184985</v>
+        <v>25.29890099273739</v>
       </c>
       <c r="L29" s="13">
-        <v>19.61915688079573</v>
+        <v>17.96605252391802</v>
       </c>
       <c r="M29" s="13">
-        <v>35.15439835583782</v>
+        <v>32.3769932236729</v>
       </c>
       <c r="N29" s="13">
-        <v>22.90265213857694</v>
+        <v>20.6513209772885</v>
       </c>
       <c r="O29" s="13">
-        <v>2.106727646707623</v>
+        <v>1.909524233507899</v>
       </c>
       <c r="P29" s="13">
-        <v>16.28793640124443</v>
+        <v>15.19816042582845</v>
       </c>
       <c r="Q29" s="13">
-        <v>15.59523889669591</v>
+        <v>14.08044612087852</v>
       </c>
       <c r="R29" s="13">
-        <v>43.85811522893478</v>
+        <v>46.92334489671742</v>
       </c>
       <c r="S29" s="13">
-        <v>15.45342680915054</v>
+        <v>13.93814984386231</v>
       </c>
       <c r="T29" s="13">
-        <v>21.98632788059148</v>
+        <v>20.20377623506009</v>
       </c>
       <c r="U29" s="13">
-        <v>27.21701218659179</v>
+        <v>24.56217349399216</v>
       </c>
       <c r="X29" s="13">
-        <v>0.02770187199325879</v>
+        <v>0.02640624999992269</v>
       </c>
       <c r="Y29" s="13">
-        <v>0.00918040496881874</v>
+        <v>0.008593750000017053</v>
       </c>
       <c r="Z29" s="13">
-        <v>0.001675423906849635</v>
+        <v>0.001523437500082991</v>
       </c>
       <c r="AA29" s="13">
-        <v>0.02563628087530099</v>
+        <v>0.02389648437498693</v>
       </c>
       <c r="AB29" s="13">
-        <v>0.02437397519211924</v>
+        <v>0.02214843749999318</v>
       </c>
       <c r="AC29" s="13">
-        <v>0.002226248204965843</v>
+        <v>0.002021484375021032</v>
       </c>
       <c r="AD29" s="13">
-        <v>0.0326363396640605</v>
+        <v>0.03131835937501393</v>
       </c>
       <c r="AE29" s="13">
-        <v>0.006839401701736791</v>
+        <v>0.006249999999980105</v>
       </c>
       <c r="AF29" s="13">
-        <v>0.005118075770112631</v>
+        <v>0.005537109375012506</v>
       </c>
       <c r="AG29" s="13">
-        <v>0.006082018291786642</v>
+        <v>0.005537109374962768</v>
       </c>
       <c r="AH29" s="13">
-        <v>0.0109705839376744</v>
+        <v>0.00999023437498181</v>
       </c>
       <c r="AI29" s="13">
-        <v>0.001675423906809273</v>
+        <v>0.001552734375000142</v>
       </c>
       <c r="AJ29" s="13">
-        <v>0.002983631614849946</v>
+        <v>0.004335937499988063</v>
       </c>
       <c r="AK29" s="13">
-        <v>0.009111551931517522</v>
+        <v>0.008281249999996021</v>
       </c>
       <c r="AL29" s="13">
-        <v>0.01439028478857949</v>
+        <v>0.01343750000000199</v>
       </c>
       <c r="AM29" s="13">
-        <v>0.004636104509231595</v>
+        <v>0.004648437499994884</v>
       </c>
       <c r="AN29" s="13">
-        <v>0.01124599608677287</v>
+        <v>0.01022460937500824</v>
       </c>
       <c r="AO29" s="13">
-        <v>0.005737753105478689</v>
+        <v>0.005615234374989342</v>
       </c>
       <c r="AP29" s="13">
-        <v>0.002822974527902442</v>
+        <v>0.002568359375000995</v>
       </c>
       <c r="AQ29" s="13">
-        <v>0.0104886126768429</v>
+        <v>0.009648437500002771</v>
       </c>
     </row>
     <row r="30" spans="1:43">
@@ -3341,7 +3461,7 @@
         <v>48</v>
       </c>
       <c r="C30" s="13">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D30" s="13">
         <v>62</v>
@@ -3585,7 +3705,7 @@
         <v>44</v>
       </c>
       <c r="C32" s="13">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D32" s="13">
         <v>58</v>
@@ -4739,6 +4859,36 @@
       <c r="A16" s="12" t="s">
         <v>14</v>
       </c>
+      <c r="B16" s="13">
+        <v>760</v>
+      </c>
+      <c r="C16" s="13">
+        <v>911</v>
+      </c>
+      <c r="D16" s="13">
+        <v>697</v>
+      </c>
+      <c r="E16" s="13">
+        <v>262</v>
+      </c>
+      <c r="F16" s="13">
+        <v>346</v>
+      </c>
+      <c r="G16" s="13">
+        <v>115</v>
+      </c>
+      <c r="H16" s="13">
+        <v>279</v>
+      </c>
+      <c r="I16" s="13">
+        <v>127</v>
+      </c>
+      <c r="J16" s="13">
+        <v>146</v>
+      </c>
+      <c r="K16" s="13">
+        <v>126</v>
+      </c>
       <c r="M16" s="12" t="s">
         <v>14</v>
       </c>
@@ -4780,6 +4930,36 @@
       <c r="M17" s="12" t="s">
         <v>15</v>
       </c>
+      <c r="N17" s="13">
+        <v>34.2</v>
+      </c>
+      <c r="O17" s="13">
+        <v>32.7</v>
+      </c>
+      <c r="P17" s="13">
+        <v>25.8</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>17.7</v>
+      </c>
+      <c r="R17" s="13">
+        <v>14.1</v>
+      </c>
+      <c r="S17" s="13">
+        <v>10.2</v>
+      </c>
+      <c r="T17" s="13">
+        <v>11.8</v>
+      </c>
+      <c r="U17" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="V17" s="13">
+        <v>8.6</v>
+      </c>
+      <c r="W17" s="13">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="12" t="s">
@@ -4831,312 +5011,312 @@
     </row>
     <row r="25" spans="1:23">
       <c r="B25" s="13">
-        <v>702</v>
+        <v>760</v>
       </c>
       <c r="C25" s="13">
-        <v>847</v>
+        <v>911</v>
       </c>
       <c r="D25" s="13">
-        <v>650</v>
+        <v>697</v>
       </c>
       <c r="E25" s="13">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="F25" s="13">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="G25" s="13">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H25" s="13">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="I25" s="13">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="J25" s="13">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="K25" s="13">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="N25" s="13">
-        <v>508.3999999999999</v>
+        <v>542.5999999999999</v>
       </c>
       <c r="O25" s="13">
-        <v>487.3000000000001</v>
+        <v>520.0000000000001</v>
       </c>
       <c r="P25" s="13">
-        <v>385.4</v>
+        <v>411.2</v>
       </c>
       <c r="Q25" s="13">
-        <v>265</v>
+        <v>282.7</v>
       </c>
       <c r="R25" s="13">
-        <v>209.7</v>
+        <v>223.8</v>
       </c>
       <c r="S25" s="13">
-        <v>152.6</v>
+        <v>162.8</v>
       </c>
       <c r="T25" s="13">
-        <v>167</v>
+        <v>178.8</v>
       </c>
       <c r="U25" s="13">
-        <v>100.5</v>
+        <v>106.7</v>
       </c>
       <c r="V25" s="13">
-        <v>127</v>
+        <v>135.6</v>
       </c>
       <c r="W25" s="13">
-        <v>95.5</v>
+        <v>101.9</v>
       </c>
     </row>
     <row r="26" spans="1:23">
       <c r="B26" s="13">
-        <v>1.380802517702597</v>
+        <v>1.400663472171029</v>
       </c>
       <c r="C26" s="13">
-        <v>1.738148984198645</v>
+        <v>1.751923076923076</v>
       </c>
       <c r="D26" s="13">
-        <v>1.686559418785677</v>
+        <v>1.695038910505836</v>
       </c>
       <c r="E26" s="13">
-        <v>0.9283018867924528</v>
+        <v>0.9267775026529891</v>
       </c>
       <c r="F26" s="13">
-        <v>1.497377205531712</v>
+        <v>1.546023235031278</v>
       </c>
       <c r="G26" s="13">
-        <v>0.7667103538663174</v>
+        <v>0.7063882063882065</v>
       </c>
       <c r="H26" s="13">
-        <v>1.562874251497006</v>
+        <v>1.560402684563758</v>
       </c>
       <c r="I26" s="13">
-        <v>1.114427860696517</v>
+        <v>1.190253045923149</v>
       </c>
       <c r="J26" s="13">
-        <v>1.228346456692913</v>
+        <v>1.07669616519174</v>
       </c>
       <c r="K26" s="13">
-        <v>1.267015706806283</v>
+        <v>1.236506378802748</v>
       </c>
       <c r="N26" s="13">
-        <v>1.380802517702597</v>
+        <v>1.400663472171029</v>
       </c>
       <c r="O26" s="13">
-        <v>1.738148984198645</v>
+        <v>1.751923076923076</v>
       </c>
       <c r="P26" s="13">
-        <v>1.686559418785677</v>
+        <v>1.695038910505836</v>
       </c>
       <c r="Q26" s="13">
-        <v>0.9283018867924528</v>
+        <v>0.9267775026529891</v>
       </c>
       <c r="R26" s="13">
-        <v>1.497377205531712</v>
+        <v>1.546023235031278</v>
       </c>
       <c r="S26" s="13">
-        <v>0.7667103538663174</v>
+        <v>0.7063882063882065</v>
       </c>
       <c r="T26" s="13">
-        <v>1.562874251497006</v>
+        <v>1.560402684563758</v>
       </c>
       <c r="U26" s="13">
-        <v>1.114427860696517</v>
+        <v>1.190253045923149</v>
       </c>
       <c r="V26" s="13">
-        <v>1.228346456692913</v>
+        <v>1.07669616519174</v>
       </c>
       <c r="W26" s="13">
-        <v>1.267015706806283</v>
+        <v>1.236506378802748</v>
       </c>
     </row>
     <row r="27" spans="1:23">
       <c r="B27" s="13">
-        <v>50.14285714285715</v>
+        <v>50.66666666666666</v>
       </c>
       <c r="C27" s="13">
-        <v>60.5</v>
+        <v>60.73333333333333</v>
       </c>
       <c r="D27" s="13">
-        <v>46.42857142857143</v>
+        <v>46.46666666666667</v>
       </c>
       <c r="E27" s="13">
-        <v>17.57142857142857</v>
+        <v>17.46666666666667</v>
       </c>
       <c r="F27" s="13">
-        <v>22.42857142857143</v>
+        <v>23.06666666666667</v>
       </c>
       <c r="G27" s="13">
-        <v>8.357142857142858</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="H27" s="13">
-        <v>18.64285714285714</v>
+        <v>18.6</v>
       </c>
       <c r="I27" s="13">
-        <v>8</v>
+        <v>8.466666666666667</v>
       </c>
       <c r="J27" s="13">
-        <v>11.14285714285714</v>
+        <v>9.733333333333333</v>
       </c>
       <c r="K27" s="13">
-        <v>8.642857142857142</v>
+        <v>8.4</v>
       </c>
       <c r="N27" s="13">
-        <v>33.89333333333333</v>
+        <v>33.91249999999999</v>
       </c>
       <c r="O27" s="13">
-        <v>32.48666666666667</v>
+        <v>32.50000000000001</v>
       </c>
       <c r="P27" s="13">
-        <v>25.69333333333334</v>
+        <v>25.7</v>
       </c>
       <c r="Q27" s="13">
-        <v>17.66666666666667</v>
+        <v>17.66875</v>
       </c>
       <c r="R27" s="13">
-        <v>13.98</v>
+        <v>13.9875</v>
       </c>
       <c r="S27" s="13">
-        <v>10.17333333333333</v>
+        <v>10.175</v>
       </c>
       <c r="T27" s="13">
-        <v>11.13333333333333</v>
+        <v>11.175</v>
       </c>
       <c r="U27" s="13">
-        <v>6.7</v>
+        <v>6.66875</v>
       </c>
       <c r="V27" s="13">
-        <v>8.466666666666667</v>
+        <v>8.475</v>
       </c>
       <c r="W27" s="13">
-        <v>6.366666666666666</v>
+        <v>6.36875</v>
       </c>
     </row>
     <row r="28" spans="1:23">
       <c r="B28" s="13">
-        <v>1.479431268967068</v>
+        <v>1.49404103698243</v>
       </c>
       <c r="C28" s="13">
-        <v>1.862302483069977</v>
+        <v>1.868717948717948</v>
       </c>
       <c r="D28" s="13">
-        <v>1.80702794869894</v>
+        <v>1.808041504539559</v>
       </c>
       <c r="E28" s="13">
-        <v>0.9946091644204852</v>
+        <v>0.9885626694965216</v>
       </c>
       <c r="F28" s="13">
-        <v>1.604332720212548</v>
+        <v>1.64909145070003</v>
       </c>
       <c r="G28" s="13">
-        <v>0.821475379142483</v>
+        <v>0.7534807534807537</v>
       </c>
       <c r="H28" s="13">
-        <v>1.674508126603935</v>
+        <v>1.664429530201342</v>
       </c>
       <c r="I28" s="13">
-        <v>1.194029850746269</v>
+        <v>1.269603248984692</v>
       </c>
       <c r="J28" s="13">
-        <v>1.316085489313836</v>
+        <v>1.148475909537856</v>
       </c>
       <c r="K28" s="13">
-        <v>1.357516828721017</v>
+        <v>1.318940137389598</v>
       </c>
       <c r="N28" s="13">
-        <v>1.479431268967068</v>
+        <v>1.49404103698243</v>
       </c>
       <c r="O28" s="13">
-        <v>1.862302483069977</v>
+        <v>1.868717948717948</v>
       </c>
       <c r="P28" s="13">
-        <v>1.80702794869894</v>
+        <v>1.808041504539559</v>
       </c>
       <c r="Q28" s="13">
-        <v>0.9946091644204852</v>
+        <v>0.9885626694965216</v>
       </c>
       <c r="R28" s="13">
-        <v>1.604332720212548</v>
+        <v>1.64909145070003</v>
       </c>
       <c r="S28" s="13">
-        <v>0.821475379142483</v>
+        <v>0.7534807534807537</v>
       </c>
       <c r="T28" s="13">
-        <v>1.674508126603935</v>
+        <v>1.664429530201342</v>
       </c>
       <c r="U28" s="13">
-        <v>1.194029850746269</v>
+        <v>1.269603248984692</v>
       </c>
       <c r="V28" s="13">
-        <v>1.316085489313836</v>
+        <v>1.148475909537856</v>
       </c>
       <c r="W28" s="13">
-        <v>1.357516828721017</v>
+        <v>1.318940137389598</v>
       </c>
     </row>
     <row r="29" spans="1:23">
       <c r="B29" s="13">
-        <v>63.41182037701719</v>
+        <v>58.16934098348274</v>
       </c>
       <c r="C29" s="13">
-        <v>165.3106231671886</v>
+        <v>149.2550239825545</v>
       </c>
       <c r="D29" s="13">
-        <v>88.07076067673296</v>
+        <v>79.41738828374227</v>
       </c>
       <c r="E29" s="13">
-        <v>51.15052911540236</v>
+        <v>46.16137128430803</v>
       </c>
       <c r="F29" s="13">
-        <v>24.15714368224753</v>
+        <v>23.25396578593988</v>
       </c>
       <c r="G29" s="13">
-        <v>33.92717836746444</v>
+        <v>32.31502549013359</v>
       </c>
       <c r="H29" s="13">
-        <v>23.92397188445656</v>
+        <v>21.57854187913608</v>
       </c>
       <c r="I29" s="13">
-        <v>22.79356591738819</v>
+        <v>21.33985134994759</v>
       </c>
       <c r="J29" s="13">
-        <v>55.77578489380513</v>
+        <v>57.47392530709697</v>
       </c>
       <c r="K29" s="13">
-        <v>51.49005997885232</v>
+        <v>46.64104744392718</v>
       </c>
       <c r="N29" s="13">
-        <v>0.0180624467761811</v>
+        <v>0.01777343750012506</v>
       </c>
       <c r="O29" s="13">
-        <v>0.01338044024194382</v>
+        <v>0.01281249999988177</v>
       </c>
       <c r="P29" s="13">
-        <v>0.01289846898112516</v>
+        <v>0.01187499999994657</v>
       </c>
       <c r="Q29" s="13">
-        <v>0.01847556499968754</v>
+        <v>0.01678710937501648</v>
       </c>
       <c r="R29" s="13">
-        <v>0.001101648596254433</v>
+        <v>0.00121093749999801</v>
       </c>
       <c r="S29" s="13">
-        <v>0.005324634881906209</v>
+        <v>0.004843750000009805</v>
       </c>
       <c r="T29" s="13">
-        <v>0.01537717832272149</v>
+        <v>0.02046874999999915</v>
       </c>
       <c r="U29" s="13">
-        <v>0.03167239714231861</v>
+        <v>0.0324121093750005</v>
       </c>
       <c r="V29" s="13">
-        <v>0.008491874596125779</v>
+        <v>0.007968750000003411</v>
       </c>
       <c r="W29" s="13">
-        <v>0.008147609409803148</v>
+        <v>0.007412109375001918</v>
       </c>
     </row>
     <row r="30" spans="1:23">

--- a/2022/Fantasy F1 2022.xlsx
+++ b/2022/Fantasy F1 2022.xlsx
@@ -2734,6 +2734,66 @@
       <c r="A17" s="12" t="s">
         <v>15</v>
       </c>
+      <c r="B17" s="13">
+        <v>414</v>
+      </c>
+      <c r="C17" s="13">
+        <v>485</v>
+      </c>
+      <c r="D17" s="13">
+        <v>660</v>
+      </c>
+      <c r="E17" s="13">
+        <v>425</v>
+      </c>
+      <c r="F17" s="13">
+        <v>461</v>
+      </c>
+      <c r="G17" s="13">
+        <v>384</v>
+      </c>
+      <c r="H17" s="13">
+        <v>86</v>
+      </c>
+      <c r="I17" s="13">
+        <v>275</v>
+      </c>
+      <c r="J17" s="13">
+        <v>214</v>
+      </c>
+      <c r="K17" s="13">
+        <v>238</v>
+      </c>
+      <c r="L17" s="13">
+        <v>165</v>
+      </c>
+      <c r="M17" s="13">
+        <v>51</v>
+      </c>
+      <c r="N17" s="13">
+        <v>175</v>
+      </c>
+      <c r="O17" s="13">
+        <v>167</v>
+      </c>
+      <c r="P17" s="13">
+        <v>149</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>79</v>
+      </c>
+      <c r="R17" s="13">
+        <v>168</v>
+      </c>
+      <c r="S17" s="13">
+        <v>82</v>
+      </c>
+      <c r="T17" s="13">
+        <v>113</v>
+      </c>
+      <c r="U17" s="13">
+        <v>114</v>
+      </c>
       <c r="W17" s="12" t="s">
         <v>15</v>
       </c>
@@ -2805,6 +2865,66 @@
       <c r="W18" s="12" t="s">
         <v>16</v>
       </c>
+      <c r="X18" s="13">
+        <v>30.6</v>
+      </c>
+      <c r="Y18" s="13">
+        <v>23.8</v>
+      </c>
+      <c r="Z18" s="13">
+        <v>30.4</v>
+      </c>
+      <c r="AA18" s="13">
+        <v>17.9</v>
+      </c>
+      <c r="AB18" s="13">
+        <v>18.7</v>
+      </c>
+      <c r="AC18" s="13">
+        <v>17.2</v>
+      </c>
+      <c r="AD18" s="13">
+        <v>14.2</v>
+      </c>
+      <c r="AE18" s="13">
+        <v>15.9</v>
+      </c>
+      <c r="AF18" s="13">
+        <v>12.7</v>
+      </c>
+      <c r="AG18" s="13">
+        <v>12.3</v>
+      </c>
+      <c r="AH18" s="13">
+        <v>13</v>
+      </c>
+      <c r="AI18" s="13">
+        <v>8.4</v>
+      </c>
+      <c r="AJ18" s="13">
+        <v>11.8</v>
+      </c>
+      <c r="AK18" s="13">
+        <v>9.1</v>
+      </c>
+      <c r="AL18" s="13">
+        <v>7.7</v>
+      </c>
+      <c r="AM18" s="13">
+        <v>6.9</v>
+      </c>
+      <c r="AN18" s="13">
+        <v>9.5</v>
+      </c>
+      <c r="AO18" s="13">
+        <v>8.1</v>
+      </c>
+      <c r="AP18" s="13">
+        <v>6.3</v>
+      </c>
+      <c r="AQ18" s="13">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="19" spans="1:43">
       <c r="A19" s="12" t="s">
@@ -2848,612 +2968,612 @@
     </row>
     <row r="25" spans="1:43">
       <c r="B25" s="13">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="C25" s="13">
-        <v>452</v>
+        <v>485</v>
       </c>
       <c r="D25" s="13">
-        <v>615</v>
+        <v>660</v>
       </c>
       <c r="E25" s="13">
-        <v>395</v>
+        <v>425</v>
       </c>
       <c r="F25" s="13">
-        <v>426</v>
+        <v>461</v>
       </c>
       <c r="G25" s="13">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="H25" s="13">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I25" s="13">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="J25" s="13">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K25" s="13">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="L25" s="13">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="M25" s="13">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="N25" s="13">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="O25" s="13">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="P25" s="13">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="Q25" s="13">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="R25" s="13">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="S25" s="13">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="T25" s="13">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="U25" s="13">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="X25" s="13">
-        <v>485.2000000000001</v>
+        <v>515.8000000000001</v>
       </c>
       <c r="Y25" s="13">
-        <v>382.8</v>
+        <v>406.6</v>
       </c>
       <c r="Z25" s="13">
-        <v>486.5999999999999</v>
+        <v>516.9999999999999</v>
       </c>
       <c r="AA25" s="13">
-        <v>289.5</v>
+        <v>307.4</v>
       </c>
       <c r="AB25" s="13">
-        <v>299.8</v>
+        <v>318.5</v>
       </c>
       <c r="AC25" s="13">
-        <v>275.3</v>
+        <v>292.4999999999999</v>
       </c>
       <c r="AD25" s="13">
-        <v>222.1</v>
+        <v>236.3</v>
       </c>
       <c r="AE25" s="13">
-        <v>253.6</v>
+        <v>269.5</v>
       </c>
       <c r="AF25" s="13">
-        <v>199.5</v>
+        <v>212.2</v>
       </c>
       <c r="AG25" s="13">
-        <v>197.3000000000001</v>
+        <v>209.6000000000001</v>
       </c>
       <c r="AH25" s="13">
-        <v>208.7</v>
+        <v>221.7</v>
       </c>
       <c r="AI25" s="13">
-        <v>133.7</v>
+        <v>142.1</v>
       </c>
       <c r="AJ25" s="13">
-        <v>183.8</v>
+        <v>195.6000000000001</v>
       </c>
       <c r="AK25" s="13">
-        <v>146</v>
+        <v>155.1</v>
       </c>
       <c r="AL25" s="13">
-        <v>120.8</v>
+        <v>128.5</v>
       </c>
       <c r="AM25" s="13">
-        <v>107.8</v>
+        <v>114.7</v>
       </c>
       <c r="AN25" s="13">
-        <v>151.5</v>
+        <v>161</v>
       </c>
       <c r="AO25" s="13">
-        <v>132.1</v>
+        <v>140.2</v>
       </c>
       <c r="AP25" s="13">
-        <v>100.5</v>
+        <v>106.8</v>
       </c>
       <c r="AQ25" s="13">
-        <v>96.19999999999997</v>
+        <v>102.3</v>
       </c>
     </row>
     <row r="26" spans="1:43">
       <c r="B26" s="13">
-        <v>0.8079142621599339</v>
+        <v>0.8026366808840635</v>
       </c>
       <c r="C26" s="13">
-        <v>1.180773249738767</v>
+        <v>1.192818494835219</v>
       </c>
       <c r="D26" s="13">
-        <v>1.263871763255241</v>
+        <v>1.276595744680851</v>
       </c>
       <c r="E26" s="13">
-        <v>1.364421416234888</v>
+        <v>1.3825634352635</v>
       </c>
       <c r="F26" s="13">
-        <v>1.420947298198799</v>
+        <v>1.447409733124019</v>
       </c>
       <c r="G26" s="13">
-        <v>1.278605158009444</v>
+        <v>1.312820512820513</v>
       </c>
       <c r="H26" s="13">
-        <v>0.405222872579919</v>
+        <v>0.3639441388066019</v>
       </c>
       <c r="I26" s="13">
-        <v>0.9897476340694006</v>
+        <v>1.020408163265306</v>
       </c>
       <c r="J26" s="13">
-        <v>1.092731829573935</v>
+        <v>1.008482563619227</v>
       </c>
       <c r="K26" s="13">
-        <v>1.175874303091738</v>
+        <v>1.135496183206106</v>
       </c>
       <c r="L26" s="13">
-        <v>0.7091518926689026</v>
+        <v>0.7442489851150201</v>
       </c>
       <c r="M26" s="13">
-        <v>0.3440538519072551</v>
+        <v>0.3589021815622801</v>
       </c>
       <c r="N26" s="13">
-        <v>0.9902067464635471</v>
+        <v>0.8946830265848669</v>
       </c>
       <c r="O26" s="13">
-        <v>1.205479452054794</v>
+        <v>1.07672469374597</v>
       </c>
       <c r="P26" s="13">
-        <v>1.084437086092715</v>
+        <v>1.159533073929961</v>
       </c>
       <c r="Q26" s="13">
-        <v>0.6957328385899813</v>
+        <v>0.6887532693984305</v>
       </c>
       <c r="R26" s="13">
-        <v>1.089108910891089</v>
+        <v>1.043478260869565</v>
       </c>
       <c r="S26" s="13">
-        <v>0.5071915215745646</v>
+        <v>0.5848787446504992</v>
       </c>
       <c r="T26" s="13">
-        <v>0.9751243781094527</v>
+        <v>1.058052434456929</v>
       </c>
       <c r="U26" s="13">
-        <v>1.081081081081081</v>
+        <v>1.114369501466276</v>
       </c>
       <c r="X26" s="13">
-        <v>0.8079142621599339</v>
+        <v>0.8026366808840635</v>
       </c>
       <c r="Y26" s="13">
-        <v>1.180773249738767</v>
+        <v>1.192818494835219</v>
       </c>
       <c r="Z26" s="13">
-        <v>1.263871763255241</v>
+        <v>1.276595744680851</v>
       </c>
       <c r="AA26" s="13">
-        <v>1.364421416234888</v>
+        <v>1.3825634352635</v>
       </c>
       <c r="AB26" s="13">
-        <v>1.420947298198799</v>
+        <v>1.447409733124019</v>
       </c>
       <c r="AC26" s="13">
-        <v>1.278605158009444</v>
+        <v>1.312820512820513</v>
       </c>
       <c r="AD26" s="13">
-        <v>0.405222872579919</v>
+        <v>0.3639441388066019</v>
       </c>
       <c r="AE26" s="13">
-        <v>0.9897476340694006</v>
+        <v>1.020408163265306</v>
       </c>
       <c r="AF26" s="13">
-        <v>1.092731829573935</v>
+        <v>1.008482563619227</v>
       </c>
       <c r="AG26" s="13">
-        <v>1.175874303091738</v>
+        <v>1.135496183206106</v>
       </c>
       <c r="AH26" s="13">
-        <v>0.7091518926689026</v>
+        <v>0.7442489851150201</v>
       </c>
       <c r="AI26" s="13">
-        <v>0.3440538519072551</v>
+        <v>0.3589021815622801</v>
       </c>
       <c r="AJ26" s="13">
-        <v>0.9902067464635471</v>
+        <v>0.8946830265848669</v>
       </c>
       <c r="AK26" s="13">
-        <v>1.205479452054794</v>
+        <v>1.07672469374597</v>
       </c>
       <c r="AL26" s="13">
-        <v>1.084437086092715</v>
+        <v>1.159533073929961</v>
       </c>
       <c r="AM26" s="13">
-        <v>0.6957328385899813</v>
+        <v>0.6887532693984305</v>
       </c>
       <c r="AN26" s="13">
-        <v>1.089108910891089</v>
+        <v>1.043478260869565</v>
       </c>
       <c r="AO26" s="13">
-        <v>0.5071915215745646</v>
+        <v>0.5848787446504992</v>
       </c>
       <c r="AP26" s="13">
-        <v>0.9751243781094527</v>
+        <v>1.058052434456929</v>
       </c>
       <c r="AQ26" s="13">
-        <v>1.081081081081081</v>
+        <v>1.114369501466276</v>
       </c>
     </row>
     <row r="27" spans="1:43">
       <c r="B27" s="13">
-        <v>26.13333333333333</v>
+        <v>25.875</v>
       </c>
       <c r="C27" s="13">
-        <v>30.13333333333333</v>
+        <v>30.3125</v>
       </c>
       <c r="D27" s="13">
-        <v>41</v>
+        <v>41.25</v>
       </c>
       <c r="E27" s="13">
-        <v>26.33333333333333</v>
+        <v>26.5625</v>
       </c>
       <c r="F27" s="13">
-        <v>28.4</v>
+        <v>28.8125</v>
       </c>
       <c r="G27" s="13">
-        <v>23.46666666666667</v>
+        <v>24</v>
       </c>
       <c r="H27" s="13">
-        <v>6</v>
+        <v>5.375</v>
       </c>
       <c r="I27" s="13">
-        <v>16.73333333333333</v>
+        <v>17.1875</v>
       </c>
       <c r="J27" s="13">
-        <v>14.53333333333333</v>
+        <v>13.375</v>
       </c>
       <c r="K27" s="13">
-        <v>15.46666666666667</v>
+        <v>14.875</v>
       </c>
       <c r="L27" s="13">
-        <v>9.866666666666667</v>
+        <v>10.3125</v>
       </c>
       <c r="M27" s="13">
-        <v>3.066666666666667</v>
+        <v>3.1875</v>
       </c>
       <c r="N27" s="13">
-        <v>12.13333333333333</v>
+        <v>10.9375</v>
       </c>
       <c r="O27" s="13">
-        <v>11.73333333333333</v>
+        <v>10.4375</v>
       </c>
       <c r="P27" s="13">
-        <v>8.733333333333333</v>
+        <v>9.3125</v>
       </c>
       <c r="Q27" s="13">
-        <v>5</v>
+        <v>4.9375</v>
       </c>
       <c r="R27" s="13">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="S27" s="13">
-        <v>4.466666666666667</v>
+        <v>5.125</v>
       </c>
       <c r="T27" s="13">
-        <v>6.533333333333333</v>
+        <v>7.0625</v>
       </c>
       <c r="U27" s="13">
-        <v>6.933333333333334</v>
+        <v>7.125</v>
       </c>
       <c r="X27" s="13">
-        <v>30.32500000000001</v>
+        <v>30.34117647058824</v>
       </c>
       <c r="Y27" s="13">
-        <v>23.925</v>
+        <v>23.91764705882353</v>
       </c>
       <c r="Z27" s="13">
-        <v>30.41249999999999</v>
+        <v>30.41176470588235</v>
       </c>
       <c r="AA27" s="13">
-        <v>18.09375</v>
+        <v>18.08235294117647</v>
       </c>
       <c r="AB27" s="13">
-        <v>18.7375</v>
+        <v>18.73529411764706</v>
       </c>
       <c r="AC27" s="13">
-        <v>17.20625</v>
+        <v>17.20588235294117</v>
       </c>
       <c r="AD27" s="13">
-        <v>13.88125</v>
+        <v>13.9</v>
       </c>
       <c r="AE27" s="13">
-        <v>15.85</v>
+        <v>15.85294117647059</v>
       </c>
       <c r="AF27" s="13">
-        <v>12.46875</v>
+        <v>12.48235294117647</v>
       </c>
       <c r="AG27" s="13">
-        <v>12.33125000000001</v>
+        <v>12.32941176470589</v>
       </c>
       <c r="AH27" s="13">
-        <v>13.04375</v>
+        <v>13.04117647058824</v>
       </c>
       <c r="AI27" s="13">
-        <v>8.356249999999999</v>
+        <v>8.358823529411765</v>
       </c>
       <c r="AJ27" s="13">
-        <v>11.4875</v>
+        <v>11.50588235294118</v>
       </c>
       <c r="AK27" s="13">
-        <v>9.125</v>
+        <v>9.123529411764705</v>
       </c>
       <c r="AL27" s="13">
-        <v>7.549999999999999</v>
+        <v>7.558823529411763</v>
       </c>
       <c r="AM27" s="13">
-        <v>6.737500000000002</v>
+        <v>6.747058823529414</v>
       </c>
       <c r="AN27" s="13">
-        <v>9.468749999999998</v>
+        <v>9.470588235294116</v>
       </c>
       <c r="AO27" s="13">
-        <v>8.256250000000001</v>
+        <v>8.247058823529413</v>
       </c>
       <c r="AP27" s="13">
-        <v>6.28125</v>
+        <v>6.28235294117647</v>
       </c>
       <c r="AQ27" s="13">
-        <v>6.012499999999998</v>
+        <v>6.017647058823528</v>
       </c>
     </row>
     <row r="28" spans="1:43">
       <c r="B28" s="13">
-        <v>0.8617752129705961</v>
+        <v>0.8528014734393174</v>
       </c>
       <c r="C28" s="13">
-        <v>1.259491466388018</v>
+        <v>1.26736965076242</v>
       </c>
       <c r="D28" s="13">
-        <v>1.34812988080559</v>
+        <v>1.356382978723405</v>
       </c>
       <c r="E28" s="13">
-        <v>1.45538284398388</v>
+        <v>1.468973649967469</v>
       </c>
       <c r="F28" s="13">
-        <v>1.515677118078719</v>
+        <v>1.53787284144427</v>
       </c>
       <c r="G28" s="13">
-        <v>1.363845501876741</v>
+        <v>1.394871794871795</v>
       </c>
       <c r="H28" s="13">
-        <v>0.4322377307519136</v>
+        <v>0.3866906474820145</v>
       </c>
       <c r="I28" s="13">
-        <v>1.055730809674027</v>
+        <v>1.084183673469388</v>
       </c>
       <c r="J28" s="13">
-        <v>1.165580618212197</v>
+        <v>1.071512723845429</v>
       </c>
       <c r="K28" s="13">
-        <v>1.254265923297854</v>
+        <v>1.206464694656488</v>
       </c>
       <c r="L28" s="13">
-        <v>0.7564286855134961</v>
+        <v>0.7907645466847089</v>
       </c>
       <c r="M28" s="13">
-        <v>0.3669907753677388</v>
+        <v>0.3813335679099226</v>
       </c>
       <c r="N28" s="13">
-        <v>1.056220529561117</v>
+        <v>0.950600715746421</v>
       </c>
       <c r="O28" s="13">
-        <v>1.285844748858447</v>
+        <v>1.144019987105094</v>
       </c>
       <c r="P28" s="13">
-        <v>1.15673289183223</v>
+        <v>1.232003891050584</v>
       </c>
       <c r="Q28" s="13">
-        <v>0.7421150278293134</v>
+        <v>0.7318003487358324</v>
       </c>
       <c r="R28" s="13">
-        <v>1.161716171617162</v>
+        <v>1.108695652173913</v>
       </c>
       <c r="S28" s="13">
-        <v>0.5410042896795356</v>
+        <v>0.6214336661911555</v>
       </c>
       <c r="T28" s="13">
-        <v>1.040132669983416</v>
+        <v>1.124180711610487</v>
       </c>
       <c r="U28" s="13">
-        <v>1.153153153153154</v>
+        <v>1.184017595307918</v>
       </c>
       <c r="X28" s="13">
-        <v>0.8617752129705961</v>
+        <v>0.8528014734393174</v>
       </c>
       <c r="Y28" s="13">
-        <v>1.259491466388018</v>
+        <v>1.26736965076242</v>
       </c>
       <c r="Z28" s="13">
-        <v>1.34812988080559</v>
+        <v>1.356382978723405</v>
       </c>
       <c r="AA28" s="13">
-        <v>1.45538284398388</v>
+        <v>1.468973649967469</v>
       </c>
       <c r="AB28" s="13">
-        <v>1.515677118078719</v>
+        <v>1.53787284144427</v>
       </c>
       <c r="AC28" s="13">
-        <v>1.363845501876741</v>
+        <v>1.394871794871795</v>
       </c>
       <c r="AD28" s="13">
-        <v>0.4322377307519136</v>
+        <v>0.3866906474820145</v>
       </c>
       <c r="AE28" s="13">
-        <v>1.055730809674027</v>
+        <v>1.084183673469388</v>
       </c>
       <c r="AF28" s="13">
-        <v>1.165580618212197</v>
+        <v>1.071512723845429</v>
       </c>
       <c r="AG28" s="13">
-        <v>1.254265923297854</v>
+        <v>1.206464694656488</v>
       </c>
       <c r="AH28" s="13">
-        <v>0.7564286855134961</v>
+        <v>0.7907645466847089</v>
       </c>
       <c r="AI28" s="13">
-        <v>0.3669907753677388</v>
+        <v>0.3813335679099226</v>
       </c>
       <c r="AJ28" s="13">
-        <v>1.056220529561117</v>
+        <v>0.950600715746421</v>
       </c>
       <c r="AK28" s="13">
-        <v>1.285844748858447</v>
+        <v>1.144019987105094</v>
       </c>
       <c r="AL28" s="13">
-        <v>1.15673289183223</v>
+        <v>1.232003891050584</v>
       </c>
       <c r="AM28" s="13">
-        <v>0.7421150278293134</v>
+        <v>0.7318003487358324</v>
       </c>
       <c r="AN28" s="13">
-        <v>1.161716171617162</v>
+        <v>1.108695652173913</v>
       </c>
       <c r="AO28" s="13">
-        <v>0.5410042896795356</v>
+        <v>0.6214336661911555</v>
       </c>
       <c r="AP28" s="13">
-        <v>1.040132669983416</v>
+        <v>1.124180711610487</v>
       </c>
       <c r="AQ28" s="13">
-        <v>1.153153153153154</v>
+        <v>1.184017595307918</v>
       </c>
     </row>
     <row r="29" spans="1:43">
       <c r="B29" s="13">
-        <v>47.29744639919552</v>
+        <v>43.18359375</v>
       </c>
       <c r="C29" s="13">
-        <v>26.2972700330931</v>
+        <v>23.9912109375</v>
       </c>
       <c r="D29" s="13">
-        <v>84.75808887433475</v>
+        <v>77.171875</v>
       </c>
       <c r="E29" s="13">
-        <v>65.70874856409976</v>
+        <v>59.8427734375</v>
       </c>
       <c r="F29" s="13">
-        <v>77.69376725085245</v>
+        <v>71.1630859375</v>
       </c>
       <c r="G29" s="13">
-        <v>57.76310806361381</v>
+        <v>53.5</v>
       </c>
       <c r="H29" s="13">
-        <v>15.21652123576603</v>
+        <v>15.27734375</v>
       </c>
       <c r="I29" s="13">
-        <v>35.02783515841043</v>
+        <v>32.5693359375</v>
       </c>
       <c r="J29" s="13">
-        <v>37.24490295837271</v>
+        <v>38.83984375</v>
       </c>
       <c r="K29" s="13">
-        <v>25.29890099273739</v>
+        <v>24.27734375</v>
       </c>
       <c r="L29" s="13">
-        <v>17.96605252391802</v>
+        <v>17.0537109375</v>
       </c>
       <c r="M29" s="13">
-        <v>32.3769932236729</v>
+        <v>29.4443359375</v>
       </c>
       <c r="N29" s="13">
-        <v>20.6513209772885</v>
+        <v>24.1083984375</v>
       </c>
       <c r="O29" s="13">
-        <v>1.909524233507899</v>
+        <v>8.0302734375</v>
       </c>
       <c r="P29" s="13">
-        <v>15.19816042582845</v>
+        <v>15.0537109375</v>
       </c>
       <c r="Q29" s="13">
-        <v>14.08044612087852</v>
+        <v>12.7958984375</v>
       </c>
       <c r="R29" s="13">
-        <v>46.92334489671742</v>
+        <v>43.53125</v>
       </c>
       <c r="S29" s="13">
-        <v>13.93814984386231</v>
+        <v>14.27734375</v>
       </c>
       <c r="T29" s="13">
-        <v>20.20377623506009</v>
+        <v>19.3896484375</v>
       </c>
       <c r="U29" s="13">
-        <v>24.56217349399216</v>
+        <v>22.43359375</v>
       </c>
       <c r="X29" s="13">
-        <v>0.02640624999992269</v>
+        <v>0.02512635506430294</v>
       </c>
       <c r="Y29" s="13">
-        <v>0.008593750000017053</v>
+        <v>0.008056546714034787</v>
       </c>
       <c r="Z29" s="13">
-        <v>0.001523437500082991</v>
+        <v>0.001393111202696073</v>
       </c>
       <c r="AA29" s="13">
-        <v>0.02389648437498693</v>
+        <v>0.02232334818671971</v>
       </c>
       <c r="AB29" s="13">
-        <v>0.02214843749999318</v>
+        <v>0.02024207361895037</v>
       </c>
       <c r="AC29" s="13">
-        <v>0.002021484375021032</v>
+        <v>0.001846291955315723</v>
       </c>
       <c r="AD29" s="13">
-        <v>0.03131835937501393</v>
+        <v>0.0299602830927376</v>
       </c>
       <c r="AE29" s="13">
-        <v>0.006249999999980105</v>
+        <v>0.005740289533722213</v>
       </c>
       <c r="AF29" s="13">
-        <v>0.005537109375012506</v>
+        <v>0.00577385847838011</v>
       </c>
       <c r="AG29" s="13">
-        <v>0.005537109374962768</v>
+        <v>0.005068910640860706</v>
       </c>
       <c r="AH29" s="13">
-        <v>0.00999023437498181</v>
+        <v>0.00914753741483737</v>
       </c>
       <c r="AI29" s="13">
-        <v>0.001552734375000142</v>
+        <v>0.001443464619589857</v>
       </c>
       <c r="AJ29" s="13">
-        <v>0.004335937499988063</v>
+        <v>0.005270324308725362</v>
       </c>
       <c r="AK29" s="13">
-        <v>0.008281249999996021</v>
+        <v>0.007569797016702095</v>
       </c>
       <c r="AL29" s="13">
-        <v>0.01343750000000199</v>
+        <v>0.01257156976832456</v>
       </c>
       <c r="AM29" s="13">
-        <v>0.004648437499994884</v>
+        <v>0.004598945415908661</v>
       </c>
       <c r="AN29" s="13">
-        <v>0.01022460937500824</v>
+        <v>0.009348951082722707</v>
       </c>
       <c r="AO29" s="13">
-        <v>0.005615234374989342</v>
+        <v>0.005454953504267964</v>
       </c>
       <c r="AP29" s="13">
-        <v>0.002568359375000995</v>
+        <v>0.002349826124920494</v>
       </c>
       <c r="AQ29" s="13">
-        <v>0.009648437500002771</v>
+        <v>0.008912554802376857</v>
       </c>
     </row>
     <row r="30" spans="1:43">
@@ -3619,7 +3739,7 @@
         <v>-7</v>
       </c>
       <c r="O31" s="13">
-        <v>8</v>
+        <v>-9</v>
       </c>
       <c r="P31" s="13">
         <v>-9</v>
@@ -3741,7 +3861,7 @@
         <v>32</v>
       </c>
       <c r="O32" s="13">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="P32" s="13">
         <v>28</v>
@@ -4927,6 +5047,36 @@
       <c r="A17" s="12" t="s">
         <v>15</v>
       </c>
+      <c r="B17" s="13">
+        <v>810</v>
+      </c>
+      <c r="C17" s="13">
+        <v>976</v>
+      </c>
+      <c r="D17" s="13">
+        <v>749</v>
+      </c>
+      <c r="E17" s="13">
+        <v>272</v>
+      </c>
+      <c r="F17" s="13">
+        <v>343</v>
+      </c>
+      <c r="G17" s="13">
+        <v>132</v>
+      </c>
+      <c r="H17" s="13">
+        <v>261</v>
+      </c>
+      <c r="I17" s="13">
+        <v>144</v>
+      </c>
+      <c r="J17" s="13">
+        <v>159</v>
+      </c>
+      <c r="K17" s="13">
+        <v>146</v>
+      </c>
       <c r="M17" s="12" t="s">
         <v>15</v>
       </c>
@@ -4968,6 +5118,36 @@
       <c r="M18" s="12" t="s">
         <v>16</v>
       </c>
+      <c r="N18" s="13">
+        <v>34.2</v>
+      </c>
+      <c r="O18" s="13">
+        <v>32.7</v>
+      </c>
+      <c r="P18" s="13">
+        <v>25.8</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>17.7</v>
+      </c>
+      <c r="R18" s="13">
+        <v>14.1</v>
+      </c>
+      <c r="S18" s="13">
+        <v>10.2</v>
+      </c>
+      <c r="T18" s="13">
+        <v>11.8</v>
+      </c>
+      <c r="U18" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="V18" s="13">
+        <v>8.6</v>
+      </c>
+      <c r="W18" s="13">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="12" t="s">
@@ -5011,312 +5191,312 @@
     </row>
     <row r="25" spans="1:23">
       <c r="B25" s="13">
-        <v>760</v>
+        <v>810</v>
       </c>
       <c r="C25" s="13">
-        <v>911</v>
+        <v>976</v>
       </c>
       <c r="D25" s="13">
-        <v>697</v>
+        <v>749</v>
       </c>
       <c r="E25" s="13">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="F25" s="13">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G25" s="13">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="H25" s="13">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="I25" s="13">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="J25" s="13">
+        <v>159</v>
+      </c>
+      <c r="K25" s="13">
         <v>146</v>
       </c>
-      <c r="K25" s="13">
-        <v>126</v>
-      </c>
       <c r="N25" s="13">
-        <v>542.5999999999999</v>
+        <v>576.8</v>
       </c>
       <c r="O25" s="13">
-        <v>520.0000000000001</v>
+        <v>552.7000000000002</v>
       </c>
       <c r="P25" s="13">
-        <v>411.2</v>
+        <v>437.0000000000001</v>
       </c>
       <c r="Q25" s="13">
-        <v>282.7</v>
+        <v>300.4</v>
       </c>
       <c r="R25" s="13">
-        <v>223.8</v>
+        <v>237.9</v>
       </c>
       <c r="S25" s="13">
-        <v>162.8</v>
+        <v>172.9999999999999</v>
       </c>
       <c r="T25" s="13">
-        <v>178.8</v>
+        <v>190.6</v>
       </c>
       <c r="U25" s="13">
-        <v>106.7</v>
+        <v>112.9</v>
       </c>
       <c r="V25" s="13">
-        <v>135.6</v>
+        <v>144.2</v>
       </c>
       <c r="W25" s="13">
-        <v>101.9</v>
+        <v>108.3</v>
       </c>
     </row>
     <row r="26" spans="1:23">
       <c r="B26" s="13">
-        <v>1.400663472171029</v>
+        <v>1.404299583911234</v>
       </c>
       <c r="C26" s="13">
-        <v>1.751923076923076</v>
+        <v>1.765876605753573</v>
       </c>
       <c r="D26" s="13">
-        <v>1.695038910505836</v>
+        <v>1.71395881006865</v>
       </c>
       <c r="E26" s="13">
-        <v>0.9267775026529891</v>
+        <v>0.9054593874833556</v>
       </c>
       <c r="F26" s="13">
-        <v>1.546023235031278</v>
+        <v>1.441782261454392</v>
       </c>
       <c r="G26" s="13">
-        <v>0.7063882063882065</v>
+        <v>0.7630057803468211</v>
       </c>
       <c r="H26" s="13">
-        <v>1.560402684563758</v>
+        <v>1.369359916054564</v>
       </c>
       <c r="I26" s="13">
-        <v>1.190253045923149</v>
+        <v>1.275465013286094</v>
       </c>
       <c r="J26" s="13">
-        <v>1.07669616519174</v>
+        <v>1.102635228848821</v>
       </c>
       <c r="K26" s="13">
-        <v>1.236506378802748</v>
+        <v>1.348107109879963</v>
       </c>
       <c r="N26" s="13">
-        <v>1.400663472171029</v>
+        <v>1.404299583911234</v>
       </c>
       <c r="O26" s="13">
-        <v>1.751923076923076</v>
+        <v>1.765876605753573</v>
       </c>
       <c r="P26" s="13">
-        <v>1.695038910505836</v>
+        <v>1.71395881006865</v>
       </c>
       <c r="Q26" s="13">
-        <v>0.9267775026529891</v>
+        <v>0.9054593874833556</v>
       </c>
       <c r="R26" s="13">
-        <v>1.546023235031278</v>
+        <v>1.441782261454392</v>
       </c>
       <c r="S26" s="13">
-        <v>0.7063882063882065</v>
+        <v>0.7630057803468211</v>
       </c>
       <c r="T26" s="13">
-        <v>1.560402684563758</v>
+        <v>1.369359916054564</v>
       </c>
       <c r="U26" s="13">
-        <v>1.190253045923149</v>
+        <v>1.275465013286094</v>
       </c>
       <c r="V26" s="13">
-        <v>1.07669616519174</v>
+        <v>1.102635228848821</v>
       </c>
       <c r="W26" s="13">
-        <v>1.236506378802748</v>
+        <v>1.348107109879963</v>
       </c>
     </row>
     <row r="27" spans="1:23">
       <c r="B27" s="13">
-        <v>50.66666666666666</v>
+        <v>50.625</v>
       </c>
       <c r="C27" s="13">
-        <v>60.73333333333333</v>
+        <v>61</v>
       </c>
       <c r="D27" s="13">
-        <v>46.46666666666667</v>
+        <v>46.8125</v>
       </c>
       <c r="E27" s="13">
-        <v>17.46666666666667</v>
+        <v>17</v>
       </c>
       <c r="F27" s="13">
-        <v>23.06666666666667</v>
+        <v>21.4375</v>
       </c>
       <c r="G27" s="13">
-        <v>7.666666666666667</v>
+        <v>8.25</v>
       </c>
       <c r="H27" s="13">
-        <v>18.6</v>
+        <v>16.3125</v>
       </c>
       <c r="I27" s="13">
-        <v>8.466666666666667</v>
+        <v>9</v>
       </c>
       <c r="J27" s="13">
-        <v>9.733333333333333</v>
+        <v>9.9375</v>
       </c>
       <c r="K27" s="13">
-        <v>8.4</v>
+        <v>9.125</v>
       </c>
       <c r="N27" s="13">
-        <v>33.91249999999999</v>
+        <v>33.92941176470588</v>
       </c>
       <c r="O27" s="13">
-        <v>32.50000000000001</v>
+        <v>32.51176470588236</v>
       </c>
       <c r="P27" s="13">
-        <v>25.7</v>
+        <v>25.70588235294118</v>
       </c>
       <c r="Q27" s="13">
-        <v>17.66875</v>
+        <v>17.67058823529412</v>
       </c>
       <c r="R27" s="13">
-        <v>13.9875</v>
+        <v>13.99411764705882</v>
       </c>
       <c r="S27" s="13">
-        <v>10.175</v>
+        <v>10.17647058823529</v>
       </c>
       <c r="T27" s="13">
-        <v>11.175</v>
+        <v>11.21176470588235</v>
       </c>
       <c r="U27" s="13">
-        <v>6.66875</v>
+        <v>6.641176470588236</v>
       </c>
       <c r="V27" s="13">
-        <v>8.475</v>
+        <v>8.482352941176471</v>
       </c>
       <c r="W27" s="13">
-        <v>6.36875</v>
+        <v>6.370588235294118</v>
       </c>
     </row>
     <row r="28" spans="1:23">
       <c r="B28" s="13">
-        <v>1.49404103698243</v>
+        <v>1.492068307905686</v>
       </c>
       <c r="C28" s="13">
-        <v>1.868717948717948</v>
+        <v>1.876243893613171</v>
       </c>
       <c r="D28" s="13">
-        <v>1.808041504539559</v>
+        <v>1.82108123569794</v>
       </c>
       <c r="E28" s="13">
-        <v>0.9885626694965216</v>
+        <v>0.9620505992010654</v>
       </c>
       <c r="F28" s="13">
-        <v>1.64909145070003</v>
+        <v>1.531893652795292</v>
       </c>
       <c r="G28" s="13">
-        <v>0.7534807534807537</v>
+        <v>0.8106936416184974</v>
       </c>
       <c r="H28" s="13">
-        <v>1.664429530201342</v>
+        <v>1.454944910807975</v>
       </c>
       <c r="I28" s="13">
-        <v>1.269603248984692</v>
+        <v>1.355181576616475</v>
       </c>
       <c r="J28" s="13">
-        <v>1.148475909537856</v>
+        <v>1.171549930651872</v>
       </c>
       <c r="K28" s="13">
-        <v>1.318940137389598</v>
+        <v>1.432363804247461</v>
       </c>
       <c r="N28" s="13">
-        <v>1.49404103698243</v>
+        <v>1.492068307905686</v>
       </c>
       <c r="O28" s="13">
-        <v>1.868717948717948</v>
+        <v>1.876243893613171</v>
       </c>
       <c r="P28" s="13">
-        <v>1.808041504539559</v>
+        <v>1.82108123569794</v>
       </c>
       <c r="Q28" s="13">
-        <v>0.9885626694965216</v>
+        <v>0.9620505992010654</v>
       </c>
       <c r="R28" s="13">
-        <v>1.64909145070003</v>
+        <v>1.531893652795292</v>
       </c>
       <c r="S28" s="13">
-        <v>0.7534807534807537</v>
+        <v>0.8106936416184974</v>
       </c>
       <c r="T28" s="13">
-        <v>1.664429530201342</v>
+        <v>1.454944910807975</v>
       </c>
       <c r="U28" s="13">
-        <v>1.269603248984692</v>
+        <v>1.355181576616475</v>
       </c>
       <c r="V28" s="13">
-        <v>1.148475909537856</v>
+        <v>1.171549930651872</v>
       </c>
       <c r="W28" s="13">
-        <v>1.318940137389598</v>
+        <v>1.432363804247461</v>
       </c>
     </row>
     <row r="29" spans="1:23">
       <c r="B29" s="13">
-        <v>58.16934098348274</v>
+        <v>52.80859375</v>
       </c>
       <c r="C29" s="13">
-        <v>149.2550239825545</v>
+        <v>135.75</v>
       </c>
       <c r="D29" s="13">
-        <v>79.41738828374227</v>
+        <v>72.5380859375</v>
       </c>
       <c r="E29" s="13">
-        <v>46.16137128430803</v>
+        <v>42.71875</v>
       </c>
       <c r="F29" s="13">
-        <v>23.25396578593988</v>
+        <v>31.0615234375</v>
       </c>
       <c r="G29" s="13">
-        <v>32.31502549013359</v>
+        <v>30.609375</v>
       </c>
       <c r="H29" s="13">
-        <v>21.57854187913608</v>
+        <v>39.2099609375</v>
       </c>
       <c r="I29" s="13">
-        <v>21.33985134994759</v>
+        <v>20.4375</v>
       </c>
       <c r="J29" s="13">
-        <v>57.47392530709697</v>
+        <v>52.3271484375</v>
       </c>
       <c r="K29" s="13">
-        <v>46.64104744392718</v>
+        <v>44.30859375</v>
       </c>
       <c r="N29" s="13">
-        <v>0.01777343750012506</v>
+        <v>0.0173383599074486</v>
       </c>
       <c r="O29" s="13">
-        <v>0.01281249999988177</v>
+        <v>0.01223588032170941</v>
       </c>
       <c r="P29" s="13">
-        <v>0.01187499999994657</v>
+        <v>0.01097704489775521</v>
       </c>
       <c r="Q29" s="13">
-        <v>0.01678710937501648</v>
+        <v>0.01534100770129642</v>
       </c>
       <c r="R29" s="13">
-        <v>0.00121093749999801</v>
+        <v>0.001275619896386544</v>
       </c>
       <c r="S29" s="13">
-        <v>0.004843750000009805</v>
+        <v>0.00443110069272258</v>
       </c>
       <c r="T29" s="13">
-        <v>0.02046874999999915</v>
+        <v>0.02393465752953701</v>
       </c>
       <c r="U29" s="13">
-        <v>0.0324121093750005</v>
+        <v>0.03254509183013583</v>
       </c>
       <c r="V29" s="13">
-        <v>0.007968750000003411</v>
+        <v>0.007485874655102162</v>
       </c>
       <c r="W29" s="13">
-        <v>0.007412109375001918</v>
+        <v>0.006780926817625842</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -5395,13 +5575,13 @@
         <v>-4</v>
       </c>
       <c r="F31" s="13">
-        <v>8</v>
+        <v>-3</v>
       </c>
       <c r="G31" s="13">
         <v>-7</v>
       </c>
       <c r="H31" s="13">
-        <v>-3</v>
+        <v>-18</v>
       </c>
       <c r="I31" s="13">
         <v>-8</v>
@@ -5457,13 +5637,13 @@
         <v>45</v>
       </c>
       <c r="F32" s="13">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G32" s="13">
         <v>43</v>
       </c>
       <c r="H32" s="13">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I32" s="13">
         <v>34</v>

--- a/2022/Fantasy F1 2022.xlsx
+++ b/2022/Fantasy F1 2022.xlsx
@@ -2862,6 +2862,66 @@
       <c r="A18" s="12" t="s">
         <v>16</v>
       </c>
+      <c r="B18" s="13">
+        <v>423</v>
+      </c>
+      <c r="C18" s="13">
+        <v>487</v>
+      </c>
+      <c r="D18" s="13">
+        <v>675</v>
+      </c>
+      <c r="E18" s="13">
+        <v>470</v>
+      </c>
+      <c r="F18" s="13">
+        <v>506</v>
+      </c>
+      <c r="G18" s="13">
+        <v>412</v>
+      </c>
+      <c r="H18" s="13">
+        <v>108</v>
+      </c>
+      <c r="I18" s="13">
+        <v>305</v>
+      </c>
+      <c r="J18" s="13">
+        <v>215</v>
+      </c>
+      <c r="K18" s="13">
+        <v>229</v>
+      </c>
+      <c r="L18" s="13">
+        <v>173</v>
+      </c>
+      <c r="M18" s="13">
+        <v>45</v>
+      </c>
+      <c r="N18" s="13">
+        <v>192</v>
+      </c>
+      <c r="O18" s="13">
+        <v>193</v>
+      </c>
+      <c r="P18" s="13">
+        <v>142</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>70</v>
+      </c>
+      <c r="R18" s="13">
+        <v>183</v>
+      </c>
+      <c r="S18" s="13">
+        <v>76</v>
+      </c>
+      <c r="T18" s="13">
+        <v>116</v>
+      </c>
+      <c r="U18" s="13">
+        <v>119</v>
+      </c>
       <c r="W18" s="12" t="s">
         <v>16</v>
       </c>
@@ -2933,6 +2993,66 @@
       <c r="W19" s="12" t="s">
         <v>17</v>
       </c>
+      <c r="X19" s="13">
+        <v>25.9</v>
+      </c>
+      <c r="Y19" s="13">
+        <v>24.3</v>
+      </c>
+      <c r="Z19" s="13">
+        <v>31.7</v>
+      </c>
+      <c r="AA19" s="13">
+        <v>19.3</v>
+      </c>
+      <c r="AB19" s="13">
+        <v>20.5</v>
+      </c>
+      <c r="AC19" s="13">
+        <v>18.1</v>
+      </c>
+      <c r="AD19" s="13">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE19" s="13">
+        <v>15.4</v>
+      </c>
+      <c r="AF19" s="13">
+        <v>12.2</v>
+      </c>
+      <c r="AG19" s="13">
+        <v>12.3</v>
+      </c>
+      <c r="AH19" s="13">
+        <v>11.5</v>
+      </c>
+      <c r="AI19" s="13">
+        <v>5.9</v>
+      </c>
+      <c r="AJ19" s="13">
+        <v>10.9</v>
+      </c>
+      <c r="AK19" s="13">
+        <v>9</v>
+      </c>
+      <c r="AL19" s="13">
+        <v>7.7</v>
+      </c>
+      <c r="AM19" s="13">
+        <v>6</v>
+      </c>
+      <c r="AN19" s="13">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AO19" s="13">
+        <v>6.8</v>
+      </c>
+      <c r="AP19" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="AQ19" s="13">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="20" spans="1:43">
       <c r="A20" s="12" t="s">
@@ -2968,612 +3088,612 @@
     </row>
     <row r="25" spans="1:43">
       <c r="B25" s="13">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="C25" s="13">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D25" s="13">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="E25" s="13">
-        <v>425</v>
+        <v>470</v>
       </c>
       <c r="F25" s="13">
-        <v>461</v>
+        <v>506</v>
       </c>
       <c r="G25" s="13">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="H25" s="13">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="I25" s="13">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="J25" s="13">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K25" s="13">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="L25" s="13">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="M25" s="13">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N25" s="13">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="O25" s="13">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="P25" s="13">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="Q25" s="13">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="R25" s="13">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="S25" s="13">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="T25" s="13">
+        <v>116</v>
+      </c>
+      <c r="U25" s="13">
+        <v>119</v>
+      </c>
+      <c r="X25" s="13">
+        <v>541.7</v>
+      </c>
+      <c r="Y25" s="13">
+        <v>430.9</v>
+      </c>
+      <c r="Z25" s="13">
+        <v>548.6999999999999</v>
+      </c>
+      <c r="AA25" s="13">
+        <v>326.7</v>
+      </c>
+      <c r="AB25" s="13">
+        <v>339</v>
+      </c>
+      <c r="AC25" s="13">
+        <v>310.6</v>
+      </c>
+      <c r="AD25" s="13">
+        <v>245.4999999999999</v>
+      </c>
+      <c r="AE25" s="13">
+        <v>284.9</v>
+      </c>
+      <c r="AF25" s="13">
+        <v>224.3999999999999</v>
+      </c>
+      <c r="AG25" s="13">
+        <v>221.9000000000001</v>
+      </c>
+      <c r="AH25" s="13">
+        <v>233.2</v>
+      </c>
+      <c r="AI25" s="13">
+        <v>148</v>
+      </c>
+      <c r="AJ25" s="13">
+        <v>206.5000000000001</v>
+      </c>
+      <c r="AK25" s="13">
+        <v>164.1</v>
+      </c>
+      <c r="AL25" s="13">
+        <v>136.2</v>
+      </c>
+      <c r="AM25" s="13">
+        <v>120.7</v>
+      </c>
+      <c r="AN25" s="13">
+        <v>170.3</v>
+      </c>
+      <c r="AO25" s="13">
+        <v>147</v>
+      </c>
+      <c r="AP25" s="13">
         <v>113</v>
       </c>
-      <c r="U25" s="13">
-        <v>114</v>
-      </c>
-      <c r="X25" s="13">
-        <v>515.8000000000001</v>
-      </c>
-      <c r="Y25" s="13">
-        <v>406.6</v>
-      </c>
-      <c r="Z25" s="13">
-        <v>516.9999999999999</v>
-      </c>
-      <c r="AA25" s="13">
-        <v>307.4</v>
-      </c>
-      <c r="AB25" s="13">
-        <v>318.5</v>
-      </c>
-      <c r="AC25" s="13">
-        <v>292.4999999999999</v>
-      </c>
-      <c r="AD25" s="13">
-        <v>236.3</v>
-      </c>
-      <c r="AE25" s="13">
-        <v>269.5</v>
-      </c>
-      <c r="AF25" s="13">
-        <v>212.2</v>
-      </c>
-      <c r="AG25" s="13">
-        <v>209.6000000000001</v>
-      </c>
-      <c r="AH25" s="13">
-        <v>221.7</v>
-      </c>
-      <c r="AI25" s="13">
-        <v>142.1</v>
-      </c>
-      <c r="AJ25" s="13">
-        <v>195.6000000000001</v>
-      </c>
-      <c r="AK25" s="13">
-        <v>155.1</v>
-      </c>
-      <c r="AL25" s="13">
-        <v>128.5</v>
-      </c>
-      <c r="AM25" s="13">
-        <v>114.7</v>
-      </c>
-      <c r="AN25" s="13">
-        <v>161</v>
-      </c>
-      <c r="AO25" s="13">
-        <v>140.2</v>
-      </c>
-      <c r="AP25" s="13">
-        <v>106.8</v>
-      </c>
       <c r="AQ25" s="13">
-        <v>102.3</v>
+        <v>108.4</v>
       </c>
     </row>
     <row r="26" spans="1:43">
       <c r="B26" s="13">
-        <v>0.8026366808840635</v>
+        <v>0.7808750230755029</v>
       </c>
       <c r="C26" s="13">
-        <v>1.192818494835219</v>
+        <v>1.130192620097471</v>
       </c>
       <c r="D26" s="13">
-        <v>1.276595744680851</v>
+        <v>1.230180426462548</v>
       </c>
       <c r="E26" s="13">
-        <v>1.3825634352635</v>
+        <v>1.438628711355984</v>
       </c>
       <c r="F26" s="13">
-        <v>1.447409733124019</v>
+        <v>1.492625368731563</v>
       </c>
       <c r="G26" s="13">
-        <v>1.312820512820513</v>
+        <v>1.326464906632325</v>
       </c>
       <c r="H26" s="13">
-        <v>0.3639441388066019</v>
+        <v>0.4399185336048881</v>
       </c>
       <c r="I26" s="13">
-        <v>1.020408163265306</v>
+        <v>1.070551070551071</v>
       </c>
       <c r="J26" s="13">
-        <v>1.008482563619227</v>
+        <v>0.9581105169340466</v>
       </c>
       <c r="K26" s="13">
-        <v>1.135496183206106</v>
+        <v>1.03199639477242</v>
       </c>
       <c r="L26" s="13">
-        <v>0.7442489851150201</v>
+        <v>0.7418524871355059</v>
       </c>
       <c r="M26" s="13">
-        <v>0.3589021815622801</v>
+        <v>0.3040540540540541</v>
       </c>
       <c r="N26" s="13">
-        <v>0.8946830265848669</v>
+        <v>0.9297820823244549</v>
       </c>
       <c r="O26" s="13">
-        <v>1.07672469374597</v>
+        <v>1.176112126751981</v>
       </c>
       <c r="P26" s="13">
-        <v>1.159533073929961</v>
+        <v>1.04258443465492</v>
       </c>
       <c r="Q26" s="13">
-        <v>0.6887532693984305</v>
+        <v>0.5799502899751449</v>
       </c>
       <c r="R26" s="13">
-        <v>1.043478260869565</v>
+        <v>1.074574280681151</v>
       </c>
       <c r="S26" s="13">
-        <v>0.5848787446504992</v>
+        <v>0.5170068027210883</v>
       </c>
       <c r="T26" s="13">
-        <v>1.058052434456929</v>
+        <v>1.026548672566372</v>
       </c>
       <c r="U26" s="13">
-        <v>1.114369501466276</v>
+        <v>1.097785977859779</v>
       </c>
       <c r="X26" s="13">
-        <v>0.8026366808840635</v>
+        <v>0.7808750230755029</v>
       </c>
       <c r="Y26" s="13">
-        <v>1.192818494835219</v>
+        <v>1.130192620097471</v>
       </c>
       <c r="Z26" s="13">
-        <v>1.276595744680851</v>
+        <v>1.230180426462548</v>
       </c>
       <c r="AA26" s="13">
-        <v>1.3825634352635</v>
+        <v>1.438628711355984</v>
       </c>
       <c r="AB26" s="13">
-        <v>1.447409733124019</v>
+        <v>1.492625368731563</v>
       </c>
       <c r="AC26" s="13">
-        <v>1.312820512820513</v>
+        <v>1.326464906632325</v>
       </c>
       <c r="AD26" s="13">
-        <v>0.3639441388066019</v>
+        <v>0.4399185336048881</v>
       </c>
       <c r="AE26" s="13">
-        <v>1.020408163265306</v>
+        <v>1.070551070551071</v>
       </c>
       <c r="AF26" s="13">
-        <v>1.008482563619227</v>
+        <v>0.9581105169340466</v>
       </c>
       <c r="AG26" s="13">
-        <v>1.135496183206106</v>
+        <v>1.03199639477242</v>
       </c>
       <c r="AH26" s="13">
-        <v>0.7442489851150201</v>
+        <v>0.7418524871355059</v>
       </c>
       <c r="AI26" s="13">
-        <v>0.3589021815622801</v>
+        <v>0.3040540540540541</v>
       </c>
       <c r="AJ26" s="13">
-        <v>0.8946830265848669</v>
+        <v>0.9297820823244549</v>
       </c>
       <c r="AK26" s="13">
-        <v>1.07672469374597</v>
+        <v>1.176112126751981</v>
       </c>
       <c r="AL26" s="13">
-        <v>1.159533073929961</v>
+        <v>1.04258443465492</v>
       </c>
       <c r="AM26" s="13">
-        <v>0.6887532693984305</v>
+        <v>0.5799502899751449</v>
       </c>
       <c r="AN26" s="13">
-        <v>1.043478260869565</v>
+        <v>1.074574280681151</v>
       </c>
       <c r="AO26" s="13">
-        <v>0.5848787446504992</v>
+        <v>0.5170068027210883</v>
       </c>
       <c r="AP26" s="13">
-        <v>1.058052434456929</v>
+        <v>1.026548672566372</v>
       </c>
       <c r="AQ26" s="13">
-        <v>1.114369501466276</v>
+        <v>1.097785977859779</v>
       </c>
     </row>
     <row r="27" spans="1:43">
       <c r="B27" s="13">
-        <v>25.875</v>
+        <v>24.88235294117647</v>
       </c>
       <c r="C27" s="13">
-        <v>30.3125</v>
+        <v>28.64705882352941</v>
       </c>
       <c r="D27" s="13">
-        <v>41.25</v>
+        <v>39.70588235294117</v>
       </c>
       <c r="E27" s="13">
-        <v>26.5625</v>
+        <v>27.64705882352941</v>
       </c>
       <c r="F27" s="13">
-        <v>28.8125</v>
+        <v>29.76470588235294</v>
       </c>
       <c r="G27" s="13">
-        <v>24</v>
+        <v>24.23529411764706</v>
       </c>
       <c r="H27" s="13">
-        <v>5.375</v>
+        <v>6.352941176470588</v>
       </c>
       <c r="I27" s="13">
-        <v>17.1875</v>
+        <v>17.94117647058824</v>
       </c>
       <c r="J27" s="13">
-        <v>13.375</v>
+        <v>12.64705882352941</v>
       </c>
       <c r="K27" s="13">
-        <v>14.875</v>
+        <v>13.47058823529412</v>
       </c>
       <c r="L27" s="13">
-        <v>10.3125</v>
+        <v>10.17647058823529</v>
       </c>
       <c r="M27" s="13">
-        <v>3.1875</v>
+        <v>2.647058823529412</v>
       </c>
       <c r="N27" s="13">
-        <v>10.9375</v>
+        <v>11.29411764705882</v>
       </c>
       <c r="O27" s="13">
-        <v>10.4375</v>
+        <v>11.35294117647059</v>
       </c>
       <c r="P27" s="13">
-        <v>9.3125</v>
+        <v>8.352941176470589</v>
       </c>
       <c r="Q27" s="13">
-        <v>4.9375</v>
+        <v>4.117647058823529</v>
       </c>
       <c r="R27" s="13">
-        <v>10.5</v>
+        <v>10.76470588235294</v>
       </c>
       <c r="S27" s="13">
-        <v>5.125</v>
+        <v>4.470588235294118</v>
       </c>
       <c r="T27" s="13">
-        <v>7.0625</v>
+        <v>6.823529411764706</v>
       </c>
       <c r="U27" s="13">
-        <v>7.125</v>
+        <v>7</v>
       </c>
       <c r="X27" s="13">
-        <v>30.34117647058824</v>
+        <v>30.09444444444445</v>
       </c>
       <c r="Y27" s="13">
-        <v>23.91764705882353</v>
+        <v>23.93888888888889</v>
       </c>
       <c r="Z27" s="13">
-        <v>30.41176470588235</v>
+        <v>30.48333333333333</v>
       </c>
       <c r="AA27" s="13">
-        <v>18.08235294117647</v>
+        <v>18.15</v>
       </c>
       <c r="AB27" s="13">
-        <v>18.73529411764706</v>
+        <v>18.83333333333333</v>
       </c>
       <c r="AC27" s="13">
-        <v>17.20588235294117</v>
+        <v>17.25555555555555</v>
       </c>
       <c r="AD27" s="13">
-        <v>13.9</v>
+        <v>13.63888888888889</v>
       </c>
       <c r="AE27" s="13">
-        <v>15.85294117647059</v>
+        <v>15.82777777777778</v>
       </c>
       <c r="AF27" s="13">
-        <v>12.48235294117647</v>
+        <v>12.46666666666666</v>
       </c>
       <c r="AG27" s="13">
-        <v>12.32941176470589</v>
+        <v>12.32777777777778</v>
       </c>
       <c r="AH27" s="13">
-        <v>13.04117647058824</v>
+        <v>12.95555555555556</v>
       </c>
       <c r="AI27" s="13">
-        <v>8.358823529411765</v>
+        <v>8.222222222222221</v>
       </c>
       <c r="AJ27" s="13">
-        <v>11.50588235294118</v>
+        <v>11.47222222222222</v>
       </c>
       <c r="AK27" s="13">
-        <v>9.123529411764705</v>
+        <v>9.116666666666667</v>
       </c>
       <c r="AL27" s="13">
-        <v>7.558823529411763</v>
+        <v>7.566666666666665</v>
       </c>
       <c r="AM27" s="13">
-        <v>6.747058823529414</v>
+        <v>6.705555555555557</v>
       </c>
       <c r="AN27" s="13">
-        <v>9.470588235294116</v>
+        <v>9.46111111111111</v>
       </c>
       <c r="AO27" s="13">
-        <v>8.247058823529413</v>
+        <v>8.166666666666668</v>
       </c>
       <c r="AP27" s="13">
-        <v>6.28235294117647</v>
+        <v>6.277777777777778</v>
       </c>
       <c r="AQ27" s="13">
-        <v>6.017647058823528</v>
+        <v>6.02222222222222</v>
       </c>
     </row>
     <row r="28" spans="1:43">
       <c r="B28" s="13">
-        <v>0.8528014734393174</v>
+        <v>0.8268088479622973</v>
       </c>
       <c r="C28" s="13">
-        <v>1.26736965076242</v>
+        <v>1.196674538926733</v>
       </c>
       <c r="D28" s="13">
-        <v>1.356382978723405</v>
+        <v>1.302543980960345</v>
       </c>
       <c r="E28" s="13">
-        <v>1.468973649967469</v>
+        <v>1.523253929671042</v>
       </c>
       <c r="F28" s="13">
-        <v>1.53787284144427</v>
+        <v>1.580426861009891</v>
       </c>
       <c r="G28" s="13">
-        <v>1.394871794871795</v>
+        <v>1.404492254081285</v>
       </c>
       <c r="H28" s="13">
-        <v>0.3866906474820145</v>
+        <v>0.4657960944051756</v>
       </c>
       <c r="I28" s="13">
-        <v>1.084183673469388</v>
+        <v>1.133524662936428</v>
       </c>
       <c r="J28" s="13">
-        <v>1.071512723845429</v>
+        <v>1.014469959106638</v>
       </c>
       <c r="K28" s="13">
-        <v>1.206464694656488</v>
+        <v>1.09270206505315</v>
       </c>
       <c r="L28" s="13">
-        <v>0.7907645466847089</v>
+        <v>0.785490868731712</v>
       </c>
       <c r="M28" s="13">
-        <v>0.3813335679099226</v>
+        <v>0.321939586645469</v>
       </c>
       <c r="N28" s="13">
-        <v>0.950600715746421</v>
+        <v>0.9844751459905995</v>
       </c>
       <c r="O28" s="13">
-        <v>1.144019987105094</v>
+        <v>1.245295193031509</v>
       </c>
       <c r="P28" s="13">
-        <v>1.232003891050584</v>
+        <v>1.103912930811091</v>
       </c>
       <c r="Q28" s="13">
-        <v>0.7318003487358324</v>
+        <v>0.6140650129148592</v>
       </c>
       <c r="R28" s="13">
-        <v>1.108695652173913</v>
+        <v>1.137784532485925</v>
       </c>
       <c r="S28" s="13">
-        <v>0.6214336661911555</v>
+        <v>0.5474189675870348</v>
       </c>
       <c r="T28" s="13">
-        <v>1.124180711610487</v>
+        <v>1.086933888599688</v>
       </c>
       <c r="U28" s="13">
-        <v>1.184017595307918</v>
+        <v>1.162361623616237</v>
       </c>
       <c r="X28" s="13">
-        <v>0.8528014734393174</v>
+        <v>0.8268088479622973</v>
       </c>
       <c r="Y28" s="13">
-        <v>1.26736965076242</v>
+        <v>1.196674538926733</v>
       </c>
       <c r="Z28" s="13">
-        <v>1.356382978723405</v>
+        <v>1.302543980960345</v>
       </c>
       <c r="AA28" s="13">
-        <v>1.468973649967469</v>
+        <v>1.523253929671042</v>
       </c>
       <c r="AB28" s="13">
-        <v>1.53787284144427</v>
+        <v>1.580426861009891</v>
       </c>
       <c r="AC28" s="13">
-        <v>1.394871794871795</v>
+        <v>1.404492254081285</v>
       </c>
       <c r="AD28" s="13">
-        <v>0.3866906474820145</v>
+        <v>0.4657960944051756</v>
       </c>
       <c r="AE28" s="13">
-        <v>1.084183673469388</v>
+        <v>1.133524662936428</v>
       </c>
       <c r="AF28" s="13">
-        <v>1.071512723845429</v>
+        <v>1.014469959106638</v>
       </c>
       <c r="AG28" s="13">
-        <v>1.206464694656488</v>
+        <v>1.09270206505315</v>
       </c>
       <c r="AH28" s="13">
-        <v>0.7907645466847089</v>
+        <v>0.785490868731712</v>
       </c>
       <c r="AI28" s="13">
-        <v>0.3813335679099226</v>
+        <v>0.321939586645469</v>
       </c>
       <c r="AJ28" s="13">
-        <v>0.950600715746421</v>
+        <v>0.9844751459905995</v>
       </c>
       <c r="AK28" s="13">
-        <v>1.144019987105094</v>
+        <v>1.245295193031509</v>
       </c>
       <c r="AL28" s="13">
-        <v>1.232003891050584</v>
+        <v>1.103912930811091</v>
       </c>
       <c r="AM28" s="13">
-        <v>0.7318003487358324</v>
+        <v>0.6140650129148592</v>
       </c>
       <c r="AN28" s="13">
-        <v>1.108695652173913</v>
+        <v>1.137784532485925</v>
       </c>
       <c r="AO28" s="13">
-        <v>0.6214336661911555</v>
+        <v>0.5474189675870348</v>
       </c>
       <c r="AP28" s="13">
-        <v>1.124180711610487</v>
+        <v>1.086933888599688</v>
       </c>
       <c r="AQ28" s="13">
-        <v>1.184017595307918</v>
+        <v>1.162361623616237</v>
       </c>
     </row>
     <row r="29" spans="1:43">
       <c r="B29" s="13">
-        <v>43.18359375</v>
+        <v>43.25358517083946</v>
       </c>
       <c r="C29" s="13">
-        <v>23.9912109375</v>
+        <v>32.66929692530924</v>
       </c>
       <c r="D29" s="13">
-        <v>77.171875</v>
+        <v>79.7161728406616</v>
       </c>
       <c r="E29" s="13">
-        <v>59.8427734375</v>
+        <v>59.2055476645786</v>
       </c>
       <c r="F29" s="13">
-        <v>71.1630859375</v>
+        <v>68.49575309417098</v>
       </c>
       <c r="G29" s="13">
-        <v>53.5</v>
+        <v>49.06436948831894</v>
       </c>
       <c r="H29" s="13">
-        <v>15.27734375</v>
+        <v>17.66062177600205</v>
       </c>
       <c r="I29" s="13">
-        <v>32.5693359375</v>
+        <v>31.94252927381627</v>
       </c>
       <c r="J29" s="13">
-        <v>38.83984375</v>
+        <v>37.5200094260359</v>
       </c>
       <c r="K29" s="13">
-        <v>24.27734375</v>
+        <v>29.82097197246041</v>
       </c>
       <c r="L29" s="13">
-        <v>17.0537109375</v>
+        <v>15.64312820303546</v>
       </c>
       <c r="M29" s="13">
-        <v>29.4443359375</v>
+        <v>28.01831964520074</v>
       </c>
       <c r="N29" s="13">
-        <v>24.1083984375</v>
+        <v>22.50629893503244</v>
       </c>
       <c r="O29" s="13">
-        <v>8.0302734375</v>
+        <v>10.58428824553021</v>
       </c>
       <c r="P29" s="13">
-        <v>15.0537109375</v>
+        <v>17.31821854065663</v>
       </c>
       <c r="Q29" s="13">
-        <v>12.7958984375</v>
+        <v>14.29197818120675</v>
       </c>
       <c r="R29" s="13">
-        <v>43.53125</v>
+        <v>40.01921735461097</v>
       </c>
       <c r="S29" s="13">
-        <v>14.27734375</v>
+        <v>14.6981624113714</v>
       </c>
       <c r="T29" s="13">
-        <v>19.3896484375</v>
+        <v>17.92581643867153</v>
       </c>
       <c r="U29" s="13">
-        <v>22.43359375</v>
+        <v>20.54419412072468</v>
       </c>
       <c r="X29" s="13">
-        <v>0.02512635506430294</v>
+        <v>0.2669910079868585</v>
       </c>
       <c r="Y29" s="13">
-        <v>0.008056546714034787</v>
+        <v>0.009202572821006763</v>
       </c>
       <c r="Z29" s="13">
-        <v>0.001393111202696073</v>
+        <v>0.02180245908660558</v>
       </c>
       <c r="AA29" s="13">
-        <v>0.02232334818671971</v>
+        <v>0.03882540011515067</v>
       </c>
       <c r="AB29" s="13">
-        <v>0.02024207361895037</v>
+        <v>0.05709232529581333</v>
       </c>
       <c r="AC29" s="13">
-        <v>0.001846291955315723</v>
+        <v>0.01158141970834013</v>
       </c>
       <c r="AD29" s="13">
-        <v>0.0299602830927376</v>
+        <v>0.3006877015101309</v>
       </c>
       <c r="AE29" s="13">
-        <v>0.005740289533722213</v>
+        <v>0.00780581868532718</v>
       </c>
       <c r="AF29" s="13">
-        <v>0.00577385847838011</v>
+        <v>0.006285393610568169</v>
       </c>
       <c r="AG29" s="13">
-        <v>0.005068910640860706</v>
+        <v>0.004663121880002901</v>
       </c>
       <c r="AH29" s="13">
-        <v>0.00914753741483737</v>
+        <v>0.03777055975225359</v>
       </c>
       <c r="AI29" s="13">
-        <v>0.001443464619589857</v>
+        <v>0.07609400134991064</v>
       </c>
       <c r="AJ29" s="13">
-        <v>0.005270324308725362</v>
+        <v>0.009377167087942426</v>
       </c>
       <c r="AK29" s="13">
-        <v>0.007569797016702095</v>
+        <v>0.007136540661966618</v>
       </c>
       <c r="AL29" s="13">
-        <v>0.01257156976832456</v>
+        <v>0.01178511301978015</v>
       </c>
       <c r="AM29" s="13">
-        <v>0.004598945415908661</v>
+        <v>0.0111231097575486</v>
       </c>
       <c r="AN29" s="13">
-        <v>0.009348951082722707</v>
+        <v>0.008940681420563073</v>
       </c>
       <c r="AO29" s="13">
-        <v>0.005454953504267964</v>
+        <v>0.03090318525184963</v>
       </c>
       <c r="AP29" s="13">
-        <v>0.002349826124920494</v>
+        <v>0.002240626425984182</v>
       </c>
       <c r="AQ29" s="13">
-        <v>0.008912554802376857</v>
+        <v>0.008264128636093588</v>
       </c>
     </row>
     <row r="30" spans="1:43">
@@ -3596,7 +3716,7 @@
         <v>49</v>
       </c>
       <c r="H30" s="13">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I30" s="13">
         <v>43</v>
@@ -3617,7 +3737,7 @@
         <v>25</v>
       </c>
       <c r="O30" s="13">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P30" s="13">
         <v>19</v>
@@ -3644,16 +3764,16 @@
         <v>24.4</v>
       </c>
       <c r="Z30" s="13">
-        <v>30.5</v>
+        <v>31.7</v>
       </c>
       <c r="AA30" s="13">
-        <v>18.5</v>
+        <v>19.3</v>
       </c>
       <c r="AB30" s="13">
-        <v>19</v>
+        <v>20.5</v>
       </c>
       <c r="AC30" s="13">
-        <v>17.3</v>
+        <v>18.1</v>
       </c>
       <c r="AD30" s="13">
         <v>14.5</v>
@@ -3727,7 +3847,7 @@
         <v>-5</v>
       </c>
       <c r="K31" s="13">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="L31" s="13">
         <v>-6</v>
@@ -3760,7 +3880,7 @@
         <v>-7</v>
       </c>
       <c r="X31" s="13">
-        <v>30</v>
+        <v>25.9</v>
       </c>
       <c r="Y31" s="13">
         <v>23.7</v>
@@ -3778,7 +3898,7 @@
         <v>17</v>
       </c>
       <c r="AD31" s="13">
-        <v>13.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE31" s="13">
         <v>15.4</v>
@@ -3790,13 +3910,13 @@
         <v>12</v>
       </c>
       <c r="AH31" s="13">
-        <v>12.9</v>
+        <v>11.5</v>
       </c>
       <c r="AI31" s="13">
-        <v>8.300000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="AJ31" s="13">
-        <v>11.4</v>
+        <v>10.9</v>
       </c>
       <c r="AK31" s="13">
         <v>8.9</v>
@@ -3805,13 +3925,13 @@
         <v>7.1</v>
       </c>
       <c r="AM31" s="13">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="AN31" s="13">
         <v>9</v>
       </c>
       <c r="AO31" s="13">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="AP31" s="13">
         <v>6.2</v>
@@ -3840,7 +3960,7 @@
         <v>54</v>
       </c>
       <c r="H32" s="13">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I32" s="13">
         <v>45</v>
@@ -3849,7 +3969,7 @@
         <v>42</v>
       </c>
       <c r="K32" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L32" s="13">
         <v>32</v>
@@ -3861,7 +3981,7 @@
         <v>32</v>
       </c>
       <c r="O32" s="13">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="P32" s="13">
         <v>28</v>
@@ -3882,25 +4002,25 @@
         <v>34</v>
       </c>
       <c r="X32" s="13">
-        <v>1</v>
+        <v>5.100000000000001</v>
       </c>
       <c r="Y32" s="13">
         <v>0.6999999999999993</v>
       </c>
       <c r="Z32" s="13">
-        <v>0.1999999999999993</v>
+        <v>1.399999999999999</v>
       </c>
       <c r="AA32" s="13">
-        <v>1</v>
+        <v>1.800000000000001</v>
       </c>
       <c r="AB32" s="13">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AC32" s="13">
-        <v>0.3000000000000007</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="AD32" s="13">
-        <v>1</v>
+        <v>5.300000000000001</v>
       </c>
       <c r="AE32" s="13">
         <v>0.7000000000000011</v>
@@ -3912,13 +4032,13 @@
         <v>0.5999999999999996</v>
       </c>
       <c r="AH32" s="13">
-        <v>0.5999999999999996</v>
+        <v>2</v>
       </c>
       <c r="AI32" s="13">
-        <v>0.1999999999999993</v>
+        <v>2.6</v>
       </c>
       <c r="AJ32" s="13">
-        <v>0.4000000000000004</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="AK32" s="13">
         <v>0.5999999999999996</v>
@@ -3927,13 +4047,13 @@
         <v>0.9000000000000004</v>
       </c>
       <c r="AM32" s="13">
-        <v>0.4000000000000004</v>
+        <v>1</v>
       </c>
       <c r="AN32" s="13">
         <v>0.6999999999999993</v>
       </c>
       <c r="AO32" s="13">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="AP32" s="13">
         <v>0.2999999999999998</v>
@@ -5115,6 +5235,36 @@
       <c r="A18" s="12" t="s">
         <v>16</v>
       </c>
+      <c r="B18" s="13">
+        <v>816</v>
+      </c>
+      <c r="C18" s="13">
+        <v>1041</v>
+      </c>
+      <c r="D18" s="13">
+        <v>807</v>
+      </c>
+      <c r="E18" s="13">
+        <v>319</v>
+      </c>
+      <c r="F18" s="13">
+        <v>333</v>
+      </c>
+      <c r="G18" s="13">
+        <v>129</v>
+      </c>
+      <c r="H18" s="13">
+        <v>299</v>
+      </c>
+      <c r="I18" s="13">
+        <v>126</v>
+      </c>
+      <c r="J18" s="13">
+        <v>163</v>
+      </c>
+      <c r="K18" s="13">
+        <v>149</v>
+      </c>
       <c r="M18" s="12" t="s">
         <v>16</v>
       </c>
@@ -5156,6 +5306,36 @@
       <c r="M19" s="12" t="s">
         <v>17</v>
       </c>
+      <c r="N19" s="13">
+        <v>33.7</v>
+      </c>
+      <c r="O19" s="13">
+        <v>36.1</v>
+      </c>
+      <c r="P19" s="13">
+        <v>28</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>14.2</v>
+      </c>
+      <c r="R19" s="13">
+        <v>14</v>
+      </c>
+      <c r="S19" s="13">
+        <v>8</v>
+      </c>
+      <c r="T19" s="13">
+        <v>11.4</v>
+      </c>
+      <c r="U19" s="13">
+        <v>6.1</v>
+      </c>
+      <c r="V19" s="13">
+        <v>7.9</v>
+      </c>
+      <c r="W19" s="13">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="12" t="s">
@@ -5191,312 +5371,312 @@
     </row>
     <row r="25" spans="1:23">
       <c r="B25" s="13">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="C25" s="13">
-        <v>976</v>
+        <v>1041</v>
       </c>
       <c r="D25" s="13">
-        <v>749</v>
+        <v>807</v>
       </c>
       <c r="E25" s="13">
-        <v>272</v>
+        <v>319</v>
       </c>
       <c r="F25" s="13">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="G25" s="13">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H25" s="13">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="I25" s="13">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="J25" s="13">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K25" s="13">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="N25" s="13">
-        <v>576.8</v>
+        <v>610.5</v>
       </c>
       <c r="O25" s="13">
-        <v>552.7000000000002</v>
+        <v>588.8000000000002</v>
       </c>
       <c r="P25" s="13">
-        <v>437.0000000000001</v>
+        <v>465.0000000000001</v>
       </c>
       <c r="Q25" s="13">
-        <v>300.4</v>
+        <v>314.6</v>
       </c>
       <c r="R25" s="13">
-        <v>237.9</v>
+        <v>251.9</v>
       </c>
       <c r="S25" s="13">
-        <v>172.9999999999999</v>
+        <v>180.9999999999999</v>
       </c>
       <c r="T25" s="13">
-        <v>190.6</v>
+        <v>202</v>
       </c>
       <c r="U25" s="13">
-        <v>112.9</v>
+        <v>119</v>
       </c>
       <c r="V25" s="13">
-        <v>144.2</v>
+        <v>152.1</v>
       </c>
       <c r="W25" s="13">
-        <v>108.3</v>
+        <v>114.6</v>
       </c>
     </row>
     <row r="26" spans="1:23">
       <c r="B26" s="13">
-        <v>1.404299583911234</v>
+        <v>1.336609336609337</v>
       </c>
       <c r="C26" s="13">
-        <v>1.765876605753573</v>
+        <v>1.768002717391304</v>
       </c>
       <c r="D26" s="13">
-        <v>1.71395881006865</v>
+        <v>1.735483870967742</v>
       </c>
       <c r="E26" s="13">
-        <v>0.9054593874833556</v>
+        <v>1.013986013986014</v>
       </c>
       <c r="F26" s="13">
-        <v>1.441782261454392</v>
+        <v>1.321953156014291</v>
       </c>
       <c r="G26" s="13">
-        <v>0.7630057803468211</v>
+        <v>0.7127071823204422</v>
       </c>
       <c r="H26" s="13">
-        <v>1.369359916054564</v>
+        <v>1.48019801980198</v>
       </c>
       <c r="I26" s="13">
-        <v>1.275465013286094</v>
+        <v>1.058823529411765</v>
       </c>
       <c r="J26" s="13">
-        <v>1.102635228848821</v>
+        <v>1.071663379355687</v>
       </c>
       <c r="K26" s="13">
-        <v>1.348107109879963</v>
+        <v>1.300174520069808</v>
       </c>
       <c r="N26" s="13">
-        <v>1.404299583911234</v>
+        <v>1.336609336609337</v>
       </c>
       <c r="O26" s="13">
-        <v>1.765876605753573</v>
+        <v>1.768002717391304</v>
       </c>
       <c r="P26" s="13">
-        <v>1.71395881006865</v>
+        <v>1.735483870967742</v>
       </c>
       <c r="Q26" s="13">
-        <v>0.9054593874833556</v>
+        <v>1.013986013986014</v>
       </c>
       <c r="R26" s="13">
-        <v>1.441782261454392</v>
+        <v>1.321953156014291</v>
       </c>
       <c r="S26" s="13">
-        <v>0.7630057803468211</v>
+        <v>0.7127071823204422</v>
       </c>
       <c r="T26" s="13">
-        <v>1.369359916054564</v>
+        <v>1.48019801980198</v>
       </c>
       <c r="U26" s="13">
-        <v>1.275465013286094</v>
+        <v>1.058823529411765</v>
       </c>
       <c r="V26" s="13">
-        <v>1.102635228848821</v>
+        <v>1.071663379355687</v>
       </c>
       <c r="W26" s="13">
-        <v>1.348107109879963</v>
+        <v>1.300174520069808</v>
       </c>
     </row>
     <row r="27" spans="1:23">
       <c r="B27" s="13">
-        <v>50.625</v>
+        <v>48</v>
       </c>
       <c r="C27" s="13">
-        <v>61</v>
+        <v>61.23529411764706</v>
       </c>
       <c r="D27" s="13">
-        <v>46.8125</v>
+        <v>47.47058823529412</v>
       </c>
       <c r="E27" s="13">
-        <v>17</v>
+        <v>18.76470588235294</v>
       </c>
       <c r="F27" s="13">
-        <v>21.4375</v>
+        <v>19.58823529411765</v>
       </c>
       <c r="G27" s="13">
-        <v>8.25</v>
+        <v>7.588235294117647</v>
       </c>
       <c r="H27" s="13">
-        <v>16.3125</v>
+        <v>17.58823529411765</v>
       </c>
       <c r="I27" s="13">
-        <v>9</v>
+        <v>7.411764705882353</v>
       </c>
       <c r="J27" s="13">
-        <v>9.9375</v>
+        <v>9.588235294117647</v>
       </c>
       <c r="K27" s="13">
-        <v>9.125</v>
+        <v>8.764705882352942</v>
       </c>
       <c r="N27" s="13">
-        <v>33.92941176470588</v>
+        <v>33.91666666666666</v>
       </c>
       <c r="O27" s="13">
-        <v>32.51176470588236</v>
+        <v>32.71111111111112</v>
       </c>
       <c r="P27" s="13">
-        <v>25.70588235294118</v>
+        <v>25.83333333333334</v>
       </c>
       <c r="Q27" s="13">
-        <v>17.67058823529412</v>
+        <v>17.47777777777777</v>
       </c>
       <c r="R27" s="13">
-        <v>13.99411764705882</v>
+        <v>13.99444444444445</v>
       </c>
       <c r="S27" s="13">
-        <v>10.17647058823529</v>
+        <v>10.05555555555555</v>
       </c>
       <c r="T27" s="13">
-        <v>11.21176470588235</v>
+        <v>11.22222222222222</v>
       </c>
       <c r="U27" s="13">
-        <v>6.641176470588236</v>
+        <v>6.611111111111111</v>
       </c>
       <c r="V27" s="13">
-        <v>8.482352941176471</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="W27" s="13">
-        <v>6.370588235294118</v>
+        <v>6.366666666666667</v>
       </c>
     </row>
     <row r="28" spans="1:23">
       <c r="B28" s="13">
-        <v>1.492068307905686</v>
+        <v>1.415233415233415</v>
       </c>
       <c r="C28" s="13">
-        <v>1.876243893613171</v>
+        <v>1.872002877237851</v>
       </c>
       <c r="D28" s="13">
-        <v>1.82108123569794</v>
+        <v>1.837571157495256</v>
       </c>
       <c r="E28" s="13">
-        <v>0.9620505992010654</v>
+        <v>1.073632250102839</v>
       </c>
       <c r="F28" s="13">
-        <v>1.531893652795292</v>
+        <v>1.399715106368073</v>
       </c>
       <c r="G28" s="13">
-        <v>0.8106936416184974</v>
+        <v>0.7546311342216447</v>
       </c>
       <c r="H28" s="13">
-        <v>1.454944910807975</v>
+        <v>1.567268491555038</v>
       </c>
       <c r="I28" s="13">
-        <v>1.355181576616475</v>
+        <v>1.121107266435986</v>
       </c>
       <c r="J28" s="13">
-        <v>1.171549930651872</v>
+        <v>1.134702401670727</v>
       </c>
       <c r="K28" s="13">
-        <v>1.432363804247461</v>
+        <v>1.376655374191561</v>
       </c>
       <c r="N28" s="13">
-        <v>1.492068307905686</v>
+        <v>1.415233415233415</v>
       </c>
       <c r="O28" s="13">
-        <v>1.876243893613171</v>
+        <v>1.872002877237851</v>
       </c>
       <c r="P28" s="13">
-        <v>1.82108123569794</v>
+        <v>1.837571157495256</v>
       </c>
       <c r="Q28" s="13">
-        <v>0.9620505992010654</v>
+        <v>1.073632250102839</v>
       </c>
       <c r="R28" s="13">
-        <v>1.531893652795292</v>
+        <v>1.399715106368073</v>
       </c>
       <c r="S28" s="13">
-        <v>0.8106936416184974</v>
+        <v>0.7546311342216447</v>
       </c>
       <c r="T28" s="13">
-        <v>1.454944910807975</v>
+        <v>1.567268491555038</v>
       </c>
       <c r="U28" s="13">
-        <v>1.355181576616475</v>
+        <v>1.121107266435986</v>
       </c>
       <c r="V28" s="13">
-        <v>1.171549930651872</v>
+        <v>1.134702401670727</v>
       </c>
       <c r="W28" s="13">
-        <v>1.432363804247461</v>
+        <v>1.376655374191561</v>
       </c>
     </row>
     <row r="29" spans="1:23">
       <c r="B29" s="13">
-        <v>52.80859375</v>
+        <v>74.9577749376996</v>
       </c>
       <c r="C29" s="13">
-        <v>135.75</v>
+        <v>124.1648124407459</v>
       </c>
       <c r="D29" s="13">
-        <v>72.5380859375</v>
+        <v>67.91333190463747</v>
       </c>
       <c r="E29" s="13">
-        <v>42.71875</v>
+        <v>51.09025529744594</v>
       </c>
       <c r="F29" s="13">
-        <v>31.0615234375</v>
+        <v>41.63220514464499</v>
       </c>
       <c r="G29" s="13">
-        <v>30.609375</v>
+        <v>29.64809190755561</v>
       </c>
       <c r="H29" s="13">
-        <v>39.2099609375</v>
+        <v>42.11727639471766</v>
       </c>
       <c r="I29" s="13">
-        <v>20.4375</v>
+        <v>28.44968058384667</v>
       </c>
       <c r="J29" s="13">
-        <v>52.3271484375</v>
+        <v>48.25200102798961</v>
       </c>
       <c r="K29" s="13">
-        <v>44.30859375</v>
+        <v>40.96082625181086</v>
       </c>
       <c r="N29" s="13">
-        <v>0.0173383599074486</v>
+        <v>0.01656463107781217</v>
       </c>
       <c r="O29" s="13">
-        <v>0.01223588032170941</v>
+        <v>0.1704622026413919</v>
       </c>
       <c r="P29" s="13">
-        <v>0.01097704489775521</v>
+        <v>0.07516283192606618</v>
       </c>
       <c r="Q29" s="13">
-        <v>0.01534100770129642</v>
+        <v>0.1630419462958491</v>
       </c>
       <c r="R29" s="13">
-        <v>0.001275619896386544</v>
+        <v>0.001171236540847489</v>
       </c>
       <c r="S29" s="13">
-        <v>0.00443110069272258</v>
+        <v>0.06265024279403233</v>
       </c>
       <c r="T29" s="13">
-        <v>0.02393465752953701</v>
+        <v>0.02240626425982173</v>
       </c>
       <c r="U29" s="13">
-        <v>0.03254509183013583</v>
+        <v>0.03349300021176208</v>
       </c>
       <c r="V29" s="13">
-        <v>0.007485874655102162</v>
+        <v>0.01106491166857172</v>
       </c>
       <c r="W29" s="13">
-        <v>0.006780926817625842</v>
+        <v>0.006285393610546398</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -5510,7 +5690,7 @@
         <v>76</v>
       </c>
       <c r="E30" s="13">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F30" s="13">
         <v>40</v>
@@ -5519,7 +5699,7 @@
         <v>36</v>
       </c>
       <c r="H30" s="13">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I30" s="13">
         <v>26</v>
@@ -5534,10 +5714,10 @@
         <v>34.5</v>
       </c>
       <c r="O30" s="13">
-        <v>33</v>
+        <v>36.1</v>
       </c>
       <c r="P30" s="13">
-        <v>25.8</v>
+        <v>28</v>
       </c>
       <c r="Q30" s="13">
         <v>18.5</v>
@@ -5563,7 +5743,7 @@
     </row>
     <row r="31" spans="1:23">
       <c r="B31" s="13">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C31" s="13">
         <v>4</v>
@@ -5575,7 +5755,7 @@
         <v>-4</v>
       </c>
       <c r="F31" s="13">
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="G31" s="13">
         <v>-7</v>
@@ -5584,7 +5764,7 @@
         <v>-18</v>
       </c>
       <c r="I31" s="13">
-        <v>-8</v>
+        <v>-18</v>
       </c>
       <c r="J31" s="13">
         <v>-13</v>
@@ -5602,22 +5782,22 @@
         <v>25</v>
       </c>
       <c r="Q31" s="13">
-        <v>17.5</v>
+        <v>14.2</v>
       </c>
       <c r="R31" s="13">
         <v>13.9</v>
       </c>
       <c r="S31" s="13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T31" s="13">
         <v>10.9</v>
       </c>
       <c r="U31" s="13">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="V31" s="13">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="W31" s="13">
         <v>6</v>
@@ -5625,7 +5805,7 @@
     </row>
     <row r="32" spans="1:23">
       <c r="B32" s="13">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C32" s="13">
         <v>95</v>
@@ -5634,19 +5814,19 @@
         <v>73</v>
       </c>
       <c r="E32" s="13">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F32" s="13">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G32" s="13">
         <v>43</v>
       </c>
       <c r="H32" s="13">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I32" s="13">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="J32" s="13">
         <v>48</v>
@@ -5658,28 +5838,28 @@
         <v>0.7999999999999972</v>
       </c>
       <c r="O32" s="13">
-        <v>0.8999999999999986</v>
+        <v>4</v>
       </c>
       <c r="P32" s="13">
-        <v>0.8000000000000007</v>
+        <v>3</v>
       </c>
       <c r="Q32" s="13">
-        <v>1</v>
+        <v>4.300000000000001</v>
       </c>
       <c r="R32" s="13">
         <v>0.1999999999999993</v>
       </c>
       <c r="S32" s="13">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="T32" s="13">
         <v>0.9000000000000004</v>
       </c>
       <c r="U32" s="13">
-        <v>1.2</v>
+        <v>1.300000000000001</v>
       </c>
       <c r="V32" s="13">
-        <v>0.6999999999999993</v>
+        <v>0.7999999999999989</v>
       </c>
       <c r="W32" s="13">
         <v>0.7000000000000002</v>

--- a/2022/Fantasy F1 2022.xlsx
+++ b/2022/Fantasy F1 2022.xlsx
@@ -2990,6 +2990,66 @@
       <c r="A19" s="12" t="s">
         <v>17</v>
       </c>
+      <c r="B19" s="13">
+        <v>449</v>
+      </c>
+      <c r="C19" s="13">
+        <v>498</v>
+      </c>
+      <c r="D19" s="13">
+        <v>729</v>
+      </c>
+      <c r="E19" s="13">
+        <v>508</v>
+      </c>
+      <c r="F19" s="13">
+        <v>537</v>
+      </c>
+      <c r="G19" s="13">
+        <v>413</v>
+      </c>
+      <c r="H19" s="13">
+        <v>111</v>
+      </c>
+      <c r="I19" s="13">
+        <v>316</v>
+      </c>
+      <c r="J19" s="13">
+        <v>229</v>
+      </c>
+      <c r="K19" s="13">
+        <v>258</v>
+      </c>
+      <c r="L19" s="13">
+        <v>175</v>
+      </c>
+      <c r="M19" s="13">
+        <v>53</v>
+      </c>
+      <c r="N19" s="13">
+        <v>217</v>
+      </c>
+      <c r="O19" s="13">
+        <v>205</v>
+      </c>
+      <c r="P19" s="13">
+        <v>135</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>87</v>
+      </c>
+      <c r="R19" s="13">
+        <v>185</v>
+      </c>
+      <c r="S19" s="13">
+        <v>80</v>
+      </c>
+      <c r="T19" s="13">
+        <v>115</v>
+      </c>
+      <c r="U19" s="13">
+        <v>132</v>
+      </c>
       <c r="W19" s="12" t="s">
         <v>17</v>
       </c>
@@ -3061,6 +3121,66 @@
       <c r="W20" s="12" t="s">
         <v>18</v>
       </c>
+      <c r="X20" s="13">
+        <v>24.1</v>
+      </c>
+      <c r="Y20" s="13">
+        <v>24.3</v>
+      </c>
+      <c r="Z20" s="13">
+        <v>32</v>
+      </c>
+      <c r="AA20" s="13">
+        <v>20.5</v>
+      </c>
+      <c r="AB20" s="13">
+        <v>21.4</v>
+      </c>
+      <c r="AC20" s="13">
+        <v>18.5</v>
+      </c>
+      <c r="AD20" s="13">
+        <v>8.1</v>
+      </c>
+      <c r="AE20" s="13">
+        <v>15.3</v>
+      </c>
+      <c r="AF20" s="13">
+        <v>11.9</v>
+      </c>
+      <c r="AG20" s="13">
+        <v>11.8</v>
+      </c>
+      <c r="AH20" s="13">
+        <v>11</v>
+      </c>
+      <c r="AI20" s="13">
+        <v>4.9</v>
+      </c>
+      <c r="AJ20" s="13">
+        <v>10.6</v>
+      </c>
+      <c r="AK20" s="13">
+        <v>9.1</v>
+      </c>
+      <c r="AL20" s="13">
+        <v>7.4</v>
+      </c>
+      <c r="AM20" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="AN20" s="13">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AO20" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="AP20" s="13">
+        <v>6.1</v>
+      </c>
+      <c r="AQ20" s="13">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="1:43">
       <c r="A21" s="12" t="s">
@@ -3088,612 +3208,612 @@
     </row>
     <row r="25" spans="1:43">
       <c r="B25" s="13">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="C25" s="13">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="D25" s="13">
-        <v>675</v>
+        <v>729</v>
       </c>
       <c r="E25" s="13">
-        <v>470</v>
+        <v>508</v>
       </c>
       <c r="F25" s="13">
-        <v>506</v>
+        <v>537</v>
       </c>
       <c r="G25" s="13">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H25" s="13">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I25" s="13">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="J25" s="13">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="K25" s="13">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="L25" s="13">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M25" s="13">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N25" s="13">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="O25" s="13">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="P25" s="13">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="Q25" s="13">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="R25" s="13">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="S25" s="13">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="T25" s="13">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U25" s="13">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="X25" s="13">
-        <v>541.7</v>
+        <v>565.8000000000001</v>
       </c>
       <c r="Y25" s="13">
-        <v>430.9</v>
+        <v>455.2</v>
       </c>
       <c r="Z25" s="13">
-        <v>548.6999999999999</v>
+        <v>580.6999999999999</v>
       </c>
       <c r="AA25" s="13">
-        <v>326.7</v>
+        <v>347.2</v>
       </c>
       <c r="AB25" s="13">
-        <v>339</v>
+        <v>360.4</v>
       </c>
       <c r="AC25" s="13">
-        <v>310.6</v>
+        <v>329.1</v>
       </c>
       <c r="AD25" s="13">
-        <v>245.4999999999999</v>
+        <v>253.5999999999999</v>
       </c>
       <c r="AE25" s="13">
-        <v>284.9</v>
+        <v>300.2</v>
       </c>
       <c r="AF25" s="13">
-        <v>224.3999999999999</v>
+        <v>236.3</v>
       </c>
       <c r="AG25" s="13">
-        <v>221.9000000000001</v>
+        <v>233.7000000000001</v>
       </c>
       <c r="AH25" s="13">
-        <v>233.2</v>
+        <v>244.2</v>
       </c>
       <c r="AI25" s="13">
-        <v>148</v>
+        <v>152.9</v>
       </c>
       <c r="AJ25" s="13">
-        <v>206.5000000000001</v>
+        <v>217.1000000000001</v>
       </c>
       <c r="AK25" s="13">
-        <v>164.1</v>
+        <v>173.2</v>
       </c>
       <c r="AL25" s="13">
-        <v>136.2</v>
+        <v>143.6</v>
       </c>
       <c r="AM25" s="13">
-        <v>120.7</v>
+        <v>126.2</v>
       </c>
       <c r="AN25" s="13">
-        <v>170.3</v>
+        <v>179.5</v>
       </c>
       <c r="AO25" s="13">
-        <v>147</v>
+        <v>153.2</v>
       </c>
       <c r="AP25" s="13">
-        <v>113</v>
+        <v>119.1</v>
       </c>
       <c r="AQ25" s="13">
-        <v>108.4</v>
+        <v>114.4</v>
       </c>
     </row>
     <row r="26" spans="1:43">
       <c r="B26" s="13">
-        <v>0.7808750230755029</v>
+        <v>0.793566631318487</v>
       </c>
       <c r="C26" s="13">
-        <v>1.130192620097471</v>
+        <v>1.09402460456942</v>
       </c>
       <c r="D26" s="13">
-        <v>1.230180426462548</v>
+        <v>1.255381436197692</v>
       </c>
       <c r="E26" s="13">
-        <v>1.438628711355984</v>
+        <v>1.463133640552995</v>
       </c>
       <c r="F26" s="13">
-        <v>1.492625368731563</v>
+        <v>1.490011098779134</v>
       </c>
       <c r="G26" s="13">
-        <v>1.326464906632325</v>
+        <v>1.254937708903069</v>
       </c>
       <c r="H26" s="13">
-        <v>0.4399185336048881</v>
+        <v>0.4376971608832809</v>
       </c>
       <c r="I26" s="13">
-        <v>1.070551070551071</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="J26" s="13">
-        <v>0.9581105169340466</v>
+        <v>0.9691070672873467</v>
       </c>
       <c r="K26" s="13">
-        <v>1.03199639477242</v>
+        <v>1.10397946084724</v>
       </c>
       <c r="L26" s="13">
-        <v>0.7418524871355059</v>
+        <v>0.7166257166257165</v>
       </c>
       <c r="M26" s="13">
-        <v>0.3040540540540541</v>
+        <v>0.3466317854807063</v>
       </c>
       <c r="N26" s="13">
-        <v>0.9297820823244549</v>
+        <v>0.9995393827729154</v>
       </c>
       <c r="O26" s="13">
-        <v>1.176112126751981</v>
+        <v>1.183602771362587</v>
       </c>
       <c r="P26" s="13">
-        <v>1.04258443465492</v>
+        <v>0.9401114206128136</v>
       </c>
       <c r="Q26" s="13">
-        <v>0.5799502899751449</v>
+        <v>0.6893819334389856</v>
       </c>
       <c r="R26" s="13">
-        <v>1.074574280681151</v>
+        <v>1.030640668523677</v>
       </c>
       <c r="S26" s="13">
-        <v>0.5170068027210883</v>
+        <v>0.5221932114882506</v>
       </c>
       <c r="T26" s="13">
-        <v>1.026548672566372</v>
+        <v>0.9655751469353485</v>
       </c>
       <c r="U26" s="13">
-        <v>1.097785977859779</v>
+        <v>1.153846153846154</v>
       </c>
       <c r="X26" s="13">
-        <v>0.7808750230755029</v>
+        <v>0.793566631318487</v>
       </c>
       <c r="Y26" s="13">
-        <v>1.130192620097471</v>
+        <v>1.09402460456942</v>
       </c>
       <c r="Z26" s="13">
-        <v>1.230180426462548</v>
+        <v>1.255381436197692</v>
       </c>
       <c r="AA26" s="13">
-        <v>1.438628711355984</v>
+        <v>1.463133640552995</v>
       </c>
       <c r="AB26" s="13">
-        <v>1.492625368731563</v>
+        <v>1.490011098779134</v>
       </c>
       <c r="AC26" s="13">
-        <v>1.326464906632325</v>
+        <v>1.254937708903069</v>
       </c>
       <c r="AD26" s="13">
-        <v>0.4399185336048881</v>
+        <v>0.4376971608832809</v>
       </c>
       <c r="AE26" s="13">
-        <v>1.070551070551071</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="AF26" s="13">
-        <v>0.9581105169340466</v>
+        <v>0.9691070672873467</v>
       </c>
       <c r="AG26" s="13">
-        <v>1.03199639477242</v>
+        <v>1.10397946084724</v>
       </c>
       <c r="AH26" s="13">
-        <v>0.7418524871355059</v>
+        <v>0.7166257166257165</v>
       </c>
       <c r="AI26" s="13">
-        <v>0.3040540540540541</v>
+        <v>0.3466317854807063</v>
       </c>
       <c r="AJ26" s="13">
-        <v>0.9297820823244549</v>
+        <v>0.9995393827729154</v>
       </c>
       <c r="AK26" s="13">
-        <v>1.176112126751981</v>
+        <v>1.183602771362587</v>
       </c>
       <c r="AL26" s="13">
-        <v>1.04258443465492</v>
+        <v>0.9401114206128136</v>
       </c>
       <c r="AM26" s="13">
-        <v>0.5799502899751449</v>
+        <v>0.6893819334389856</v>
       </c>
       <c r="AN26" s="13">
-        <v>1.074574280681151</v>
+        <v>1.030640668523677</v>
       </c>
       <c r="AO26" s="13">
-        <v>0.5170068027210883</v>
+        <v>0.5221932114882506</v>
       </c>
       <c r="AP26" s="13">
-        <v>1.026548672566372</v>
+        <v>0.9655751469353485</v>
       </c>
       <c r="AQ26" s="13">
-        <v>1.097785977859779</v>
+        <v>1.153846153846154</v>
       </c>
     </row>
     <row r="27" spans="1:43">
       <c r="B27" s="13">
-        <v>24.88235294117647</v>
+        <v>24.94444444444444</v>
       </c>
       <c r="C27" s="13">
-        <v>28.64705882352941</v>
+        <v>27.66666666666667</v>
       </c>
       <c r="D27" s="13">
-        <v>39.70588235294117</v>
+        <v>40.5</v>
       </c>
       <c r="E27" s="13">
-        <v>27.64705882352941</v>
+        <v>28.22222222222222</v>
       </c>
       <c r="F27" s="13">
-        <v>29.76470588235294</v>
+        <v>29.83333333333333</v>
       </c>
       <c r="G27" s="13">
-        <v>24.23529411764706</v>
+        <v>22.94444444444444</v>
       </c>
       <c r="H27" s="13">
-        <v>6.352941176470588</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="I27" s="13">
-        <v>17.94117647058824</v>
+        <v>17.55555555555556</v>
       </c>
       <c r="J27" s="13">
-        <v>12.64705882352941</v>
+        <v>12.72222222222222</v>
       </c>
       <c r="K27" s="13">
-        <v>13.47058823529412</v>
+        <v>14.33333333333333</v>
       </c>
       <c r="L27" s="13">
-        <v>10.17647058823529</v>
+        <v>9.722222222222221</v>
       </c>
       <c r="M27" s="13">
-        <v>2.647058823529412</v>
+        <v>2.944444444444445</v>
       </c>
       <c r="N27" s="13">
-        <v>11.29411764705882</v>
+        <v>12.05555555555556</v>
       </c>
       <c r="O27" s="13">
-        <v>11.35294117647059</v>
+        <v>11.38888888888889</v>
       </c>
       <c r="P27" s="13">
-        <v>8.352941176470589</v>
+        <v>7.5</v>
       </c>
       <c r="Q27" s="13">
-        <v>4.117647058823529</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="R27" s="13">
-        <v>10.76470588235294</v>
+        <v>10.27777777777778</v>
       </c>
       <c r="S27" s="13">
-        <v>4.470588235294118</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="T27" s="13">
-        <v>6.823529411764706</v>
+        <v>6.388888888888889</v>
       </c>
       <c r="U27" s="13">
-        <v>7</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="X27" s="13">
-        <v>30.09444444444445</v>
+        <v>29.77894736842106</v>
       </c>
       <c r="Y27" s="13">
-        <v>23.93888888888889</v>
+        <v>23.9578947368421</v>
       </c>
       <c r="Z27" s="13">
-        <v>30.48333333333333</v>
+        <v>30.56315789473684</v>
       </c>
       <c r="AA27" s="13">
-        <v>18.15</v>
+        <v>18.27368421052632</v>
       </c>
       <c r="AB27" s="13">
-        <v>18.83333333333333</v>
+        <v>18.96842105263158</v>
       </c>
       <c r="AC27" s="13">
-        <v>17.25555555555555</v>
+        <v>17.32105263157895</v>
       </c>
       <c r="AD27" s="13">
-        <v>13.63888888888889</v>
+        <v>13.34736842105263</v>
       </c>
       <c r="AE27" s="13">
-        <v>15.82777777777778</v>
+        <v>15.8</v>
       </c>
       <c r="AF27" s="13">
-        <v>12.46666666666666</v>
+        <v>12.43684210526316</v>
       </c>
       <c r="AG27" s="13">
-        <v>12.32777777777778</v>
+        <v>12.30000000000001</v>
       </c>
       <c r="AH27" s="13">
-        <v>12.95555555555556</v>
+        <v>12.85263157894737</v>
       </c>
       <c r="AI27" s="13">
-        <v>8.222222222222221</v>
+        <v>8.047368421052632</v>
       </c>
       <c r="AJ27" s="13">
-        <v>11.47222222222222</v>
+        <v>11.42631578947369</v>
       </c>
       <c r="AK27" s="13">
-        <v>9.116666666666667</v>
+        <v>9.11578947368421</v>
       </c>
       <c r="AL27" s="13">
-        <v>7.566666666666665</v>
+        <v>7.557894736842104</v>
       </c>
       <c r="AM27" s="13">
-        <v>6.705555555555557</v>
+        <v>6.642105263157896</v>
       </c>
       <c r="AN27" s="13">
-        <v>9.46111111111111</v>
+        <v>9.44736842105263</v>
       </c>
       <c r="AO27" s="13">
-        <v>8.166666666666668</v>
+        <v>8.063157894736843</v>
       </c>
       <c r="AP27" s="13">
-        <v>6.277777777777778</v>
+        <v>6.268421052631578</v>
       </c>
       <c r="AQ27" s="13">
-        <v>6.02222222222222</v>
+        <v>6.021052631578946</v>
       </c>
     </row>
     <row r="28" spans="1:43">
       <c r="B28" s="13">
-        <v>0.8268088479622973</v>
+        <v>0.8376536663917362</v>
       </c>
       <c r="C28" s="13">
-        <v>1.196674538926733</v>
+        <v>1.154803749267721</v>
       </c>
       <c r="D28" s="13">
-        <v>1.302543980960345</v>
+        <v>1.325124849319786</v>
       </c>
       <c r="E28" s="13">
-        <v>1.523253929671042</v>
+        <v>1.54441884280594</v>
       </c>
       <c r="F28" s="13">
-        <v>1.580426861009891</v>
+        <v>1.572789493155753</v>
       </c>
       <c r="G28" s="13">
-        <v>1.404492254081285</v>
+        <v>1.324656470508795</v>
       </c>
       <c r="H28" s="13">
-        <v>0.4657960944051756</v>
+        <v>0.4620136698212409</v>
       </c>
       <c r="I28" s="13">
-        <v>1.133524662936428</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="J28" s="13">
-        <v>1.014469959106638</v>
+        <v>1.02294634880331</v>
       </c>
       <c r="K28" s="13">
-        <v>1.09270206505315</v>
+        <v>1.165311653116531</v>
       </c>
       <c r="L28" s="13">
-        <v>0.785490868731712</v>
+        <v>0.7564382564382562</v>
       </c>
       <c r="M28" s="13">
-        <v>0.321939586645469</v>
+        <v>0.3658891068963012</v>
       </c>
       <c r="N28" s="13">
-        <v>0.9844751459905995</v>
+        <v>1.055069348482522</v>
       </c>
       <c r="O28" s="13">
-        <v>1.245295193031509</v>
+        <v>1.24935848088273</v>
       </c>
       <c r="P28" s="13">
-        <v>1.103912930811091</v>
+        <v>0.992339832869081</v>
       </c>
       <c r="Q28" s="13">
-        <v>0.6140650129148592</v>
+        <v>0.7276809297411514</v>
       </c>
       <c r="R28" s="13">
-        <v>1.137784532485925</v>
+        <v>1.087898483441659</v>
       </c>
       <c r="S28" s="13">
-        <v>0.5474189675870348</v>
+        <v>0.5512039454598201</v>
       </c>
       <c r="T28" s="13">
-        <v>1.086933888599688</v>
+        <v>1.019218210653979</v>
       </c>
       <c r="U28" s="13">
-        <v>1.162361623616237</v>
+        <v>1.217948717948718</v>
       </c>
       <c r="X28" s="13">
-        <v>0.8268088479622973</v>
+        <v>0.8376536663917362</v>
       </c>
       <c r="Y28" s="13">
-        <v>1.196674538926733</v>
+        <v>1.154803749267721</v>
       </c>
       <c r="Z28" s="13">
-        <v>1.302543980960345</v>
+        <v>1.325124849319786</v>
       </c>
       <c r="AA28" s="13">
-        <v>1.523253929671042</v>
+        <v>1.54441884280594</v>
       </c>
       <c r="AB28" s="13">
-        <v>1.580426861009891</v>
+        <v>1.572789493155753</v>
       </c>
       <c r="AC28" s="13">
-        <v>1.404492254081285</v>
+        <v>1.324656470508795</v>
       </c>
       <c r="AD28" s="13">
-        <v>0.4657960944051756</v>
+        <v>0.4620136698212409</v>
       </c>
       <c r="AE28" s="13">
-        <v>1.133524662936428</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="AF28" s="13">
-        <v>1.014469959106638</v>
+        <v>1.02294634880331</v>
       </c>
       <c r="AG28" s="13">
-        <v>1.09270206505315</v>
+        <v>1.165311653116531</v>
       </c>
       <c r="AH28" s="13">
-        <v>0.785490868731712</v>
+        <v>0.7564382564382562</v>
       </c>
       <c r="AI28" s="13">
-        <v>0.321939586645469</v>
+        <v>0.3658891068963012</v>
       </c>
       <c r="AJ28" s="13">
-        <v>0.9844751459905995</v>
+        <v>1.055069348482522</v>
       </c>
       <c r="AK28" s="13">
-        <v>1.245295193031509</v>
+        <v>1.24935848088273</v>
       </c>
       <c r="AL28" s="13">
-        <v>1.103912930811091</v>
+        <v>0.992339832869081</v>
       </c>
       <c r="AM28" s="13">
-        <v>0.6140650129148592</v>
+        <v>0.7276809297411514</v>
       </c>
       <c r="AN28" s="13">
-        <v>1.137784532485925</v>
+        <v>1.087898483441659</v>
       </c>
       <c r="AO28" s="13">
-        <v>0.5474189675870348</v>
+        <v>0.5512039454598201</v>
       </c>
       <c r="AP28" s="13">
-        <v>1.086933888599688</v>
+        <v>1.019218210653979</v>
       </c>
       <c r="AQ28" s="13">
-        <v>1.162361623616237</v>
+        <v>1.217948717948718</v>
       </c>
     </row>
     <row r="29" spans="1:43">
       <c r="B29" s="13">
-        <v>43.25358517083946</v>
+        <v>39.71510340053211</v>
       </c>
       <c r="C29" s="13">
-        <v>32.66929692530924</v>
+        <v>33.8363689367785</v>
       </c>
       <c r="D29" s="13">
-        <v>79.7161728406616</v>
+        <v>75.69316201201553</v>
       </c>
       <c r="E29" s="13">
-        <v>59.2055476645786</v>
+        <v>55.66647211563236</v>
       </c>
       <c r="F29" s="13">
-        <v>68.49575309417098</v>
+        <v>62.88667253052583</v>
       </c>
       <c r="G29" s="13">
-        <v>49.06436948831894</v>
+        <v>51.70972954065948</v>
       </c>
       <c r="H29" s="13">
-        <v>17.66062177600205</v>
+        <v>16.34857067243342</v>
       </c>
       <c r="I29" s="13">
-        <v>31.94252927381627</v>
+        <v>29.91381773908521</v>
       </c>
       <c r="J29" s="13">
-        <v>37.5200094260359</v>
+        <v>34.45981596504689</v>
       </c>
       <c r="K29" s="13">
-        <v>29.82097197246041</v>
+        <v>30.35321331093365</v>
       </c>
       <c r="L29" s="13">
-        <v>15.64312820303546</v>
+        <v>15.18460889270248</v>
       </c>
       <c r="M29" s="13">
-        <v>28.01831964520074</v>
+        <v>26.07056143763612</v>
       </c>
       <c r="N29" s="13">
-        <v>22.50629893503244</v>
+        <v>22.98024291245047</v>
       </c>
       <c r="O29" s="13">
-        <v>10.58428824553021</v>
+        <v>9.7198083368657</v>
       </c>
       <c r="P29" s="13">
-        <v>17.31821854065663</v>
+        <v>18.81034983656436</v>
       </c>
       <c r="Q29" s="13">
-        <v>14.29197818120675</v>
+        <v>15.17005937045584</v>
       </c>
       <c r="R29" s="13">
-        <v>40.01921735461097</v>
+        <v>37.68108019045226</v>
       </c>
       <c r="S29" s="13">
-        <v>14.6981624113714</v>
+        <v>13.49322693153095</v>
       </c>
       <c r="T29" s="13">
-        <v>17.92581643867153</v>
+        <v>17.20990238943431</v>
       </c>
       <c r="U29" s="13">
-        <v>20.54419412072468</v>
+        <v>19.30139621238835</v>
       </c>
       <c r="X29" s="13">
-        <v>0.2669910079868585</v>
+        <v>0.6572347699970041</v>
       </c>
       <c r="Y29" s="13">
-        <v>0.009202572821006763</v>
+        <v>0.009977360171107801</v>
       </c>
       <c r="Z29" s="13">
-        <v>0.02180245908660558</v>
+        <v>0.04641696731830987</v>
       </c>
       <c r="AA29" s="13">
-        <v>0.03882540011515067</v>
+        <v>0.09897287089473217</v>
       </c>
       <c r="AB29" s="13">
-        <v>0.05709232529581333</v>
+        <v>0.1280025404881283</v>
       </c>
       <c r="AC29" s="13">
-        <v>0.01158141970834013</v>
+        <v>0.02839416894553637</v>
       </c>
       <c r="AD29" s="13">
-        <v>0.3006877015101309</v>
+        <v>0.6282051004036927</v>
       </c>
       <c r="AE29" s="13">
-        <v>0.00780581868532718</v>
+        <v>0.01038408058572685</v>
       </c>
       <c r="AF29" s="13">
-        <v>0.006285393610568169</v>
+        <v>0.009468959652848663</v>
       </c>
       <c r="AG29" s="13">
-        <v>0.004663121880002901</v>
+        <v>0.007486197631531093</v>
       </c>
       <c r="AH29" s="13">
-        <v>0.03777055975225359</v>
+        <v>0.07857330009903167</v>
       </c>
       <c r="AI29" s="13">
-        <v>0.07609400134991064</v>
+        <v>0.1964205402346609</v>
       </c>
       <c r="AJ29" s="13">
-        <v>0.009377167087942426</v>
+        <v>0.01734916768604135</v>
       </c>
       <c r="AK29" s="13">
-        <v>0.007136540661966618</v>
+        <v>0.006583786711629926</v>
       </c>
       <c r="AL29" s="13">
-        <v>0.01178511301978015</v>
+        <v>0.01118481140200096</v>
       </c>
       <c r="AM29" s="13">
-        <v>0.0111231097575486</v>
+        <v>0.02688167740366425</v>
       </c>
       <c r="AN29" s="13">
-        <v>0.008940681420563073</v>
+        <v>0.009024109199350728</v>
       </c>
       <c r="AO29" s="13">
-        <v>0.03090318525184963</v>
+        <v>0.07273940415186234</v>
       </c>
       <c r="AP29" s="13">
-        <v>0.002240626425984182</v>
+        <v>0.002427612474756824</v>
       </c>
       <c r="AQ29" s="13">
-        <v>0.008264128636093588</v>
+        <v>0.007626007774095716</v>
       </c>
     </row>
     <row r="30" spans="1:43">
@@ -3743,7 +3863,7 @@
         <v>19</v>
       </c>
       <c r="Q30" s="13">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="R30" s="13">
         <v>34</v>
@@ -3764,16 +3884,16 @@
         <v>24.4</v>
       </c>
       <c r="Z30" s="13">
-        <v>31.7</v>
+        <v>32</v>
       </c>
       <c r="AA30" s="13">
-        <v>19.3</v>
+        <v>20.5</v>
       </c>
       <c r="AB30" s="13">
-        <v>20.5</v>
+        <v>21.4</v>
       </c>
       <c r="AC30" s="13">
-        <v>18.1</v>
+        <v>18.5</v>
       </c>
       <c r="AD30" s="13">
         <v>14.5</v>
@@ -3880,7 +4000,7 @@
         <v>-7</v>
       </c>
       <c r="X31" s="13">
-        <v>25.9</v>
+        <v>24.1</v>
       </c>
       <c r="Y31" s="13">
         <v>23.7</v>
@@ -3898,25 +4018,25 @@
         <v>17</v>
       </c>
       <c r="AD31" s="13">
-        <v>9.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="AE31" s="13">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="AF31" s="13">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="AG31" s="13">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="AH31" s="13">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AI31" s="13">
-        <v>5.9</v>
+        <v>4.9</v>
       </c>
       <c r="AJ31" s="13">
-        <v>10.9</v>
+        <v>10.6</v>
       </c>
       <c r="AK31" s="13">
         <v>8.9</v>
@@ -3925,16 +4045,16 @@
         <v>7.1</v>
       </c>
       <c r="AM31" s="13">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AN31" s="13">
         <v>9</v>
       </c>
       <c r="AO31" s="13">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="AP31" s="13">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AQ31" s="13">
         <v>5.5</v>
@@ -3987,7 +4107,7 @@
         <v>28</v>
       </c>
       <c r="Q32" s="13">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="R32" s="13">
         <v>43</v>
@@ -4002,43 +4122,43 @@
         <v>34</v>
       </c>
       <c r="X32" s="13">
-        <v>5.100000000000001</v>
+        <v>6.899999999999999</v>
       </c>
       <c r="Y32" s="13">
         <v>0.6999999999999993</v>
       </c>
       <c r="Z32" s="13">
-        <v>1.399999999999999</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="AA32" s="13">
-        <v>1.800000000000001</v>
+        <v>3</v>
       </c>
       <c r="AB32" s="13">
+        <v>3.399999999999999</v>
+      </c>
+      <c r="AC32" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="AD32" s="13">
+        <v>6.4</v>
+      </c>
+      <c r="AE32" s="13">
+        <v>0.8000000000000007</v>
+      </c>
+      <c r="AF32" s="13">
+        <v>0.7999999999999989</v>
+      </c>
+      <c r="AG32" s="13">
+        <v>0.7999999999999989</v>
+      </c>
+      <c r="AH32" s="13">
         <v>2.5</v>
       </c>
-      <c r="AC32" s="13">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="AD32" s="13">
-        <v>5.300000000000001</v>
-      </c>
-      <c r="AE32" s="13">
-        <v>0.7000000000000011</v>
-      </c>
-      <c r="AF32" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="AG32" s="13">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="AH32" s="13">
-        <v>2</v>
-      </c>
       <c r="AI32" s="13">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="AJ32" s="13">
-        <v>0.9000000000000004</v>
+        <v>1.200000000000001</v>
       </c>
       <c r="AK32" s="13">
         <v>0.5999999999999996</v>
@@ -4047,16 +4167,16 @@
         <v>0.9000000000000004</v>
       </c>
       <c r="AM32" s="13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AN32" s="13">
         <v>0.6999999999999993</v>
       </c>
       <c r="AO32" s="13">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="AP32" s="13">
-        <v>0.2999999999999998</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="AQ32" s="13">
         <v>0.5999999999999996</v>
@@ -5303,6 +5423,36 @@
       <c r="A19" s="12" t="s">
         <v>17</v>
       </c>
+      <c r="B19" s="13">
+        <v>848</v>
+      </c>
+      <c r="C19" s="13">
+        <v>1113</v>
+      </c>
+      <c r="D19" s="13">
+        <v>839</v>
+      </c>
+      <c r="E19" s="13">
+        <v>328</v>
+      </c>
+      <c r="F19" s="13">
+        <v>371</v>
+      </c>
+      <c r="G19" s="13">
+        <v>134</v>
+      </c>
+      <c r="H19" s="13">
+        <v>331</v>
+      </c>
+      <c r="I19" s="13">
+        <v>131</v>
+      </c>
+      <c r="J19" s="13">
+        <v>164</v>
+      </c>
+      <c r="K19" s="13">
+        <v>156</v>
+      </c>
       <c r="M19" s="12" t="s">
         <v>17</v>
       </c>
@@ -5344,6 +5494,36 @@
       <c r="M20" s="12" t="s">
         <v>18</v>
       </c>
+      <c r="N20" s="13">
+        <v>33.2</v>
+      </c>
+      <c r="O20" s="13">
+        <v>37.1</v>
+      </c>
+      <c r="P20" s="13">
+        <v>28.8</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>13.6</v>
+      </c>
+      <c r="R20" s="13">
+        <v>13.8</v>
+      </c>
+      <c r="S20" s="13">
+        <v>7.2</v>
+      </c>
+      <c r="T20" s="13">
+        <v>11.4</v>
+      </c>
+      <c r="U20" s="13">
+        <v>5.7</v>
+      </c>
+      <c r="V20" s="13">
+        <v>7.6</v>
+      </c>
+      <c r="W20" s="13">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="12" t="s">
@@ -5371,312 +5551,312 @@
     </row>
     <row r="25" spans="1:23">
       <c r="B25" s="13">
-        <v>816</v>
+        <v>848</v>
       </c>
       <c r="C25" s="13">
-        <v>1041</v>
+        <v>1113</v>
       </c>
       <c r="D25" s="13">
-        <v>807</v>
+        <v>839</v>
       </c>
       <c r="E25" s="13">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="F25" s="13">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="G25" s="13">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H25" s="13">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="I25" s="13">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="J25" s="13">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K25" s="13">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="N25" s="13">
-        <v>610.5</v>
+        <v>643.7</v>
       </c>
       <c r="O25" s="13">
-        <v>588.8000000000002</v>
+        <v>625.9000000000002</v>
       </c>
       <c r="P25" s="13">
-        <v>465.0000000000001</v>
+        <v>493.8000000000001</v>
       </c>
       <c r="Q25" s="13">
-        <v>314.6</v>
+        <v>328.2</v>
       </c>
       <c r="R25" s="13">
-        <v>251.9</v>
+        <v>265.7</v>
       </c>
       <c r="S25" s="13">
-        <v>180.9999999999999</v>
+        <v>188.1999999999999</v>
       </c>
       <c r="T25" s="13">
-        <v>202</v>
+        <v>213.4</v>
       </c>
       <c r="U25" s="13">
-        <v>119</v>
+        <v>124.7</v>
       </c>
       <c r="V25" s="13">
-        <v>152.1</v>
+        <v>159.7</v>
       </c>
       <c r="W25" s="13">
-        <v>114.6</v>
+        <v>120.7</v>
       </c>
     </row>
     <row r="26" spans="1:23">
       <c r="B26" s="13">
-        <v>1.336609336609337</v>
+        <v>1.317383874475687</v>
       </c>
       <c r="C26" s="13">
-        <v>1.768002717391304</v>
+        <v>1.778239335357085</v>
       </c>
       <c r="D26" s="13">
-        <v>1.735483870967742</v>
+        <v>1.699068448764682</v>
       </c>
       <c r="E26" s="13">
-        <v>1.013986013986014</v>
+        <v>0.9993906154783669</v>
       </c>
       <c r="F26" s="13">
-        <v>1.321953156014291</v>
+        <v>1.396311629657508</v>
       </c>
       <c r="G26" s="13">
-        <v>0.7127071823204422</v>
+        <v>0.7120085015940492</v>
       </c>
       <c r="H26" s="13">
-        <v>1.48019801980198</v>
+        <v>1.55107778819119</v>
       </c>
       <c r="I26" s="13">
-        <v>1.058823529411765</v>
+        <v>1.050521251002406</v>
       </c>
       <c r="J26" s="13">
-        <v>1.071663379355687</v>
+        <v>1.026925485284909</v>
       </c>
       <c r="K26" s="13">
-        <v>1.300174520069808</v>
+        <v>1.292460646230323</v>
       </c>
       <c r="N26" s="13">
-        <v>1.336609336609337</v>
+        <v>1.317383874475687</v>
       </c>
       <c r="O26" s="13">
-        <v>1.768002717391304</v>
+        <v>1.778239335357085</v>
       </c>
       <c r="P26" s="13">
-        <v>1.735483870967742</v>
+        <v>1.699068448764682</v>
       </c>
       <c r="Q26" s="13">
-        <v>1.013986013986014</v>
+        <v>0.9993906154783669</v>
       </c>
       <c r="R26" s="13">
-        <v>1.321953156014291</v>
+        <v>1.396311629657508</v>
       </c>
       <c r="S26" s="13">
-        <v>0.7127071823204422</v>
+        <v>0.7120085015940492</v>
       </c>
       <c r="T26" s="13">
-        <v>1.48019801980198</v>
+        <v>1.55107778819119</v>
       </c>
       <c r="U26" s="13">
-        <v>1.058823529411765</v>
+        <v>1.050521251002406</v>
       </c>
       <c r="V26" s="13">
-        <v>1.071663379355687</v>
+        <v>1.026925485284909</v>
       </c>
       <c r="W26" s="13">
-        <v>1.300174520069808</v>
+        <v>1.292460646230323</v>
       </c>
     </row>
     <row r="27" spans="1:23">
       <c r="B27" s="13">
-        <v>48</v>
+        <v>47.11111111111111</v>
       </c>
       <c r="C27" s="13">
-        <v>61.23529411764706</v>
+        <v>61.83333333333334</v>
       </c>
       <c r="D27" s="13">
-        <v>47.47058823529412</v>
+        <v>46.61111111111111</v>
       </c>
       <c r="E27" s="13">
-        <v>18.76470588235294</v>
+        <v>18.22222222222222</v>
       </c>
       <c r="F27" s="13">
-        <v>19.58823529411765</v>
+        <v>20.61111111111111</v>
       </c>
       <c r="G27" s="13">
-        <v>7.588235294117647</v>
+        <v>7.444444444444445</v>
       </c>
       <c r="H27" s="13">
-        <v>17.58823529411765</v>
+        <v>18.38888888888889</v>
       </c>
       <c r="I27" s="13">
-        <v>7.411764705882353</v>
+        <v>7.277777777777778</v>
       </c>
       <c r="J27" s="13">
-        <v>9.588235294117647</v>
+        <v>9.111111111111111</v>
       </c>
       <c r="K27" s="13">
-        <v>8.764705882352942</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="N27" s="13">
-        <v>33.91666666666666</v>
+        <v>33.87894736842105</v>
       </c>
       <c r="O27" s="13">
-        <v>32.71111111111112</v>
+        <v>32.94210526315791</v>
       </c>
       <c r="P27" s="13">
-        <v>25.83333333333334</v>
+        <v>25.98947368421053</v>
       </c>
       <c r="Q27" s="13">
-        <v>17.47777777777777</v>
+        <v>17.27368421052632</v>
       </c>
       <c r="R27" s="13">
-        <v>13.99444444444445</v>
+        <v>13.98421052631579</v>
       </c>
       <c r="S27" s="13">
-        <v>10.05555555555555</v>
+        <v>9.905263157894733</v>
       </c>
       <c r="T27" s="13">
-        <v>11.22222222222222</v>
+        <v>11.23157894736842</v>
       </c>
       <c r="U27" s="13">
-        <v>6.611111111111111</v>
+        <v>6.563157894736842</v>
       </c>
       <c r="V27" s="13">
-        <v>8.449999999999999</v>
+        <v>8.405263157894737</v>
       </c>
       <c r="W27" s="13">
-        <v>6.366666666666667</v>
+        <v>6.352631578947369</v>
       </c>
     </row>
     <row r="28" spans="1:23">
       <c r="B28" s="13">
-        <v>1.415233415233415</v>
+        <v>1.390571867502115</v>
       </c>
       <c r="C28" s="13">
-        <v>1.872002877237851</v>
+        <v>1.87703040954359</v>
       </c>
       <c r="D28" s="13">
-        <v>1.837571157495256</v>
+        <v>1.79346114036272</v>
       </c>
       <c r="E28" s="13">
-        <v>1.073632250102839</v>
+        <v>1.054912316338276</v>
       </c>
       <c r="F28" s="13">
-        <v>1.399715106368073</v>
+        <v>1.473884497971815</v>
       </c>
       <c r="G28" s="13">
-        <v>0.7546311342216447</v>
+        <v>0.7515645294603852</v>
       </c>
       <c r="H28" s="13">
-        <v>1.567268491555038</v>
+        <v>1.637248776424034</v>
       </c>
       <c r="I28" s="13">
-        <v>1.121107266435986</v>
+        <v>1.108883542724762</v>
       </c>
       <c r="J28" s="13">
-        <v>1.134702401670727</v>
+        <v>1.083976901134071</v>
       </c>
       <c r="K28" s="13">
-        <v>1.376655374191561</v>
+        <v>1.364264015465341</v>
       </c>
       <c r="N28" s="13">
-        <v>1.415233415233415</v>
+        <v>1.390571867502115</v>
       </c>
       <c r="O28" s="13">
-        <v>1.872002877237851</v>
+        <v>1.87703040954359</v>
       </c>
       <c r="P28" s="13">
-        <v>1.837571157495256</v>
+        <v>1.79346114036272</v>
       </c>
       <c r="Q28" s="13">
-        <v>1.073632250102839</v>
+        <v>1.054912316338276</v>
       </c>
       <c r="R28" s="13">
-        <v>1.399715106368073</v>
+        <v>1.473884497971815</v>
       </c>
       <c r="S28" s="13">
-        <v>0.7546311342216447</v>
+        <v>0.7515645294603852</v>
       </c>
       <c r="T28" s="13">
-        <v>1.567268491555038</v>
+        <v>1.637248776424034</v>
       </c>
       <c r="U28" s="13">
-        <v>1.121107266435986</v>
+        <v>1.108883542724762</v>
       </c>
       <c r="V28" s="13">
-        <v>1.134702401670727</v>
+        <v>1.083976901134071</v>
       </c>
       <c r="W28" s="13">
-        <v>1.376655374191561</v>
+        <v>1.364264015465341</v>
       </c>
     </row>
     <row r="29" spans="1:23">
       <c r="B29" s="13">
-        <v>74.9577749376996</v>
+        <v>71.96484693631474</v>
       </c>
       <c r="C29" s="13">
-        <v>124.1648124407459</v>
+        <v>115.3958983186379</v>
       </c>
       <c r="D29" s="13">
-        <v>67.91333190463747</v>
+        <v>65.29316351011954</v>
       </c>
       <c r="E29" s="13">
-        <v>51.09025529744594</v>
+        <v>48.07162150288793</v>
       </c>
       <c r="F29" s="13">
-        <v>41.63220514464499</v>
+        <v>42.40385511171056</v>
       </c>
       <c r="G29" s="13">
-        <v>29.64809190755561</v>
+        <v>27.29490373469061</v>
       </c>
       <c r="H29" s="13">
-        <v>42.11727639471766</v>
+        <v>41.22534380973298</v>
       </c>
       <c r="I29" s="13">
-        <v>28.44968058384667</v>
+        <v>26.18404771115988</v>
       </c>
       <c r="J29" s="13">
-        <v>48.25200102798961</v>
+        <v>45.19954581140182</v>
       </c>
       <c r="K29" s="13">
-        <v>40.96082625181086</v>
+        <v>37.6337942431507</v>
       </c>
       <c r="N29" s="13">
-        <v>0.01656463107781217</v>
+        <v>0.02114946156016435</v>
       </c>
       <c r="O29" s="13">
-        <v>0.1704622026413919</v>
+        <v>0.3775255148562126</v>
       </c>
       <c r="P29" s="13">
-        <v>0.07516283192606618</v>
+        <v>0.1699837132844163</v>
       </c>
       <c r="Q29" s="13">
-        <v>0.1630419462958491</v>
+        <v>0.3223513486108281</v>
       </c>
       <c r="R29" s="13">
-        <v>0.001171236540847489</v>
+        <v>0.001512491541872119</v>
       </c>
       <c r="S29" s="13">
-        <v>0.06265024279403233</v>
+        <v>0.1510457939788363</v>
       </c>
       <c r="T29" s="13">
-        <v>0.02240626425982173</v>
+        <v>0.02102236143057349</v>
       </c>
       <c r="U29" s="13">
-        <v>0.03349300021176208</v>
+        <v>0.04037971116381146</v>
       </c>
       <c r="V29" s="13">
-        <v>0.01106491166857172</v>
+        <v>0.0184676488262584</v>
       </c>
       <c r="W29" s="13">
-        <v>0.006285393610546398</v>
+        <v>0.006609206737544839</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -5714,10 +5894,10 @@
         <v>34.5</v>
       </c>
       <c r="O30" s="13">
-        <v>36.1</v>
+        <v>37.1</v>
       </c>
       <c r="P30" s="13">
-        <v>28</v>
+        <v>28.8</v>
       </c>
       <c r="Q30" s="13">
         <v>18.5</v>
@@ -5773,7 +5953,7 @@
         <v>-16</v>
       </c>
       <c r="N31" s="13">
-        <v>33.7</v>
+        <v>33.2</v>
       </c>
       <c r="O31" s="13">
         <v>32.1</v>
@@ -5782,22 +5962,22 @@
         <v>25</v>
       </c>
       <c r="Q31" s="13">
-        <v>14.2</v>
+        <v>13.6</v>
       </c>
       <c r="R31" s="13">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="S31" s="13">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="T31" s="13">
         <v>10.9</v>
       </c>
       <c r="U31" s="13">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="V31" s="13">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="W31" s="13">
         <v>6</v>
@@ -5835,31 +6015,31 @@
         <v>54</v>
       </c>
       <c r="N32" s="13">
-        <v>0.7999999999999972</v>
+        <v>1.299999999999997</v>
       </c>
       <c r="O32" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P32" s="13">
-        <v>3</v>
+        <v>3.800000000000001</v>
       </c>
       <c r="Q32" s="13">
-        <v>4.300000000000001</v>
+        <v>4.9</v>
       </c>
       <c r="R32" s="13">
-        <v>0.1999999999999993</v>
+        <v>0.2999999999999989</v>
       </c>
       <c r="S32" s="13">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="T32" s="13">
         <v>0.9000000000000004</v>
       </c>
       <c r="U32" s="13">
-        <v>1.300000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="V32" s="13">
-        <v>0.7999999999999989</v>
+        <v>1.1</v>
       </c>
       <c r="W32" s="13">
         <v>0.7000000000000002</v>

--- a/2022/Fantasy F1 2022.xlsx
+++ b/2022/Fantasy F1 2022.xlsx
@@ -3118,6 +3118,66 @@
       <c r="A20" s="12" t="s">
         <v>18</v>
       </c>
+      <c r="B20" s="13">
+        <v>503</v>
+      </c>
+      <c r="C20" s="13">
+        <v>524</v>
+      </c>
+      <c r="D20" s="13">
+        <v>775</v>
+      </c>
+      <c r="E20" s="13">
+        <v>531</v>
+      </c>
+      <c r="F20" s="13">
+        <v>571</v>
+      </c>
+      <c r="G20" s="13">
+        <v>418</v>
+      </c>
+      <c r="H20" s="13">
+        <v>115</v>
+      </c>
+      <c r="I20" s="13">
+        <v>350</v>
+      </c>
+      <c r="J20" s="13">
+        <v>250</v>
+      </c>
+      <c r="K20" s="13">
+        <v>270</v>
+      </c>
+      <c r="L20" s="13">
+        <v>176</v>
+      </c>
+      <c r="M20" s="13">
+        <v>70</v>
+      </c>
+      <c r="N20" s="13">
+        <v>235</v>
+      </c>
+      <c r="O20" s="13">
+        <v>204</v>
+      </c>
+      <c r="P20" s="13">
+        <v>139</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>95</v>
+      </c>
+      <c r="R20" s="13">
+        <v>181</v>
+      </c>
+      <c r="S20" s="13">
+        <v>90</v>
+      </c>
+      <c r="T20" s="13">
+        <v>127</v>
+      </c>
+      <c r="U20" s="13">
+        <v>151</v>
+      </c>
       <c r="W20" s="12" t="s">
         <v>18</v>
       </c>
@@ -3186,8 +3246,128 @@
       <c r="A21" s="12" t="s">
         <v>19</v>
       </c>
+      <c r="B21" s="13">
+        <v>538</v>
+      </c>
+      <c r="C21" s="13">
+        <v>552</v>
+      </c>
+      <c r="D21" s="13">
+        <v>824</v>
+      </c>
+      <c r="E21" s="13">
+        <v>559</v>
+      </c>
+      <c r="F21" s="13">
+        <v>589</v>
+      </c>
+      <c r="G21" s="13">
+        <v>448</v>
+      </c>
+      <c r="H21" s="13">
+        <v>135</v>
+      </c>
+      <c r="I21" s="13">
+        <v>359</v>
+      </c>
+      <c r="J21" s="13">
+        <v>253</v>
+      </c>
+      <c r="K21" s="13">
+        <v>286</v>
+      </c>
+      <c r="L21" s="13">
+        <v>188</v>
+      </c>
+      <c r="M21" s="13">
+        <v>64</v>
+      </c>
+      <c r="N21" s="13">
+        <v>248</v>
+      </c>
+      <c r="O21" s="13">
+        <v>212</v>
+      </c>
+      <c r="P21" s="13">
+        <v>156</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>101</v>
+      </c>
+      <c r="R21" s="13">
+        <v>188</v>
+      </c>
+      <c r="S21" s="13">
+        <v>91</v>
+      </c>
+      <c r="T21" s="13">
+        <v>132</v>
+      </c>
+      <c r="U21" s="13">
+        <v>152</v>
+      </c>
       <c r="W21" s="12" t="s">
         <v>19</v>
+      </c>
+      <c r="X21" s="13">
+        <v>21.8</v>
+      </c>
+      <c r="Y21" s="13">
+        <v>23.4</v>
+      </c>
+      <c r="Z21" s="13">
+        <v>32.8</v>
+      </c>
+      <c r="AA21" s="13">
+        <v>22.7</v>
+      </c>
+      <c r="AB21" s="13">
+        <v>24.1</v>
+      </c>
+      <c r="AC21" s="13">
+        <v>18.8</v>
+      </c>
+      <c r="AD21" s="13">
+        <v>5.8</v>
+      </c>
+      <c r="AE21" s="13">
+        <v>15</v>
+      </c>
+      <c r="AF21" s="13">
+        <v>10.9</v>
+      </c>
+      <c r="AG21" s="13">
+        <v>11.9</v>
+      </c>
+      <c r="AH21" s="13">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AI21" s="13">
+        <v>4</v>
+      </c>
+      <c r="AJ21" s="13">
+        <v>10.4</v>
+      </c>
+      <c r="AK21" s="13">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AL21" s="13">
+        <v>6.6</v>
+      </c>
+      <c r="AM21" s="13">
+        <v>4.8</v>
+      </c>
+      <c r="AN21" s="13">
+        <v>8.9</v>
+      </c>
+      <c r="AO21" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="AP21" s="13">
+        <v>5.8</v>
+      </c>
+      <c r="AQ21" s="13">
+        <v>6.4</v>
       </c>
     </row>
     <row r="22" spans="1:43">
@@ -3197,6 +3377,66 @@
       <c r="W22" s="12" t="s">
         <v>20</v>
       </c>
+      <c r="X22" s="13">
+        <v>22</v>
+      </c>
+      <c r="Y22" s="13">
+        <v>23.3</v>
+      </c>
+      <c r="Z22" s="13">
+        <v>33.1</v>
+      </c>
+      <c r="AA22" s="13">
+        <v>22.9</v>
+      </c>
+      <c r="AB22" s="13">
+        <v>24.3</v>
+      </c>
+      <c r="AC22" s="13">
+        <v>18.7</v>
+      </c>
+      <c r="AD22" s="13">
+        <v>5.6</v>
+      </c>
+      <c r="AE22" s="13">
+        <v>15.1</v>
+      </c>
+      <c r="AF22" s="13">
+        <v>10.6</v>
+      </c>
+      <c r="AG22" s="13">
+        <v>11.9</v>
+      </c>
+      <c r="AH22" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="AI22" s="13">
+        <v>4</v>
+      </c>
+      <c r="AJ22" s="13">
+        <v>10.4</v>
+      </c>
+      <c r="AK22" s="13">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AL22" s="13">
+        <v>6.4</v>
+      </c>
+      <c r="AM22" s="13">
+        <v>4.6</v>
+      </c>
+      <c r="AN22" s="13">
+        <v>8.6</v>
+      </c>
+      <c r="AO22" s="13">
+        <v>4.4</v>
+      </c>
+      <c r="AP22" s="13">
+        <v>5.8</v>
+      </c>
+      <c r="AQ22" s="13">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="23" spans="1:43">
       <c r="A23" s="12" t="s">
@@ -3208,617 +3448,617 @@
     </row>
     <row r="25" spans="1:43">
       <c r="B25" s="13">
-        <v>449</v>
+        <v>538</v>
       </c>
       <c r="C25" s="13">
-        <v>498</v>
+        <v>552</v>
       </c>
       <c r="D25" s="13">
-        <v>729</v>
+        <v>824</v>
       </c>
       <c r="E25" s="13">
-        <v>508</v>
+        <v>559</v>
       </c>
       <c r="F25" s="13">
-        <v>537</v>
+        <v>589</v>
       </c>
       <c r="G25" s="13">
-        <v>413</v>
+        <v>448</v>
       </c>
       <c r="H25" s="13">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="I25" s="13">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="J25" s="13">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="K25" s="13">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="L25" s="13">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="M25" s="13">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="N25" s="13">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="O25" s="13">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="P25" s="13">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="Q25" s="13">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="R25" s="13">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="S25" s="13">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="T25" s="13">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="U25" s="13">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="X25" s="13">
-        <v>565.8000000000001</v>
+        <v>609.6</v>
       </c>
       <c r="Y25" s="13">
-        <v>455.2</v>
+        <v>501.9</v>
       </c>
       <c r="Z25" s="13">
-        <v>580.6999999999999</v>
+        <v>646.5999999999999</v>
       </c>
       <c r="AA25" s="13">
-        <v>347.2</v>
+        <v>392.8</v>
       </c>
       <c r="AB25" s="13">
-        <v>360.4</v>
+        <v>408.8</v>
       </c>
       <c r="AC25" s="13">
-        <v>329.1</v>
+        <v>366.6</v>
       </c>
       <c r="AD25" s="13">
-        <v>253.5999999999999</v>
+        <v>264.9999999999999</v>
       </c>
       <c r="AE25" s="13">
-        <v>300.2</v>
+        <v>330.3</v>
       </c>
       <c r="AF25" s="13">
-        <v>236.3</v>
+        <v>257.8</v>
       </c>
       <c r="AG25" s="13">
-        <v>233.7000000000001</v>
+        <v>257.5000000000001</v>
       </c>
       <c r="AH25" s="13">
-        <v>244.2</v>
+        <v>261.4</v>
       </c>
       <c r="AI25" s="13">
-        <v>152.9</v>
+        <v>160.9</v>
       </c>
       <c r="AJ25" s="13">
-        <v>217.1000000000001</v>
+        <v>237.9000000000001</v>
       </c>
       <c r="AK25" s="13">
-        <v>173.2</v>
+        <v>191.7</v>
       </c>
       <c r="AL25" s="13">
-        <v>143.6</v>
+        <v>156.6</v>
       </c>
       <c r="AM25" s="13">
-        <v>126.2</v>
+        <v>135.6</v>
       </c>
       <c r="AN25" s="13">
-        <v>179.5</v>
+        <v>197</v>
       </c>
       <c r="AO25" s="13">
-        <v>153.2</v>
+        <v>162.1</v>
       </c>
       <c r="AP25" s="13">
-        <v>119.1</v>
+        <v>130.7</v>
       </c>
       <c r="AQ25" s="13">
-        <v>114.4</v>
+        <v>127.2</v>
       </c>
     </row>
     <row r="26" spans="1:43">
       <c r="B26" s="13">
-        <v>0.793566631318487</v>
+        <v>0.8825459317585301</v>
       </c>
       <c r="C26" s="13">
-        <v>1.09402460456942</v>
+        <v>1.09982068141064</v>
       </c>
       <c r="D26" s="13">
-        <v>1.255381436197692</v>
+        <v>1.2743581812558</v>
       </c>
       <c r="E26" s="13">
-        <v>1.463133640552995</v>
+        <v>1.423116089613035</v>
       </c>
       <c r="F26" s="13">
-        <v>1.490011098779134</v>
+        <v>1.440802348336595</v>
       </c>
       <c r="G26" s="13">
-        <v>1.254937708903069</v>
+        <v>1.222040370976541</v>
       </c>
       <c r="H26" s="13">
-        <v>0.4376971608832809</v>
+        <v>0.5094339622641511</v>
       </c>
       <c r="I26" s="13">
-        <v>1.052631578947368</v>
+        <v>1.086890705419316</v>
       </c>
       <c r="J26" s="13">
-        <v>0.9691070672873467</v>
+        <v>0.9813809154383245</v>
       </c>
       <c r="K26" s="13">
-        <v>1.10397946084724</v>
+        <v>1.110679611650485</v>
       </c>
       <c r="L26" s="13">
-        <v>0.7166257166257165</v>
+        <v>0.71920428462127</v>
       </c>
       <c r="M26" s="13">
-        <v>0.3466317854807063</v>
+        <v>0.3977625854568054</v>
       </c>
       <c r="N26" s="13">
-        <v>0.9995393827729154</v>
+        <v>1.042454812946616</v>
       </c>
       <c r="O26" s="13">
-        <v>1.183602771362587</v>
+        <v>1.105894627021388</v>
       </c>
       <c r="P26" s="13">
-        <v>0.9401114206128136</v>
+        <v>0.9961685823754791</v>
       </c>
       <c r="Q26" s="13">
-        <v>0.6893819334389856</v>
+        <v>0.7448377581120943</v>
       </c>
       <c r="R26" s="13">
-        <v>1.030640668523677</v>
+        <v>0.9543147208121828</v>
       </c>
       <c r="S26" s="13">
-        <v>0.5221932114882506</v>
+        <v>0.5613818630475015</v>
       </c>
       <c r="T26" s="13">
-        <v>0.9655751469353485</v>
+        <v>1.009946442234124</v>
       </c>
       <c r="U26" s="13">
-        <v>1.153846153846154</v>
+        <v>1.19496855345912</v>
       </c>
       <c r="X26" s="13">
-        <v>0.793566631318487</v>
+        <v>0.8825459317585301</v>
       </c>
       <c r="Y26" s="13">
-        <v>1.09402460456942</v>
+        <v>1.09982068141064</v>
       </c>
       <c r="Z26" s="13">
-        <v>1.255381436197692</v>
+        <v>1.2743581812558</v>
       </c>
       <c r="AA26" s="13">
-        <v>1.463133640552995</v>
+        <v>1.423116089613035</v>
       </c>
       <c r="AB26" s="13">
-        <v>1.490011098779134</v>
+        <v>1.440802348336595</v>
       </c>
       <c r="AC26" s="13">
-        <v>1.254937708903069</v>
+        <v>1.222040370976541</v>
       </c>
       <c r="AD26" s="13">
-        <v>0.4376971608832809</v>
+        <v>0.5094339622641511</v>
       </c>
       <c r="AE26" s="13">
-        <v>1.052631578947368</v>
+        <v>1.086890705419316</v>
       </c>
       <c r="AF26" s="13">
-        <v>0.9691070672873467</v>
+        <v>0.9813809154383245</v>
       </c>
       <c r="AG26" s="13">
-        <v>1.10397946084724</v>
+        <v>1.110679611650485</v>
       </c>
       <c r="AH26" s="13">
-        <v>0.7166257166257165</v>
+        <v>0.71920428462127</v>
       </c>
       <c r="AI26" s="13">
-        <v>0.3466317854807063</v>
+        <v>0.3977625854568054</v>
       </c>
       <c r="AJ26" s="13">
-        <v>0.9995393827729154</v>
+        <v>1.042454812946616</v>
       </c>
       <c r="AK26" s="13">
-        <v>1.183602771362587</v>
+        <v>1.105894627021388</v>
       </c>
       <c r="AL26" s="13">
-        <v>0.9401114206128136</v>
+        <v>0.9961685823754791</v>
       </c>
       <c r="AM26" s="13">
-        <v>0.6893819334389856</v>
+        <v>0.7448377581120943</v>
       </c>
       <c r="AN26" s="13">
-        <v>1.030640668523677</v>
+        <v>0.9543147208121828</v>
       </c>
       <c r="AO26" s="13">
-        <v>0.5221932114882506</v>
+        <v>0.5613818630475015</v>
       </c>
       <c r="AP26" s="13">
-        <v>0.9655751469353485</v>
+        <v>1.009946442234124</v>
       </c>
       <c r="AQ26" s="13">
-        <v>1.153846153846154</v>
+        <v>1.19496855345912</v>
       </c>
     </row>
     <row r="27" spans="1:43">
       <c r="B27" s="13">
-        <v>24.94444444444444</v>
+        <v>26.9</v>
       </c>
       <c r="C27" s="13">
-        <v>27.66666666666667</v>
+        <v>27.6</v>
       </c>
       <c r="D27" s="13">
-        <v>40.5</v>
+        <v>41.2</v>
       </c>
       <c r="E27" s="13">
-        <v>28.22222222222222</v>
+        <v>27.95</v>
       </c>
       <c r="F27" s="13">
-        <v>29.83333333333333</v>
+        <v>29.45</v>
       </c>
       <c r="G27" s="13">
-        <v>22.94444444444444</v>
+        <v>22.4</v>
       </c>
       <c r="H27" s="13">
-        <v>6.166666666666667</v>
+        <v>6.75</v>
       </c>
       <c r="I27" s="13">
-        <v>17.55555555555556</v>
+        <v>17.95</v>
       </c>
       <c r="J27" s="13">
-        <v>12.72222222222222</v>
+        <v>12.65</v>
       </c>
       <c r="K27" s="13">
-        <v>14.33333333333333</v>
+        <v>14.3</v>
       </c>
       <c r="L27" s="13">
-        <v>9.722222222222221</v>
+        <v>9.4</v>
       </c>
       <c r="M27" s="13">
-        <v>2.944444444444445</v>
+        <v>3.2</v>
       </c>
       <c r="N27" s="13">
-        <v>12.05555555555556</v>
+        <v>12.4</v>
       </c>
       <c r="O27" s="13">
-        <v>11.38888888888889</v>
+        <v>10.6</v>
       </c>
       <c r="P27" s="13">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="Q27" s="13">
-        <v>4.833333333333333</v>
+        <v>5.05</v>
       </c>
       <c r="R27" s="13">
-        <v>10.27777777777778</v>
+        <v>9.4</v>
       </c>
       <c r="S27" s="13">
-        <v>4.444444444444445</v>
+        <v>4.55</v>
       </c>
       <c r="T27" s="13">
-        <v>6.388888888888889</v>
+        <v>6.6</v>
       </c>
       <c r="U27" s="13">
-        <v>7.333333333333333</v>
+        <v>7.6</v>
       </c>
       <c r="X27" s="13">
-        <v>29.77894736842106</v>
+        <v>29.02857142857143</v>
       </c>
       <c r="Y27" s="13">
-        <v>23.9578947368421</v>
+        <v>23.9</v>
       </c>
       <c r="Z27" s="13">
-        <v>30.56315789473684</v>
+        <v>30.79047619047619</v>
       </c>
       <c r="AA27" s="13">
-        <v>18.27368421052632</v>
+        <v>18.7047619047619</v>
       </c>
       <c r="AB27" s="13">
-        <v>18.96842105263158</v>
+        <v>19.46666666666667</v>
       </c>
       <c r="AC27" s="13">
-        <v>17.32105263157895</v>
+        <v>17.45714285714286</v>
       </c>
       <c r="AD27" s="13">
-        <v>13.34736842105263</v>
+        <v>12.61904761904762</v>
       </c>
       <c r="AE27" s="13">
-        <v>15.8</v>
+        <v>15.72857142857143</v>
       </c>
       <c r="AF27" s="13">
-        <v>12.43684210526316</v>
+        <v>12.27619047619047</v>
       </c>
       <c r="AG27" s="13">
-        <v>12.30000000000001</v>
+        <v>12.26190476190477</v>
       </c>
       <c r="AH27" s="13">
-        <v>12.85263157894737</v>
+        <v>12.44761904761905</v>
       </c>
       <c r="AI27" s="13">
-        <v>8.047368421052632</v>
+        <v>7.661904761904762</v>
       </c>
       <c r="AJ27" s="13">
-        <v>11.42631578947369</v>
+        <v>11.32857142857143</v>
       </c>
       <c r="AK27" s="13">
-        <v>9.11578947368421</v>
+        <v>9.128571428571428</v>
       </c>
       <c r="AL27" s="13">
-        <v>7.557894736842104</v>
+        <v>7.457142857142856</v>
       </c>
       <c r="AM27" s="13">
-        <v>6.642105263157896</v>
+        <v>6.457142857142858</v>
       </c>
       <c r="AN27" s="13">
-        <v>9.44736842105263</v>
+        <v>9.38095238095238</v>
       </c>
       <c r="AO27" s="13">
-        <v>8.063157894736843</v>
+        <v>7.71904761904762</v>
       </c>
       <c r="AP27" s="13">
-        <v>6.268421052631578</v>
+        <v>6.223809523809523</v>
       </c>
       <c r="AQ27" s="13">
-        <v>6.021052631578946</v>
+        <v>6.057142857142856</v>
       </c>
     </row>
     <row r="28" spans="1:43">
       <c r="B28" s="13">
-        <v>0.8376536663917362</v>
+        <v>0.9266732283464566</v>
       </c>
       <c r="C28" s="13">
-        <v>1.154803749267721</v>
+        <v>1.154811715481172</v>
       </c>
       <c r="D28" s="13">
-        <v>1.325124849319786</v>
+        <v>1.33807609031859</v>
       </c>
       <c r="E28" s="13">
-        <v>1.54441884280594</v>
+        <v>1.494271894093687</v>
       </c>
       <c r="F28" s="13">
-        <v>1.572789493155753</v>
+        <v>1.512842465753425</v>
       </c>
       <c r="G28" s="13">
-        <v>1.324656470508795</v>
+        <v>1.283142389525368</v>
       </c>
       <c r="H28" s="13">
-        <v>0.4620136698212409</v>
+        <v>0.5349056603773585</v>
       </c>
       <c r="I28" s="13">
-        <v>1.111111111111111</v>
+        <v>1.141235240690281</v>
       </c>
       <c r="J28" s="13">
-        <v>1.02294634880331</v>
+        <v>1.030449961210241</v>
       </c>
       <c r="K28" s="13">
-        <v>1.165311653116531</v>
+        <v>1.166213592233009</v>
       </c>
       <c r="L28" s="13">
-        <v>0.7564382564382562</v>
+        <v>0.7551644988523335</v>
       </c>
       <c r="M28" s="13">
-        <v>0.3658891068963012</v>
+        <v>0.4176507147296458</v>
       </c>
       <c r="N28" s="13">
-        <v>1.055069348482522</v>
+        <v>1.094577553593947</v>
       </c>
       <c r="O28" s="13">
-        <v>1.24935848088273</v>
+        <v>1.161189358372457</v>
       </c>
       <c r="P28" s="13">
-        <v>0.992339832869081</v>
+        <v>1.045977011494253</v>
       </c>
       <c r="Q28" s="13">
-        <v>0.7276809297411514</v>
+        <v>0.782079646017699</v>
       </c>
       <c r="R28" s="13">
-        <v>1.087898483441659</v>
+        <v>1.002030456852792</v>
       </c>
       <c r="S28" s="13">
-        <v>0.5512039454598201</v>
+        <v>0.5894509561998765</v>
       </c>
       <c r="T28" s="13">
-        <v>1.019218210653979</v>
+        <v>1.06044376434583</v>
       </c>
       <c r="U28" s="13">
-        <v>1.217948717948718</v>
+        <v>1.254716981132076</v>
       </c>
       <c r="X28" s="13">
-        <v>0.8376536663917362</v>
+        <v>0.9266732283464566</v>
       </c>
       <c r="Y28" s="13">
-        <v>1.154803749267721</v>
+        <v>1.154811715481172</v>
       </c>
       <c r="Z28" s="13">
-        <v>1.325124849319786</v>
+        <v>1.33807609031859</v>
       </c>
       <c r="AA28" s="13">
-        <v>1.54441884280594</v>
+        <v>1.494271894093687</v>
       </c>
       <c r="AB28" s="13">
-        <v>1.572789493155753</v>
+        <v>1.512842465753425</v>
       </c>
       <c r="AC28" s="13">
-        <v>1.324656470508795</v>
+        <v>1.283142389525368</v>
       </c>
       <c r="AD28" s="13">
-        <v>0.4620136698212409</v>
+        <v>0.5349056603773585</v>
       </c>
       <c r="AE28" s="13">
-        <v>1.111111111111111</v>
+        <v>1.141235240690281</v>
       </c>
       <c r="AF28" s="13">
-        <v>1.02294634880331</v>
+        <v>1.030449961210241</v>
       </c>
       <c r="AG28" s="13">
-        <v>1.165311653116531</v>
+        <v>1.166213592233009</v>
       </c>
       <c r="AH28" s="13">
-        <v>0.7564382564382562</v>
+        <v>0.7551644988523335</v>
       </c>
       <c r="AI28" s="13">
-        <v>0.3658891068963012</v>
+        <v>0.4176507147296458</v>
       </c>
       <c r="AJ28" s="13">
-        <v>1.055069348482522</v>
+        <v>1.094577553593947</v>
       </c>
       <c r="AK28" s="13">
-        <v>1.24935848088273</v>
+        <v>1.161189358372457</v>
       </c>
       <c r="AL28" s="13">
-        <v>0.992339832869081</v>
+        <v>1.045977011494253</v>
       </c>
       <c r="AM28" s="13">
-        <v>0.7276809297411514</v>
+        <v>0.782079646017699</v>
       </c>
       <c r="AN28" s="13">
-        <v>1.087898483441659</v>
+        <v>1.002030456852792</v>
       </c>
       <c r="AO28" s="13">
-        <v>0.5512039454598201</v>
+        <v>0.5894509561998765</v>
       </c>
       <c r="AP28" s="13">
-        <v>1.019218210653979</v>
+        <v>1.06044376434583</v>
       </c>
       <c r="AQ28" s="13">
-        <v>1.217948717948718</v>
+        <v>1.254716981132076</v>
       </c>
     </row>
     <row r="29" spans="1:43">
       <c r="B29" s="13">
-        <v>39.71510340053211</v>
+        <v>43.62345017304343</v>
       </c>
       <c r="C29" s="13">
-        <v>33.8363689367785</v>
+        <v>28.92130322098226</v>
       </c>
       <c r="D29" s="13">
-        <v>75.69316201201553</v>
+        <v>65.66437222725874</v>
       </c>
       <c r="E29" s="13">
-        <v>55.66647211563236</v>
+        <v>47.81775468183861</v>
       </c>
       <c r="F29" s="13">
-        <v>62.88667253052583</v>
+        <v>55.42038580533793</v>
       </c>
       <c r="G29" s="13">
-        <v>51.70972954065948</v>
+        <v>48.24093054658047</v>
       </c>
       <c r="H29" s="13">
-        <v>16.34857067243342</v>
+        <v>16.07453367325161</v>
       </c>
       <c r="I29" s="13">
-        <v>29.91381773908521</v>
+        <v>29.34783318769036</v>
       </c>
       <c r="J29" s="13">
-        <v>34.45981596504689</v>
+        <v>31.24401883261018</v>
       </c>
       <c r="K29" s="13">
-        <v>30.35321331093365</v>
+        <v>26.00770664630005</v>
       </c>
       <c r="L29" s="13">
-        <v>15.18460889270248</v>
+        <v>13.8502050526337</v>
       </c>
       <c r="M29" s="13">
-        <v>26.07056143763612</v>
+        <v>25.34806659293761</v>
       </c>
       <c r="N29" s="13">
-        <v>22.98024291245047</v>
+        <v>19.99939199075811</v>
       </c>
       <c r="O29" s="13">
-        <v>9.7198083368657</v>
+        <v>10.00416813133406</v>
       </c>
       <c r="P29" s="13">
-        <v>18.81034983656436</v>
+        <v>17.18641847506338</v>
       </c>
       <c r="Q29" s="13">
-        <v>15.17005937045584</v>
+        <v>13.0692583114919</v>
       </c>
       <c r="R29" s="13">
-        <v>37.68108019045226</v>
+        <v>34.39966976585676</v>
       </c>
       <c r="S29" s="13">
-        <v>13.49322693153095</v>
+        <v>11.99594568229199</v>
       </c>
       <c r="T29" s="13">
-        <v>17.20990238943431</v>
+        <v>15.05768176048358</v>
       </c>
       <c r="U29" s="13">
-        <v>19.30139621238835</v>
+        <v>18.43414440650826</v>
       </c>
       <c r="X29" s="13">
-        <v>0.6572347699970041</v>
+        <v>1.733095391106941</v>
       </c>
       <c r="Y29" s="13">
-        <v>0.009977360171107801</v>
+        <v>0.0155869921597102</v>
       </c>
       <c r="Z29" s="13">
-        <v>0.04641696731830987</v>
+        <v>0.1475370661060666</v>
       </c>
       <c r="AA29" s="13">
-        <v>0.09897287089473217</v>
+        <v>0.4706183016908086</v>
       </c>
       <c r="AB29" s="13">
-        <v>0.1280025404881283</v>
+        <v>0.6250037478441536</v>
       </c>
       <c r="AC29" s="13">
-        <v>0.02839416894553637</v>
+        <v>0.06288237979862014</v>
       </c>
       <c r="AD29" s="13">
-        <v>0.6282051004036927</v>
+        <v>1.640503709426744</v>
       </c>
       <c r="AE29" s="13">
-        <v>0.01038408058572685</v>
+        <v>0.01956538634904228</v>
       </c>
       <c r="AF29" s="13">
-        <v>0.009468959652848663</v>
+        <v>0.06212034907082797</v>
       </c>
       <c r="AG29" s="13">
-        <v>0.007486197631531093</v>
+        <v>0.009451160325384291</v>
       </c>
       <c r="AH29" s="13">
-        <v>0.07857330009903167</v>
+        <v>0.4078843694365593</v>
       </c>
       <c r="AI29" s="13">
-        <v>0.1964205402346609</v>
+        <v>0.477060925116822</v>
       </c>
       <c r="AJ29" s="13">
-        <v>0.01734916768604135</v>
+        <v>0.03473672538449205</v>
       </c>
       <c r="AK29" s="13">
-        <v>0.006583786711629926</v>
+        <v>0.006056659810631117</v>
       </c>
       <c r="AL29" s="13">
-        <v>0.01118481140200096</v>
+        <v>0.03087708923067424</v>
       </c>
       <c r="AM29" s="13">
-        <v>0.02688167740366425</v>
+        <v>0.09426419068017075</v>
       </c>
       <c r="AN29" s="13">
-        <v>0.009024109199350728</v>
+        <v>0.01737825919522144</v>
       </c>
       <c r="AO29" s="13">
-        <v>0.07273940415186234</v>
+        <v>0.3081276196143979</v>
       </c>
       <c r="AP29" s="13">
-        <v>0.002427612474756824</v>
+        <v>0.006215003857971081</v>
       </c>
       <c r="AQ29" s="13">
-        <v>0.007626007774095716</v>
+        <v>0.00926312676920491</v>
       </c>
     </row>
     <row r="30" spans="1:43">
       <c r="B30" s="13">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C30" s="13">
         <v>53</v>
@@ -3884,16 +4124,16 @@
         <v>24.4</v>
       </c>
       <c r="Z30" s="13">
-        <v>32</v>
+        <v>33.1</v>
       </c>
       <c r="AA30" s="13">
-        <v>20.5</v>
+        <v>22.9</v>
       </c>
       <c r="AB30" s="13">
-        <v>21.4</v>
+        <v>24.3</v>
       </c>
       <c r="AC30" s="13">
-        <v>18.5</v>
+        <v>18.8</v>
       </c>
       <c r="AD30" s="13">
         <v>14.5</v>
@@ -3935,7 +4175,7 @@
         <v>6.5</v>
       </c>
       <c r="AQ30" s="13">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="31" spans="1:43">
@@ -4000,10 +4240,10 @@
         <v>-7</v>
       </c>
       <c r="X31" s="13">
-        <v>24.1</v>
+        <v>21.8</v>
       </c>
       <c r="Y31" s="13">
-        <v>23.7</v>
+        <v>23.3</v>
       </c>
       <c r="Z31" s="13">
         <v>30.3</v>
@@ -4018,43 +4258,43 @@
         <v>17</v>
       </c>
       <c r="AD31" s="13">
-        <v>8.1</v>
+        <v>5.6</v>
       </c>
       <c r="AE31" s="13">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="AF31" s="13">
-        <v>11.9</v>
+        <v>10.6</v>
       </c>
       <c r="AG31" s="13">
         <v>11.8</v>
       </c>
       <c r="AH31" s="13">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AI31" s="13">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="AJ31" s="13">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="AK31" s="13">
         <v>8.9</v>
       </c>
       <c r="AL31" s="13">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="AM31" s="13">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="AN31" s="13">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AO31" s="13">
-        <v>6.2</v>
+        <v>4.4</v>
       </c>
       <c r="AP31" s="13">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="AQ31" s="13">
         <v>5.5</v>
@@ -4062,7 +4302,7 @@
     </row>
     <row r="32" spans="1:43">
       <c r="B32" s="13">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C32" s="13">
         <v>52</v>
@@ -4122,64 +4362,64 @@
         <v>34</v>
       </c>
       <c r="X32" s="13">
-        <v>6.899999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y32" s="13">
-        <v>0.6999999999999993</v>
+        <v>1.099999999999998</v>
       </c>
       <c r="Z32" s="13">
-        <v>1.699999999999999</v>
+        <v>2.800000000000001</v>
       </c>
       <c r="AA32" s="13">
-        <v>3</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="AB32" s="13">
-        <v>3.399999999999999</v>
+        <v>6.300000000000001</v>
       </c>
       <c r="AC32" s="13">
-        <v>1.5</v>
+        <v>1.800000000000001</v>
       </c>
       <c r="AD32" s="13">
-        <v>6.4</v>
+        <v>8.9</v>
       </c>
       <c r="AE32" s="13">
-        <v>0.8000000000000007</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="AF32" s="13">
-        <v>0.7999999999999989</v>
+        <v>2.1</v>
       </c>
       <c r="AG32" s="13">
         <v>0.7999999999999989</v>
       </c>
       <c r="AH32" s="13">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="AI32" s="13">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="AJ32" s="13">
-        <v>1.200000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="AK32" s="13">
         <v>0.5999999999999996</v>
       </c>
       <c r="AL32" s="13">
+        <v>1.6</v>
+      </c>
+      <c r="AM32" s="13">
+        <v>2.4</v>
+      </c>
+      <c r="AN32" s="13">
+        <v>1.1</v>
+      </c>
+      <c r="AO32" s="13">
+        <v>4.1</v>
+      </c>
+      <c r="AP32" s="13">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="AQ32" s="13">
         <v>0.9000000000000004</v>
-      </c>
-      <c r="AM32" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="AN32" s="13">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="AO32" s="13">
-        <v>2.3</v>
-      </c>
-      <c r="AP32" s="13">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="AQ32" s="13">
-        <v>0.5999999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -5491,6 +5731,36 @@
       <c r="A20" s="12" t="s">
         <v>18</v>
       </c>
+      <c r="B20" s="13">
+        <v>908</v>
+      </c>
+      <c r="C20" s="13">
+        <v>1182</v>
+      </c>
+      <c r="D20" s="13">
+        <v>868</v>
+      </c>
+      <c r="E20" s="13">
+        <v>351</v>
+      </c>
+      <c r="F20" s="13">
+        <v>399</v>
+      </c>
+      <c r="G20" s="13">
+        <v>147</v>
+      </c>
+      <c r="H20" s="13">
+        <v>343</v>
+      </c>
+      <c r="I20" s="13">
+        <v>138</v>
+      </c>
+      <c r="J20" s="13">
+        <v>165</v>
+      </c>
+      <c r="K20" s="13">
+        <v>182</v>
+      </c>
       <c r="M20" s="12" t="s">
         <v>18</v>
       </c>
@@ -5529,8 +5799,68 @@
       <c r="A21" s="12" t="s">
         <v>19</v>
       </c>
+      <c r="B21" s="13">
+        <v>981</v>
+      </c>
+      <c r="C21" s="13">
+        <v>1259</v>
+      </c>
+      <c r="D21" s="13">
+        <v>906</v>
+      </c>
+      <c r="E21" s="13">
+        <v>375</v>
+      </c>
+      <c r="F21" s="13">
+        <v>408</v>
+      </c>
+      <c r="G21" s="13">
+        <v>148</v>
+      </c>
+      <c r="H21" s="13">
+        <v>359</v>
+      </c>
+      <c r="I21" s="13">
+        <v>156</v>
+      </c>
+      <c r="J21" s="13">
+        <v>168</v>
+      </c>
+      <c r="K21" s="13">
+        <v>183</v>
+      </c>
       <c r="M21" s="12" t="s">
         <v>19</v>
+      </c>
+      <c r="N21" s="13">
+        <v>31.3</v>
+      </c>
+      <c r="O21" s="13">
+        <v>38.5</v>
+      </c>
+      <c r="P21" s="13">
+        <v>29.4</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>12.4</v>
+      </c>
+      <c r="R21" s="13">
+        <v>13.4</v>
+      </c>
+      <c r="S21" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="T21" s="13">
+        <v>11.6</v>
+      </c>
+      <c r="U21" s="13">
+        <v>5.3</v>
+      </c>
+      <c r="V21" s="13">
+        <v>6.8</v>
+      </c>
+      <c r="W21" s="13">
+        <v>5.9</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -5540,6 +5870,36 @@
       <c r="M22" s="12" t="s">
         <v>20</v>
       </c>
+      <c r="N22" s="13">
+        <v>31.2</v>
+      </c>
+      <c r="O22" s="13">
+        <v>38.9</v>
+      </c>
+      <c r="P22" s="13">
+        <v>29.4</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>12.2</v>
+      </c>
+      <c r="R22" s="13">
+        <v>13.3</v>
+      </c>
+      <c r="S22" s="13">
+        <v>5.4</v>
+      </c>
+      <c r="T22" s="13">
+        <v>11.6</v>
+      </c>
+      <c r="U22" s="13">
+        <v>5.1</v>
+      </c>
+      <c r="V22" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="W22" s="13">
+        <v>6</v>
+      </c>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="12" t="s">
@@ -5551,312 +5911,312 @@
     </row>
     <row r="25" spans="1:23">
       <c r="B25" s="13">
-        <v>848</v>
+        <v>981</v>
       </c>
       <c r="C25" s="13">
-        <v>1113</v>
+        <v>1259</v>
       </c>
       <c r="D25" s="13">
-        <v>839</v>
+        <v>906</v>
       </c>
       <c r="E25" s="13">
-        <v>328</v>
+        <v>375</v>
       </c>
       <c r="F25" s="13">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="G25" s="13">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="H25" s="13">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="I25" s="13">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="J25" s="13">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K25" s="13">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="N25" s="13">
-        <v>643.7</v>
+        <v>706.2</v>
       </c>
       <c r="O25" s="13">
-        <v>625.9000000000002</v>
+        <v>703.3000000000002</v>
       </c>
       <c r="P25" s="13">
-        <v>493.8000000000001</v>
+        <v>552.6</v>
       </c>
       <c r="Q25" s="13">
-        <v>328.2</v>
+        <v>352.8</v>
       </c>
       <c r="R25" s="13">
-        <v>265.7</v>
+        <v>292.4</v>
       </c>
       <c r="S25" s="13">
-        <v>188.1999999999999</v>
+        <v>199.0999999999999</v>
       </c>
       <c r="T25" s="13">
-        <v>213.4</v>
+        <v>236.6</v>
       </c>
       <c r="U25" s="13">
-        <v>124.7</v>
+        <v>135.1</v>
       </c>
       <c r="V25" s="13">
-        <v>159.7</v>
+        <v>173</v>
       </c>
       <c r="W25" s="13">
-        <v>120.7</v>
+        <v>132.6</v>
       </c>
     </row>
     <row r="26" spans="1:23">
       <c r="B26" s="13">
-        <v>1.317383874475687</v>
+        <v>1.389124893797791</v>
       </c>
       <c r="C26" s="13">
-        <v>1.778239335357085</v>
+        <v>1.790132233755154</v>
       </c>
       <c r="D26" s="13">
-        <v>1.699068448764682</v>
+        <v>1.639522258414766</v>
       </c>
       <c r="E26" s="13">
-        <v>0.9993906154783669</v>
+        <v>1.062925170068027</v>
       </c>
       <c r="F26" s="13">
-        <v>1.396311629657508</v>
+        <v>1.395348837209302</v>
       </c>
       <c r="G26" s="13">
-        <v>0.7120085015940492</v>
+        <v>0.7433450527373182</v>
       </c>
       <c r="H26" s="13">
-        <v>1.55107778819119</v>
+        <v>1.517328825021133</v>
       </c>
       <c r="I26" s="13">
-        <v>1.050521251002406</v>
+        <v>1.154700222057735</v>
       </c>
       <c r="J26" s="13">
-        <v>1.026925485284909</v>
+        <v>0.9710982658959537</v>
       </c>
       <c r="K26" s="13">
-        <v>1.292460646230323</v>
+        <v>1.380090497737556</v>
       </c>
       <c r="N26" s="13">
-        <v>1.317383874475687</v>
+        <v>1.389124893797791</v>
       </c>
       <c r="O26" s="13">
-        <v>1.778239335357085</v>
+        <v>1.790132233755154</v>
       </c>
       <c r="P26" s="13">
-        <v>1.699068448764682</v>
+        <v>1.639522258414766</v>
       </c>
       <c r="Q26" s="13">
-        <v>0.9993906154783669</v>
+        <v>1.062925170068027</v>
       </c>
       <c r="R26" s="13">
-        <v>1.396311629657508</v>
+        <v>1.395348837209302</v>
       </c>
       <c r="S26" s="13">
-        <v>0.7120085015940492</v>
+        <v>0.7433450527373182</v>
       </c>
       <c r="T26" s="13">
-        <v>1.55107778819119</v>
+        <v>1.517328825021133</v>
       </c>
       <c r="U26" s="13">
-        <v>1.050521251002406</v>
+        <v>1.154700222057735</v>
       </c>
       <c r="V26" s="13">
-        <v>1.026925485284909</v>
+        <v>0.9710982658959537</v>
       </c>
       <c r="W26" s="13">
-        <v>1.292460646230323</v>
+        <v>1.380090497737556</v>
       </c>
     </row>
     <row r="27" spans="1:23">
       <c r="B27" s="13">
-        <v>47.11111111111111</v>
+        <v>49.05</v>
       </c>
       <c r="C27" s="13">
-        <v>61.83333333333334</v>
+        <v>62.95</v>
       </c>
       <c r="D27" s="13">
-        <v>46.61111111111111</v>
+        <v>45.3</v>
       </c>
       <c r="E27" s="13">
-        <v>18.22222222222222</v>
+        <v>18.75</v>
       </c>
       <c r="F27" s="13">
-        <v>20.61111111111111</v>
+        <v>20.4</v>
       </c>
       <c r="G27" s="13">
-        <v>7.444444444444445</v>
+        <v>7.4</v>
       </c>
       <c r="H27" s="13">
-        <v>18.38888888888889</v>
+        <v>17.95</v>
       </c>
       <c r="I27" s="13">
-        <v>7.277777777777778</v>
+        <v>7.8</v>
       </c>
       <c r="J27" s="13">
-        <v>9.111111111111111</v>
+        <v>8.4</v>
       </c>
       <c r="K27" s="13">
-        <v>8.666666666666666</v>
+        <v>9.15</v>
       </c>
       <c r="N27" s="13">
-        <v>33.87894736842105</v>
+        <v>33.62857142857143</v>
       </c>
       <c r="O27" s="13">
-        <v>32.94210526315791</v>
+        <v>33.4904761904762</v>
       </c>
       <c r="P27" s="13">
-        <v>25.98947368421053</v>
+        <v>26.31428571428572</v>
       </c>
       <c r="Q27" s="13">
-        <v>17.27368421052632</v>
+        <v>16.8</v>
       </c>
       <c r="R27" s="13">
-        <v>13.98421052631579</v>
+        <v>13.92380952380952</v>
       </c>
       <c r="S27" s="13">
-        <v>9.905263157894733</v>
+        <v>9.480952380952377</v>
       </c>
       <c r="T27" s="13">
-        <v>11.23157894736842</v>
+        <v>11.26666666666667</v>
       </c>
       <c r="U27" s="13">
-        <v>6.563157894736842</v>
+        <v>6.433333333333333</v>
       </c>
       <c r="V27" s="13">
-        <v>8.405263157894737</v>
+        <v>8.238095238095237</v>
       </c>
       <c r="W27" s="13">
-        <v>6.352631578947369</v>
+        <v>6.314285714285715</v>
       </c>
     </row>
     <row r="28" spans="1:23">
       <c r="B28" s="13">
-        <v>1.390571867502115</v>
+        <v>1.45858113848768</v>
       </c>
       <c r="C28" s="13">
-        <v>1.87703040954359</v>
+        <v>1.879638845442911</v>
       </c>
       <c r="D28" s="13">
-        <v>1.79346114036272</v>
+        <v>1.721498371335505</v>
       </c>
       <c r="E28" s="13">
-        <v>1.054912316338276</v>
+        <v>1.116071428571429</v>
       </c>
       <c r="F28" s="13">
-        <v>1.473884497971815</v>
+        <v>1.465116279069768</v>
       </c>
       <c r="G28" s="13">
-        <v>0.7515645294603852</v>
+        <v>0.7805123053741841</v>
       </c>
       <c r="H28" s="13">
-        <v>1.637248776424034</v>
+        <v>1.593195266272189</v>
       </c>
       <c r="I28" s="13">
-        <v>1.108883542724762</v>
+        <v>1.212435233160622</v>
       </c>
       <c r="J28" s="13">
-        <v>1.083976901134071</v>
+        <v>1.019653179190751</v>
       </c>
       <c r="K28" s="13">
-        <v>1.364264015465341</v>
+        <v>1.449095022624434</v>
       </c>
       <c r="N28" s="13">
-        <v>1.390571867502115</v>
+        <v>1.45858113848768</v>
       </c>
       <c r="O28" s="13">
-        <v>1.87703040954359</v>
+        <v>1.879638845442911</v>
       </c>
       <c r="P28" s="13">
-        <v>1.79346114036272</v>
+        <v>1.721498371335505</v>
       </c>
       <c r="Q28" s="13">
-        <v>1.054912316338276</v>
+        <v>1.116071428571429</v>
       </c>
       <c r="R28" s="13">
-        <v>1.473884497971815</v>
+        <v>1.465116279069768</v>
       </c>
       <c r="S28" s="13">
-        <v>0.7515645294603852</v>
+        <v>0.7805123053741841</v>
       </c>
       <c r="T28" s="13">
-        <v>1.637248776424034</v>
+        <v>1.593195266272189</v>
       </c>
       <c r="U28" s="13">
-        <v>1.108883542724762</v>
+        <v>1.212435233160622</v>
       </c>
       <c r="V28" s="13">
-        <v>1.083976901134071</v>
+        <v>1.019653179190751</v>
       </c>
       <c r="W28" s="13">
-        <v>1.364264015465341</v>
+        <v>1.449095022624434</v>
       </c>
     </row>
     <row r="29" spans="1:23">
       <c r="B29" s="13">
-        <v>71.96484693631474</v>
+        <v>69.95482765908662</v>
       </c>
       <c r="C29" s="13">
-        <v>115.3958983186379</v>
+        <v>101.3939434227334</v>
       </c>
       <c r="D29" s="13">
-        <v>65.29316351011954</v>
+        <v>59.66052970767198</v>
       </c>
       <c r="E29" s="13">
-        <v>48.07162150288793</v>
+        <v>41.6104299762992</v>
       </c>
       <c r="F29" s="13">
-        <v>42.40385511171056</v>
+        <v>38.3127887264814</v>
       </c>
       <c r="G29" s="13">
-        <v>27.29490373469061</v>
+        <v>24.11375706935773</v>
       </c>
       <c r="H29" s="13">
-        <v>41.22534380973298</v>
+        <v>35.67590556401477</v>
       </c>
       <c r="I29" s="13">
-        <v>26.18404771115988</v>
+        <v>23.58157289071278</v>
       </c>
       <c r="J29" s="13">
-        <v>45.19954581140182</v>
+        <v>39.63206883320628</v>
       </c>
       <c r="K29" s="13">
-        <v>37.6337942431507</v>
+        <v>36.09628634378473</v>
       </c>
       <c r="N29" s="13">
-        <v>0.02114946156016435</v>
+        <v>0.1482100283071297</v>
       </c>
       <c r="O29" s="13">
-        <v>0.3775255148562126</v>
+        <v>0.949124116239404</v>
       </c>
       <c r="P29" s="13">
-        <v>0.1699837132844163</v>
+        <v>0.365002822117143</v>
       </c>
       <c r="Q29" s="13">
-        <v>0.3223513486108281</v>
+        <v>0.7427721330509273</v>
       </c>
       <c r="R29" s="13">
-        <v>0.001512491541872119</v>
+        <v>0.008916749165660756</v>
       </c>
       <c r="S29" s="13">
-        <v>0.1510457939788363</v>
+        <v>0.5032767614540327</v>
       </c>
       <c r="T29" s="13">
-        <v>0.02102236143057349</v>
+        <v>0.02064410517152989</v>
       </c>
       <c r="U29" s="13">
-        <v>0.04037971116381146</v>
+        <v>0.0698990003962308</v>
       </c>
       <c r="V29" s="13">
-        <v>0.0184676488262584</v>
+        <v>0.07429304770982796</v>
       </c>
       <c r="W29" s="13">
-        <v>0.006609206737544839</v>
+        <v>0.00878809462718967</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -5894,10 +6254,10 @@
         <v>34.5</v>
       </c>
       <c r="O30" s="13">
-        <v>37.1</v>
+        <v>38.9</v>
       </c>
       <c r="P30" s="13">
-        <v>28.8</v>
+        <v>29.4</v>
       </c>
       <c r="Q30" s="13">
         <v>18.5</v>
@@ -5953,7 +6313,7 @@
         <v>-16</v>
       </c>
       <c r="N31" s="13">
-        <v>33.2</v>
+        <v>31.2</v>
       </c>
       <c r="O31" s="13">
         <v>32.1</v>
@@ -5962,25 +6322,25 @@
         <v>25</v>
       </c>
       <c r="Q31" s="13">
-        <v>13.6</v>
+        <v>12.2</v>
       </c>
       <c r="R31" s="13">
-        <v>13.8</v>
+        <v>13.3</v>
       </c>
       <c r="S31" s="13">
-        <v>7.2</v>
+        <v>5.4</v>
       </c>
       <c r="T31" s="13">
         <v>10.9</v>
       </c>
       <c r="U31" s="13">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="V31" s="13">
-        <v>7.6</v>
+        <v>6.5</v>
       </c>
       <c r="W31" s="13">
-        <v>6</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -6015,34 +6375,34 @@
         <v>54</v>
       </c>
       <c r="N32" s="13">
-        <v>1.299999999999997</v>
+        <v>3.300000000000001</v>
       </c>
       <c r="O32" s="13">
-        <v>5</v>
+        <v>6.799999999999997</v>
       </c>
       <c r="P32" s="13">
-        <v>3.800000000000001</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="Q32" s="13">
-        <v>4.9</v>
+        <v>6.300000000000001</v>
       </c>
       <c r="R32" s="13">
-        <v>0.2999999999999989</v>
+        <v>0.7999999999999989</v>
       </c>
       <c r="S32" s="13">
-        <v>3.3</v>
+        <v>5.1</v>
       </c>
       <c r="T32" s="13">
         <v>0.9000000000000004</v>
       </c>
       <c r="U32" s="13">
-        <v>1.7</v>
+        <v>2.300000000000001</v>
       </c>
       <c r="V32" s="13">
-        <v>1.1</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="W32" s="13">
-        <v>0.7000000000000002</v>
+        <v>0.7999999999999998</v>
       </c>
     </row>
   </sheetData>
